--- a/Wetterbericht.xlsx
+++ b/Wetterbericht.xlsx
@@ -564,7 +564,7 @@
     <col customWidth="true" min="32" max="32" width="10.69140625"/>
     <col customWidth="true" min="33" max="33" width="13.8359375"/>
     <col customWidth="true" min="34" max="34" width="13.8359375"/>
-    <col customWidth="true" min="35" max="35" width="13.8359375"/>
+    <col customWidth="true" min="35" max="35" width="29.734375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="AE22" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="AF22" s="4" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="AE23" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="AF23" s="4" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="AE24" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="AF24" s="4" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="AE25" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="AF25" s="4" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="AE26" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>steigen</t>
         </is>
       </c>
       <c r="AF26" s="4" t="inlineStr">

--- a/Wetterbericht.xlsx
+++ b/Wetterbericht.xlsx
@@ -4429,58 +4429,58 @@
         <v>1</v>
       </c>
       <c r="G44" s="6">
-        <v>-5.1</v>
+        <v>-5.096</v>
       </c>
       <c r="H44" s="6">
-        <v>-5</v>
+        <v>-4.971</v>
       </c>
       <c r="I44" s="6">
-        <v>-4.8</v>
+        <v>-4.848</v>
       </c>
       <c r="J44" s="6">
-        <v>-4.7</v>
+        <v>-4.728</v>
       </c>
       <c r="K44" s="6">
-        <v>-4.6</v>
+        <v>-4.609</v>
       </c>
       <c r="L44" s="6">
-        <v>-4.3</v>
+        <v>-4.33</v>
       </c>
       <c r="M44" s="6">
-        <v>-4</v>
+        <v>-4.035</v>
       </c>
       <c r="N44" s="6">
-        <v>-4.2</v>
+        <v>-4.223</v>
       </c>
       <c r="O44" s="6">
-        <v>-3.8</v>
+        <v>-3.798</v>
       </c>
       <c r="P44" s="6">
-        <v>-3.6</v>
+        <v>-3.636</v>
       </c>
       <c r="Q44" s="6">
-        <v>-3.7</v>
+        <v>-3.693</v>
       </c>
       <c r="R44" s="6">
-        <v>-2.9</v>
+        <v>-2.876</v>
       </c>
       <c r="S44" s="6">
-        <v>-2.7</v>
+        <v>-2.715</v>
       </c>
       <c r="T44" s="6">
-        <v>-2.8</v>
+        <v>-2.764</v>
       </c>
       <c r="U44" s="6">
-        <v>-2.8</v>
+        <v>-2.795</v>
       </c>
       <c r="V44" s="6">
-        <v>-2.8</v>
+        <v>-2.766</v>
       </c>
       <c r="W44" s="6">
-        <v>-2.8</v>
+        <v>-2.836</v>
       </c>
       <c r="X44" s="6">
-        <v>-2.7</v>
+        <v>-2.711</v>
       </c>
       <c r="AC44" s="4" t="inlineStr">
         <is>

--- a/Wetterbericht.xlsx
+++ b/Wetterbericht.xlsx
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI72"/>
+  <dimension ref="A1:AJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -532,7 +532,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="12.15625"/>
     <col customWidth="true" min="2" max="2" width="23.14453125"/>
-    <col customWidth="true" min="3" max="3" width="9.375"/>
+    <col customWidth="true" min="3" max="3" width="13.8359375"/>
     <col customWidth="true" min="4" max="4" width="9.375"/>
     <col customWidth="true" min="5" max="5" width="9.375"/>
     <col customWidth="true" min="6" max="6" width="9.375"/>
@@ -558,13 +558,14 @@
     <col customWidth="true" min="26" max="26" width="9.375"/>
     <col customWidth="true" min="27" max="27" width="9.375"/>
     <col customWidth="true" min="28" max="28" width="9.375"/>
-    <col customWidth="true" min="29" max="29" width="15.0859375"/>
-    <col customWidth="true" min="30" max="30" width="8.7890625"/>
-    <col customWidth="true" min="31" max="31" width="13.8359375"/>
-    <col customWidth="true" min="32" max="32" width="10.69140625"/>
-    <col customWidth="true" min="33" max="33" width="13.8359375"/>
+    <col customWidth="true" min="29" max="29" width="9.375"/>
+    <col customWidth="true" min="30" max="30" width="15.0859375"/>
+    <col customWidth="true" min="31" max="31" width="8.7890625"/>
+    <col customWidth="true" min="32" max="32" width="13.8359375"/>
+    <col customWidth="true" min="33" max="33" width="10.69140625"/>
     <col customWidth="true" min="34" max="34" width="13.8359375"/>
-    <col customWidth="true" min="35" max="35" width="29.734375"/>
+    <col customWidth="true" min="35" max="35" width="13.8359375"/>
+    <col customWidth="true" min="36" max="36" width="29.734375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -580,165 +581,170 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>WetterVergleichswerte?</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>2001</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>2002</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>2003</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>INr</t>
         </is>
       </c>
-      <c r="AD1" s="2" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>Zieltyp</t>
         </is>
       </c>
-      <c r="AE1" s="2" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>Zielrichtung</t>
         </is>
       </c>
-      <c r="AF1" s="2" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>Zielwert</t>
         </is>
       </c>
-      <c r="AG1" s="2" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr</t>
         </is>
       </c>
-      <c r="AH1" s="2" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t>WetterAktuell</t>
         </is>
       </c>
-      <c r="AI1" s="2" t="inlineStr">
+      <c r="AJ1" s="2" t="inlineStr">
         <is>
           <t>WetterBerichtsjahr</t>
         </is>
@@ -747,341 +753,302 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>2.1.a</t>
+          <t>1.1.a</t>
         </is>
       </c>
       <c r="B2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
-        <v>108.3</v>
-      </c>
-      <c r="D2" s="6">
-        <v>107.8</v>
-      </c>
-      <c r="E2" s="6">
-        <v>105.1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>102.5</v>
-      </c>
-      <c r="G2" s="6">
-        <v>103.3</v>
-      </c>
-      <c r="H2" s="6">
-        <v>102.2</v>
-      </c>
-      <c r="I2" s="6">
-        <v>101.8</v>
-      </c>
-      <c r="J2" s="6">
-        <v>99.1</v>
-      </c>
-      <c r="K2" s="6">
-        <v>96.6</v>
-      </c>
-      <c r="L2" s="6">
-        <v>96.8</v>
-      </c>
-      <c r="M2" s="6">
-        <v>94.9</v>
+      <c r="C2" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="N2" s="6">
-        <v>93</v>
+        <v>11.1</v>
       </c>
       <c r="O2" s="6">
-        <v>93.2</v>
+        <v>12.4</v>
       </c>
       <c r="P2" s="6">
-        <v>95.6</v>
+        <v>11.3</v>
       </c>
       <c r="Q2" s="6">
-        <v>94</v>
+        <v>11.6</v>
       </c>
       <c r="R2" s="6">
-        <v>93.8</v>
+        <v>11.3</v>
       </c>
       <c r="S2" s="6">
-        <v>92.7</v>
+        <v>10.7</v>
       </c>
       <c r="T2" s="6">
-        <v>91.5</v>
+        <v>9.7</v>
       </c>
       <c r="U2" s="6">
-        <v>87</v>
-      </c>
-      <c r="AC2" s="4" t="inlineStr">
-        <is>
-          <t>Z02_B01_P01_Ib01_I01</t>
-        </is>
+        <v>9.1</v>
+      </c>
+      <c r="V2" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="W2" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="X2" s="6">
+        <v>13.4</v>
       </c>
       <c r="AD2" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z01_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE2" s="4" t="inlineStr">
         <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AF2" s="4" t="inlineStr">
+        <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF2" s="4" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG2" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH2" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
+      <c r="AG2" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI2" s="4" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AJ2" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>2.1.b</t>
+          <t>1.1.a</t>
         </is>
       </c>
       <c r="B3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3.573</v>
-      </c>
-      <c r="F3" s="6">
-        <v>4.299</v>
-      </c>
-      <c r="H3" s="6">
-        <v>4.593</v>
-      </c>
-      <c r="J3" s="6">
-        <v>5.079</v>
-      </c>
-      <c r="M3" s="6">
-        <v>5.636</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>17.8</v>
       </c>
       <c r="O3" s="6">
-        <v>5.76</v>
+        <v>18.5</v>
       </c>
       <c r="P3" s="6">
-        <v>6.04</v>
+        <v>19.8</v>
       </c>
       <c r="Q3" s="6">
-        <v>6.18</v>
+        <v>19.5</v>
       </c>
       <c r="R3" s="6">
-        <v>6.34</v>
+        <v>18.5</v>
       </c>
       <c r="S3" s="6">
-        <v>6.82</v>
+        <v>17</v>
       </c>
       <c r="T3" s="6">
-        <v>6.82</v>
+        <v>15.7</v>
       </c>
       <c r="U3" s="6">
-        <v>7.34</v>
+        <v>14.5</v>
       </c>
       <c r="V3" s="6">
-        <v>7.75</v>
+        <v>13.1</v>
       </c>
       <c r="W3" s="6">
-        <v>9.59</v>
+        <v>12</v>
       </c>
       <c r="X3" s="6">
-        <v>9.687</v>
-      </c>
-      <c r="AC3" s="4" t="inlineStr">
-        <is>
-          <t>Z02_B01_P01_Ib02_I01</t>
-        </is>
+        <v>13.3</v>
       </c>
       <c r="AD3" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z01_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>J</t>
         </is>
       </c>
       <c r="AF3" s="4" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AG3" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH3" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG3" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI3" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AJ3" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.1.b</t>
         </is>
       </c>
       <c r="B4" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="O4" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="P4" s="6">
+        <v>4.9</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="R4" s="6">
+        <v>5</v>
+      </c>
       <c r="S4" s="6">
-        <v>16.71</v>
+        <v>4.4</v>
+      </c>
+      <c r="T4" s="6">
+        <v>3.7</v>
       </c>
       <c r="U4" s="6">
-        <v>18.32</v>
-      </c>
-      <c r="AC4" s="4" t="inlineStr">
-        <is>
-          <t>Z02_B02_P01_Ib01_I01</t>
-        </is>
+        <v>3.4</v>
+      </c>
+      <c r="V4" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="W4" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="X4" s="6">
+        <v>5.6</v>
       </c>
       <c r="AD4" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z01_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AE4" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>J</t>
         </is>
       </c>
       <c r="AF4" s="4" t="inlineStr">
         <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG4" s="4" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="AH4" s="4" t="inlineStr">
-        <is>
-          <t>Ganz alt</t>
-        </is>
-      </c>
       <c r="AI4" s="4" t="inlineStr">
         <is>
-          <t>Ganz alt</t>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AJ4" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>3.1.a</t>
+          <t>1.1.b</t>
         </is>
       </c>
       <c r="B5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>184.3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>179</v>
-      </c>
-      <c r="E5" s="6">
-        <v>177</v>
-      </c>
-      <c r="F5" s="6">
-        <v>173.2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>166.4</v>
-      </c>
-      <c r="H5" s="6">
-        <v>164.7</v>
-      </c>
-      <c r="I5" s="6">
-        <v>159.2</v>
-      </c>
-      <c r="J5" s="6">
-        <v>157.9</v>
-      </c>
-      <c r="K5" s="6">
-        <v>158.8</v>
-      </c>
-      <c r="L5" s="6">
-        <v>157.4</v>
-      </c>
-      <c r="M5" s="6">
-        <v>155.4</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="N5" s="6">
-        <v>157.1</v>
+        <v>8.4</v>
       </c>
       <c r="O5" s="6">
-        <v>152.9</v>
+        <v>8.8</v>
       </c>
       <c r="P5" s="6">
-        <v>155.8</v>
+        <v>9.9</v>
       </c>
       <c r="Q5" s="6">
-        <v>149.1</v>
+        <v>9.6</v>
       </c>
       <c r="R5" s="6">
-        <v>153</v>
+        <v>8.9</v>
       </c>
       <c r="S5" s="6">
-        <v>151.6</v>
+        <v>8.1</v>
       </c>
       <c r="T5" s="6">
-        <v>148.7</v>
+        <v>7.5</v>
       </c>
       <c r="U5" s="6">
-        <v>151.1</v>
+        <v>6.6</v>
       </c>
       <c r="V5" s="6">
-        <v>145.9</v>
+        <v>5.9</v>
       </c>
       <c r="W5" s="6">
-        <v>145.4</v>
+        <v>5.3</v>
       </c>
       <c r="X5" s="6">
-        <v>151.8</v>
-      </c>
-      <c r="AC5" s="4" t="inlineStr">
-        <is>
-          <t>Z03_B01_P01_Ib01_I01</t>
-        </is>
+        <v>5.9</v>
       </c>
       <c r="AD5" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z01_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AE5" s="4" t="inlineStr">
         <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AF5" s="4" t="inlineStr">
+        <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF5" s="4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AG5" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH5" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+      <c r="AG5" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI5" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AJ5" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1090,195 +1057,192 @@
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>3.1.b</t>
+          <t>2.1.a</t>
         </is>
       </c>
       <c r="B6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
-        <v>381.8</v>
+      <c r="C6" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>366.5</v>
+        <v>108.3</v>
       </c>
       <c r="E6" s="6">
-        <v>360</v>
+        <v>107.8</v>
       </c>
       <c r="F6" s="6">
-        <v>355.5</v>
+        <v>105.1</v>
       </c>
       <c r="G6" s="6">
-        <v>337.3</v>
+        <v>102.5</v>
       </c>
       <c r="H6" s="6">
-        <v>329.4</v>
+        <v>103.3</v>
       </c>
       <c r="I6" s="6">
-        <v>318.4</v>
+        <v>102.2</v>
       </c>
       <c r="J6" s="6">
-        <v>312.9</v>
+        <v>101.8</v>
       </c>
       <c r="K6" s="6">
-        <v>307.8</v>
+        <v>99.1</v>
       </c>
       <c r="L6" s="6">
-        <v>304.8</v>
+        <v>96.6</v>
       </c>
       <c r="M6" s="6">
-        <v>300.6</v>
+        <v>96.8</v>
       </c>
       <c r="N6" s="6">
-        <v>298.7</v>
+        <v>94.9</v>
       </c>
       <c r="O6" s="6">
-        <v>292.3</v>
+        <v>93</v>
       </c>
       <c r="P6" s="6">
-        <v>291.9</v>
+        <v>93.2</v>
       </c>
       <c r="Q6" s="6">
-        <v>281.2</v>
+        <v>95.6</v>
       </c>
       <c r="R6" s="6">
-        <v>288.1</v>
+        <v>94</v>
       </c>
       <c r="S6" s="6">
-        <v>283.8</v>
+        <v>93.8</v>
       </c>
       <c r="T6" s="6">
-        <v>276</v>
+        <v>92.7</v>
       </c>
       <c r="U6" s="6">
-        <v>279.3</v>
+        <v>91.5</v>
       </c>
       <c r="V6" s="6">
-        <v>271</v>
-      </c>
-      <c r="W6" s="6">
-        <v>276.3</v>
-      </c>
-      <c r="X6" s="6">
-        <v>289.9</v>
-      </c>
-      <c r="AC6" s="4" t="inlineStr">
-        <is>
-          <t>Z03_B01_P01_Ib01_I02</t>
-        </is>
+        <v>87</v>
       </c>
       <c r="AD6" s="4" t="inlineStr">
         <is>
+          <t>Z02_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE6" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AF6" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="AG6" s="7">
+      <c r="AG6" s="4" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AH6" s="7">
         <v>2030</v>
       </c>
-      <c r="AH6" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AI6" s="4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ6" s="4" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>3.1.c</t>
+          <t>2.1.b</t>
         </is>
       </c>
       <c r="B7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
-        <v>27.5</v>
-      </c>
-      <c r="F7" s="6">
-        <v>22.5</v>
+      <c r="C7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3.573</v>
       </c>
       <c r="G7" s="6">
-        <v>23.5</v>
-      </c>
-      <c r="H7" s="6">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6">
-        <v>17.7</v>
+        <v>4.299</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4.593</v>
       </c>
       <c r="K7" s="6">
-        <v>15.4</v>
-      </c>
-      <c r="M7" s="6">
-        <v>12.9</v>
+        <v>5.079</v>
       </c>
       <c r="N7" s="6">
-        <v>11.7</v>
-      </c>
-      <c r="O7" s="6">
-        <v>12</v>
+        <v>5.636</v>
+      </c>
+      <c r="P7" s="6">
+        <v>5.76</v>
       </c>
       <c r="Q7" s="6">
-        <v>9.7</v>
+        <v>6.04</v>
       </c>
       <c r="R7" s="6">
-        <v>9.6</v>
+        <v>6.18</v>
       </c>
       <c r="S7" s="6">
-        <v>8.3</v>
+        <v>6.34</v>
+      </c>
+      <c r="T7" s="6">
+        <v>6.82</v>
       </c>
       <c r="U7" s="6">
-        <v>8.7</v>
+        <v>6.82</v>
       </c>
       <c r="V7" s="6">
-        <v>7.2</v>
+        <v>7.34</v>
+      </c>
+      <c r="W7" s="6">
+        <v>7.75</v>
       </c>
       <c r="X7" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Z03_B01_P01_Ib02_I01</t>
-        </is>
+        <v>9.59</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>9.687</v>
       </c>
       <c r="AD7" s="4" t="inlineStr">
         <is>
+          <t>Z02_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="AE7" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
       <c r="AF7" s="4" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG7" s="7">
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG7" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AH7" s="7">
         <v>2030</v>
       </c>
-      <c r="AH7" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="AI7" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ7" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -1287,509 +1251,530 @@
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>3.1.d</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="B8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
-        <v>27.4</v>
-      </c>
-      <c r="H8" s="6">
-        <v>27.2</v>
-      </c>
-      <c r="L8" s="6">
-        <v>25.7</v>
-      </c>
-      <c r="P8" s="6">
-        <v>24.5</v>
+      <c r="C8" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="T8" s="6">
-        <v>22.4</v>
-      </c>
-      <c r="X8" s="6">
-        <v>18.9</v>
-      </c>
-      <c r="AC8" s="4" t="inlineStr">
-        <is>
-          <t>Z03_B01_P01_Ib02_I02</t>
-        </is>
+        <v>16.71</v>
+      </c>
+      <c r="V8" s="6">
+        <v>18.32</v>
       </c>
       <c r="AD8" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z02_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE8" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AF8" s="4" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AG8" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH8" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG8" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI8" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>Ganz alt</t>
+        </is>
+      </c>
+      <c r="AJ8" s="4" t="inlineStr">
+        <is>
+          <t>Ganz alt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>3.1.e</t>
+          <t>3.1.a</t>
         </is>
       </c>
       <c r="B9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="AC9" s="4" t="inlineStr">
-        <is>
-          <t>Z03_B01_P01_Ib03_I01</t>
-        </is>
+      <c r="C9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>184.3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>179</v>
+      </c>
+      <c r="F9" s="6">
+        <v>177</v>
+      </c>
+      <c r="G9" s="6">
+        <v>173.2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>166.4</v>
+      </c>
+      <c r="I9" s="6">
+        <v>164.7</v>
+      </c>
+      <c r="J9" s="6">
+        <v>159.2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>157.9</v>
+      </c>
+      <c r="L9" s="6">
+        <v>158.8</v>
+      </c>
+      <c r="M9" s="6">
+        <v>157.4</v>
+      </c>
+      <c r="N9" s="6">
+        <v>155.4</v>
+      </c>
+      <c r="O9" s="6">
+        <v>157.1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>152.9</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>155.8</v>
+      </c>
+      <c r="R9" s="6">
+        <v>149.1</v>
+      </c>
+      <c r="S9" s="6">
+        <v>153</v>
+      </c>
+      <c r="T9" s="6">
+        <v>151.6</v>
+      </c>
+      <c r="U9" s="6">
+        <v>148.7</v>
+      </c>
+      <c r="V9" s="6">
+        <v>151.1</v>
+      </c>
+      <c r="W9" s="6">
+        <v>145.9</v>
+      </c>
+      <c r="X9" s="6">
+        <v>145.4</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>151.8</v>
       </c>
       <c r="AD9" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z03_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE9" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF9" s="4" t="inlineStr">
+        <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH9" s="4" t="inlineStr">
-        <is>
-          <t>Ganz alt</t>
-        </is>
+      <c r="AG9" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AH9" s="7">
+        <v>2030</v>
       </c>
       <c r="AI9" s="4" t="inlineStr">
         <is>
-          <t>Ganz alt</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ9" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>3.1.f</t>
+          <t>3.1.b</t>
         </is>
       </c>
       <c r="B10" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>381.8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>366.5</v>
+      </c>
       <c r="F10" s="6">
-        <v>11.7</v>
+        <v>360</v>
+      </c>
+      <c r="G10" s="6">
+        <v>355.5</v>
       </c>
       <c r="H10" s="6">
-        <v>12.5</v>
+        <v>337.3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>329.4</v>
+      </c>
+      <c r="J10" s="6">
+        <v>318.4</v>
+      </c>
+      <c r="K10" s="6">
+        <v>312.9</v>
       </c>
       <c r="L10" s="6">
-        <v>13.3</v>
+        <v>307.8</v>
+      </c>
+      <c r="M10" s="6">
+        <v>304.8</v>
+      </c>
+      <c r="N10" s="6">
+        <v>300.6</v>
+      </c>
+      <c r="O10" s="6">
+        <v>298.7</v>
       </c>
       <c r="P10" s="6">
-        <v>14.1</v>
+        <v>292.3</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>291.9</v>
+      </c>
+      <c r="R10" s="6">
+        <v>281.2</v>
+      </c>
+      <c r="S10" s="6">
+        <v>288.1</v>
       </c>
       <c r="T10" s="6">
-        <v>14.789</v>
+        <v>283.8</v>
+      </c>
+      <c r="U10" s="6">
+        <v>276</v>
+      </c>
+      <c r="V10" s="6">
+        <v>279.3</v>
+      </c>
+      <c r="W10" s="6">
+        <v>271</v>
       </c>
       <c r="X10" s="6">
-        <v>15.418</v>
-      </c>
-      <c r="AC10" s="4" t="inlineStr">
-        <is>
-          <t>Z03_B01_P01_Ib04_I01</t>
-        </is>
+        <v>276.3</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>289.9</v>
       </c>
       <c r="AD10" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z03_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AE10" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF10" s="4" t="inlineStr">
+        <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH10" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="AG10" s="4" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="AH10" s="7">
+        <v>2030</v>
       </c>
       <c r="AI10" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ10" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>3.2.a</t>
+          <t>3.1.c</t>
         </is>
       </c>
       <c r="B11" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>22.5</v>
+      </c>
       <c r="H11" s="6">
-        <v>100</v>
+        <v>23.5</v>
       </c>
       <c r="I11" s="6">
-        <v>99.856</v>
-      </c>
-      <c r="J11" s="6">
-        <v>97.164</v>
+        <v>20</v>
       </c>
       <c r="K11" s="6">
-        <v>94.909</v>
+        <v>17.7</v>
       </c>
       <c r="L11" s="6">
-        <v>88.279</v>
-      </c>
-      <c r="M11" s="6">
-        <v>91.482</v>
+        <v>15.4</v>
       </c>
       <c r="N11" s="6">
-        <v>88.755</v>
+        <v>12.9</v>
       </c>
       <c r="O11" s="6">
-        <v>87.623</v>
+        <v>11.7</v>
       </c>
       <c r="P11" s="6">
-        <v>86.499</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>83.622</v>
+        <v>12</v>
       </c>
       <c r="R11" s="6">
-        <v>82.673</v>
+        <v>9.7</v>
       </c>
       <c r="S11" s="6">
-        <v>80.05</v>
+        <v>9.6</v>
       </c>
       <c r="T11" s="6">
-        <v>78.284</v>
-      </c>
-      <c r="U11" s="6">
-        <v>75.033</v>
+        <v>8.3</v>
       </c>
       <c r="V11" s="6">
-        <v>70.958</v>
+        <v>8.7</v>
       </c>
       <c r="W11" s="6">
-        <v>65.414</v>
-      </c>
-      <c r="X11" s="6">
-        <v>65.895</v>
-      </c>
-      <c r="AC11" s="4" t="inlineStr">
-        <is>
-          <t>Z03_B02_P01_Ib01_I01</t>
-        </is>
+        <v>7.2</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>6.1</v>
       </c>
       <c r="AD11" s="4" t="inlineStr">
         <is>
+          <t>Z03_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="AE11" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE11" s="4" t="inlineStr">
+      <c r="AF11" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF11" s="4" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AG11" s="7">
+      <c r="AG11" s="4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH11" s="7">
         <v>2030</v>
       </c>
-      <c r="AH11" s="4" t="inlineStr">
+      <c r="AI11" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AI11" s="4" t="inlineStr">
-        <is>
-          <t>2020</t>
+      <c r="AJ11" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>3.2.b</t>
+          <t>3.1.d</t>
         </is>
       </c>
       <c r="B12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="6">
-        <v>29.659</v>
-      </c>
-      <c r="K12" s="6">
-        <v>21.016</v>
-      </c>
-      <c r="L12" s="6">
-        <v>31.126</v>
+      <c r="C12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>27.4</v>
+      </c>
+      <c r="I12" s="6">
+        <v>27.2</v>
       </c>
       <c r="M12" s="6">
-        <v>34.611</v>
-      </c>
-      <c r="N12" s="6">
-        <v>36.372</v>
-      </c>
-      <c r="O12" s="6">
-        <v>12.507</v>
-      </c>
-      <c r="P12" s="6">
-        <v>17.184</v>
+        <v>25.7</v>
       </c>
       <c r="Q12" s="6">
-        <v>11.904</v>
-      </c>
-      <c r="R12" s="6">
-        <v>4.987</v>
-      </c>
-      <c r="S12" s="6">
-        <v>3.842</v>
-      </c>
-      <c r="T12" s="6">
-        <v>2.539</v>
+        <v>24.5</v>
       </c>
       <c r="U12" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="V12" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="AC12" s="4" t="inlineStr">
-        <is>
-          <t>Z03_B02_P01_Ib02_I01</t>
-        </is>
+        <v>22.4</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>18.9</v>
       </c>
       <c r="AD12" s="4" t="inlineStr">
         <is>
+          <t>Z03_B01_P01_Ib02_I02</t>
+        </is>
+      </c>
+      <c r="AE12" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE12" s="4" t="inlineStr">
+      <c r="AF12" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF12" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AH12" s="7">
         <v>2030</v>
       </c>
-      <c r="AH12" s="4" t="inlineStr">
+      <c r="AI12" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AI12" s="4" t="inlineStr">
-        <is>
-          <t>2020</t>
+      <c r="AJ12" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.1.e</t>
         </is>
       </c>
       <c r="B13" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="R13" s="6">
-        <v>147.85</v>
-      </c>
-      <c r="S13" s="6">
-        <v>154.531</v>
-      </c>
-      <c r="T13" s="6">
-        <v>322.084</v>
-      </c>
-      <c r="U13" s="6">
-        <v>279.446</v>
-      </c>
-      <c r="V13" s="6">
-        <v>300.518</v>
-      </c>
-      <c r="W13" s="6">
-        <v>398.28</v>
-      </c>
-      <c r="X13" s="6">
-        <v>396.693</v>
-      </c>
-      <c r="AC13" s="4" t="inlineStr">
-        <is>
-          <t>Z03_B03_P01_Ib01_I01</t>
-        </is>
+      <c r="C13" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="AD13" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z03_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="AE13" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AF13" s="4" t="inlineStr">
         <is>
-          <t>272,5</t>
-        </is>
-      </c>
-      <c r="AG13" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH13" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG13" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI13" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>Ganz alt</t>
+        </is>
+      </c>
+      <c r="AJ13" s="4" t="inlineStr">
+        <is>
+          <t>Ganz alt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>4.1.a</t>
+          <t>3.1.f</t>
         </is>
       </c>
       <c r="B14" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="6">
-        <v>14.9</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="I14" s="6">
         <v>12.5</v>
       </c>
-      <c r="E14" s="6">
-        <v>12.6</v>
-      </c>
-      <c r="F14" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="G14" s="6">
-        <v>12.1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>13.83</v>
-      </c>
-      <c r="I14" s="6">
-        <v>14.09</v>
-      </c>
-      <c r="J14" s="6">
-        <v>12.73</v>
-      </c>
-      <c r="K14" s="6">
-        <v>11.8</v>
-      </c>
-      <c r="L14" s="6">
-        <v>11.1</v>
-      </c>
       <c r="M14" s="6">
-        <v>11.86</v>
-      </c>
-      <c r="N14" s="6">
-        <v>11.56</v>
-      </c>
-      <c r="O14" s="6">
-        <v>10.37</v>
-      </c>
-      <c r="P14" s="6">
-        <v>9.81</v>
+        <v>13.3</v>
       </c>
       <c r="Q14" s="6">
-        <v>9.53</v>
-      </c>
-      <c r="R14" s="6">
-        <v>9.82</v>
-      </c>
-      <c r="S14" s="6">
-        <v>10.3</v>
-      </c>
-      <c r="T14" s="6">
-        <v>10.11</v>
+        <v>14.1</v>
       </c>
       <c r="U14" s="6">
-        <v>10.34</v>
-      </c>
-      <c r="V14" s="6">
-        <v>10.34</v>
-      </c>
-      <c r="W14" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="X14" s="6">
-        <v>11.6</v>
-      </c>
-      <c r="AC14" s="4" t="inlineStr">
-        <is>
-          <t>Z04_B01_P01_Ib01_I01</t>
-        </is>
+        <v>14.789</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>15.418</v>
       </c>
       <c r="AD14" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z03_B01_P01_Ib04_I01</t>
         </is>
       </c>
       <c r="AE14" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AF14" s="4" t="inlineStr">
+        <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF14" s="4" t="inlineStr">
-        <is>
-          <t>9,5</t>
-        </is>
-      </c>
-      <c r="AG14" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH14" s="4" t="inlineStr">
+      <c r="AG14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI14" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AI14" s="4" t="inlineStr">
+      <c r="AJ14" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -1798,386 +1783,362 @@
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>4.1.b</t>
+          <t>3.2.a</t>
         </is>
       </c>
       <c r="B15" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6">
-        <v>33.17</v>
-      </c>
-      <c r="E15" s="6">
-        <v>33.28</v>
-      </c>
-      <c r="F15" s="6">
-        <v>33.89</v>
-      </c>
-      <c r="G15" s="6">
-        <v>36.22</v>
-      </c>
-      <c r="H15" s="6">
-        <v>35.99</v>
+      <c r="C15" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I15" s="6">
-        <v>36.5</v>
+        <v>100</v>
       </c>
       <c r="J15" s="6">
-        <v>37.63</v>
+        <v>99.856</v>
       </c>
       <c r="K15" s="6">
-        <v>38.77</v>
+        <v>97.164</v>
       </c>
       <c r="L15" s="6">
-        <v>40.71</v>
+        <v>94.909</v>
       </c>
       <c r="M15" s="6">
-        <v>41.31</v>
+        <v>88.279</v>
       </c>
       <c r="N15" s="6">
-        <v>42.22</v>
+        <v>91.482</v>
       </c>
       <c r="O15" s="6">
-        <v>43.43</v>
+        <v>88.755</v>
       </c>
       <c r="P15" s="6">
-        <v>44.48</v>
+        <v>87.623</v>
       </c>
       <c r="Q15" s="6">
-        <v>45.67</v>
+        <v>86.499</v>
       </c>
       <c r="R15" s="6">
-        <v>46.77</v>
+        <v>83.622</v>
       </c>
       <c r="S15" s="6">
-        <v>47.88</v>
+        <v>82.673</v>
       </c>
       <c r="T15" s="6">
-        <v>48.84</v>
+        <v>80.05</v>
       </c>
       <c r="U15" s="6">
-        <v>49.83</v>
+        <v>78.284</v>
       </c>
       <c r="V15" s="6">
-        <v>50.49</v>
+        <v>75.033</v>
       </c>
       <c r="W15" s="6">
-        <v>52.3</v>
+        <v>70.958</v>
       </c>
       <c r="X15" s="6">
-        <v>53.238</v>
-      </c>
-      <c r="AC15" s="4" t="inlineStr">
-        <is>
-          <t>Z04_B01_P01_Ib02_I01</t>
-        </is>
+        <v>65.414</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>65.895</v>
       </c>
       <c r="AD15" s="4" t="inlineStr">
         <is>
+          <t>Z03_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE15" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE15" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="AF15" s="4" t="inlineStr">
         <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG15" s="4" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AG15" s="7">
+      <c r="AH15" s="7">
         <v>2030</v>
       </c>
-      <c r="AH15" s="4" t="inlineStr">
+      <c r="AI15" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AI15" s="4" t="inlineStr">
-        <is>
-          <t>2021</t>
+      <c r="AJ15" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>4.2.a</t>
+          <t>3.2.b</t>
         </is>
       </c>
       <c r="B16" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="6">
-        <v>5.87</v>
-      </c>
-      <c r="J16" s="6">
-        <v>6.521</v>
+      <c r="C16" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="K16" s="6">
-        <v>7.313</v>
+        <v>29.659</v>
       </c>
       <c r="L16" s="6">
-        <v>8.669</v>
+        <v>21.016</v>
       </c>
       <c r="M16" s="6">
-        <v>10.167</v>
+        <v>31.126</v>
       </c>
       <c r="N16" s="6">
-        <v>11.344</v>
+        <v>34.611</v>
       </c>
       <c r="O16" s="6">
-        <v>12.745</v>
+        <v>36.372</v>
       </c>
       <c r="P16" s="6">
-        <v>13.718</v>
+        <v>12.507</v>
       </c>
       <c r="Q16" s="6">
-        <v>15.306</v>
+        <v>17.184</v>
       </c>
       <c r="R16" s="6">
-        <v>15.919</v>
+        <v>11.904</v>
       </c>
       <c r="S16" s="6">
-        <v>16.158</v>
+        <v>4.987</v>
       </c>
       <c r="T16" s="6">
-        <v>16.231</v>
+        <v>3.842</v>
       </c>
       <c r="U16" s="6">
-        <v>16.528</v>
+        <v>2.539</v>
       </c>
       <c r="V16" s="6">
-        <v>16.914</v>
+        <v>2.9</v>
       </c>
       <c r="W16" s="6">
-        <v>17.096</v>
+        <v>0.2</v>
       </c>
       <c r="X16" s="6">
-        <v>16.461</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>16.803</v>
-      </c>
-      <c r="AC16" s="4" t="inlineStr">
-        <is>
-          <t>Z04_B02_P01_Ib01_I01</t>
-        </is>
+        <v>0.04</v>
       </c>
       <c r="AD16" s="4" t="inlineStr">
         <is>
+          <t>Z03_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="AE16" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE16" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="AF16" s="4" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AG16" s="7">
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG16" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH16" s="7">
         <v>2030</v>
       </c>
-      <c r="AH16" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AI16" s="4" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ16" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>4.2.b</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="B17" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="6">
-        <v>21.963</v>
-      </c>
-      <c r="J17" s="6">
-        <v>24.189</v>
-      </c>
-      <c r="K17" s="6">
-        <v>26.896</v>
-      </c>
-      <c r="L17" s="6">
-        <v>29.696</v>
-      </c>
-      <c r="M17" s="6">
-        <v>32.138</v>
-      </c>
-      <c r="N17" s="6">
-        <v>34.672</v>
-      </c>
-      <c r="O17" s="6">
-        <v>36.847</v>
-      </c>
-      <c r="P17" s="6">
-        <v>39.05</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>41.428</v>
-      </c>
-      <c r="R17" s="6">
-        <v>44.136</v>
+      <c r="C17" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="S17" s="6">
-        <v>44.49</v>
+        <v>147.85</v>
       </c>
       <c r="T17" s="6">
-        <v>45.239</v>
+        <v>154.531</v>
       </c>
       <c r="U17" s="6">
-        <v>45.838</v>
+        <v>322.084</v>
       </c>
       <c r="V17" s="6">
-        <v>46.871</v>
+        <v>279.446</v>
       </c>
       <c r="W17" s="6">
-        <v>47.553</v>
+        <v>300.518</v>
       </c>
       <c r="X17" s="6">
-        <v>46.934</v>
+        <v>398.28</v>
       </c>
       <c r="Y17" s="6">
-        <v>46.99</v>
-      </c>
-      <c r="AC17" s="4" t="inlineStr">
-        <is>
-          <t>Z04_B02_P01_Ib01_I02</t>
-        </is>
+        <v>396.693</v>
       </c>
       <c r="AD17" s="4" t="inlineStr">
         <is>
+          <t>Z03_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE17" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE17" s="4" t="inlineStr">
+      <c r="AF17" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF17" s="4" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG17" s="7">
+      <c r="AG17" s="4" t="inlineStr">
+        <is>
+          <t>272,5</t>
+        </is>
+      </c>
+      <c r="AH17" s="7">
         <v>2030</v>
       </c>
-      <c r="AH17" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AI17" s="4" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ17" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>5.1.a</t>
+          <t>4.1.a</t>
         </is>
       </c>
       <c r="B18" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="E18" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="G18" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="H18" s="6">
+        <v>12.1</v>
+      </c>
       <c r="I18" s="6">
-        <v>23</v>
+        <v>13.83</v>
       </c>
       <c r="J18" s="6">
-        <v>23</v>
+        <v>14.09</v>
       </c>
       <c r="K18" s="6">
-        <v>23</v>
+        <v>12.73</v>
       </c>
       <c r="L18" s="6">
-        <v>23</v>
+        <v>11.8</v>
       </c>
       <c r="M18" s="6">
-        <v>22</v>
+        <v>11.1</v>
       </c>
       <c r="N18" s="6">
-        <v>22</v>
+        <v>11.86</v>
       </c>
       <c r="O18" s="6">
-        <v>23</v>
+        <v>11.56</v>
       </c>
       <c r="P18" s="6">
-        <v>22</v>
+        <v>10.37</v>
       </c>
       <c r="Q18" s="6">
-        <v>22</v>
+        <v>9.81</v>
       </c>
       <c r="R18" s="6">
-        <v>22</v>
+        <v>9.53</v>
       </c>
       <c r="S18" s="6">
-        <v>21</v>
+        <v>9.82</v>
       </c>
       <c r="T18" s="6">
-        <v>20</v>
+        <v>10.3</v>
       </c>
       <c r="U18" s="6">
-        <v>20</v>
+        <v>10.11</v>
       </c>
       <c r="V18" s="6">
-        <v>19</v>
+        <v>10.34</v>
       </c>
       <c r="W18" s="6">
-        <v>18</v>
+        <v>10.34</v>
       </c>
       <c r="X18" s="6">
-        <v>18</v>
+        <v>10.1</v>
       </c>
       <c r="Y18" s="6">
-        <v>18</v>
-      </c>
-      <c r="AC18" s="4" t="inlineStr">
-        <is>
-          <t>Z05_B01_P01_Ib01_I01</t>
-        </is>
+        <v>11.6</v>
       </c>
       <c r="AD18" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z04_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE18" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF18" s="4" t="inlineStr">
+        <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF18" s="4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH18" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+      <c r="AG18" s="4" t="inlineStr">
+        <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="AH18" s="7">
+        <v>2030</v>
       </c>
       <c r="AI18" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ18" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -2186,579 +2147,708 @@
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>5.1.b</t>
+          <t>4.1.b</t>
         </is>
       </c>
       <c r="B19" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6">
+        <v>33.17</v>
+      </c>
+      <c r="F19" s="6">
+        <v>33.28</v>
+      </c>
+      <c r="G19" s="6">
+        <v>33.89</v>
+      </c>
+      <c r="H19" s="6">
+        <v>36.22</v>
+      </c>
+      <c r="I19" s="6">
+        <v>35.99</v>
+      </c>
+      <c r="J19" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="K19" s="6">
+        <v>37.63</v>
+      </c>
+      <c r="L19" s="6">
+        <v>38.77</v>
+      </c>
+      <c r="M19" s="6">
+        <v>40.71</v>
+      </c>
+      <c r="N19" s="6">
+        <v>41.31</v>
+      </c>
+      <c r="O19" s="6">
+        <v>42.22</v>
+      </c>
+      <c r="P19" s="6">
+        <v>43.43</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>44.48</v>
+      </c>
       <c r="R19" s="6">
-        <v>21.3</v>
+        <v>45.67</v>
       </c>
       <c r="S19" s="6">
-        <v>23.8</v>
+        <v>46.77</v>
       </c>
       <c r="T19" s="6">
-        <v>28.1</v>
+        <v>47.88</v>
       </c>
       <c r="U19" s="6">
-        <v>30.9</v>
+        <v>48.84</v>
       </c>
       <c r="V19" s="6">
-        <v>33.9</v>
+        <v>49.83</v>
       </c>
       <c r="W19" s="6">
-        <v>35.2</v>
+        <v>50.49</v>
       </c>
       <c r="X19" s="6">
-        <v>35.9</v>
+        <v>52.3</v>
       </c>
       <c r="Y19" s="6">
-        <v>35.6</v>
-      </c>
-      <c r="AC19" s="4" t="inlineStr">
-        <is>
-          <t>Z05_B01_P01_Ib02_I01</t>
-        </is>
+        <v>53.238</v>
       </c>
       <c r="AD19" s="4" t="inlineStr">
         <is>
+          <t>Z04_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="AE19" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE19" s="4" t="inlineStr">
+      <c r="AF19" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF19" s="4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AG19" s="7">
+      <c r="AG19" s="4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AH19" s="7">
         <v>2030</v>
       </c>
-      <c r="AH19" s="4" t="inlineStr">
+      <c r="AI19" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AI19" s="4" t="inlineStr">
-        <is>
-          <t>2022</t>
+      <c r="AJ19" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>5.1.c</t>
+          <t>4.2.a</t>
         </is>
       </c>
       <c r="B20" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C20" s="6">
-        <v>19.5</v>
-      </c>
-      <c r="D20" s="6">
-        <v>18.5</v>
-      </c>
-      <c r="E20" s="6">
-        <v>19.7</v>
-      </c>
-      <c r="F20" s="6">
-        <v>24</v>
-      </c>
-      <c r="G20" s="6">
-        <v>24</v>
-      </c>
-      <c r="H20" s="6">
-        <v>26.6</v>
-      </c>
-      <c r="I20" s="6">
-        <v>26.9</v>
+      <c r="C20" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="6">
-        <v>27.8</v>
+        <v>5.87</v>
       </c>
       <c r="K20" s="6">
-        <v>28.7</v>
+        <v>6.521</v>
       </c>
       <c r="L20" s="6">
-        <v>29.9</v>
+        <v>7.313</v>
       </c>
       <c r="M20" s="6">
-        <v>30.8</v>
+        <v>8.669</v>
       </c>
       <c r="N20" s="6">
-        <v>30.6</v>
+        <v>10.167</v>
       </c>
       <c r="O20" s="6">
-        <v>30.6</v>
+        <v>11.344</v>
       </c>
       <c r="P20" s="6">
-        <v>30.6</v>
+        <v>12.745</v>
       </c>
       <c r="Q20" s="6">
-        <v>32.1</v>
+        <v>13.718</v>
       </c>
       <c r="R20" s="6">
-        <v>33.6</v>
+        <v>15.306</v>
+      </c>
+      <c r="S20" s="6">
+        <v>15.919</v>
       </c>
       <c r="T20" s="6">
-        <v>35.2</v>
+        <v>16.158</v>
+      </c>
+      <c r="U20" s="6">
+        <v>16.231</v>
       </c>
       <c r="V20" s="6">
-        <v>37.6</v>
+        <v>16.528</v>
+      </c>
+      <c r="W20" s="6">
+        <v>16.914</v>
       </c>
       <c r="X20" s="6">
-        <v>39.6</v>
-      </c>
-      <c r="AC20" s="4" t="inlineStr">
-        <is>
-          <t>Z05_B01_P01_Ib02_I02</t>
-        </is>
+        <v>17.096</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>16.461</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>16.803</v>
       </c>
       <c r="AD20" s="4" t="inlineStr">
         <is>
+          <t>Z04_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE20" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE20" s="4" t="inlineStr">
+      <c r="AF20" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF20" s="4" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="AG20" s="7">
-        <v>2025</v>
-      </c>
-      <c r="AH20" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
+      <c r="AG20" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AH20" s="7">
+        <v>2030</v>
       </c>
       <c r="AI20" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ20" s="4" t="inlineStr">
+        <is>
+          <t>2022</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>5.1.d</t>
+          <t>4.2.b</t>
         </is>
       </c>
       <c r="B21" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>21.963</v>
+      </c>
       <c r="K21" s="6">
-        <v>21.2</v>
+        <v>24.189</v>
       </c>
       <c r="L21" s="6">
-        <v>24</v>
+        <v>26.896</v>
       </c>
       <c r="M21" s="6">
-        <v>25.9</v>
+        <v>29.696</v>
       </c>
       <c r="N21" s="6">
-        <v>28</v>
+        <v>32.138</v>
       </c>
       <c r="O21" s="6">
-        <v>30</v>
+        <v>34.672</v>
       </c>
       <c r="P21" s="6">
-        <v>32.6</v>
+        <v>36.847</v>
       </c>
       <c r="Q21" s="6">
-        <v>34.8</v>
+        <v>39.05</v>
       </c>
       <c r="R21" s="6">
-        <v>36.9</v>
+        <v>41.428</v>
       </c>
       <c r="S21" s="6">
-        <v>38.8</v>
+        <v>44.136</v>
       </c>
       <c r="T21" s="6">
-        <v>40.4</v>
+        <v>44.49</v>
       </c>
       <c r="U21" s="6">
-        <v>42.1</v>
+        <v>45.239</v>
       </c>
       <c r="V21" s="6">
-        <v>43.5</v>
-      </c>
-      <c r="AC21" s="4" t="inlineStr">
-        <is>
-          <t>Z05_B01_P01_Ib03_I01</t>
-        </is>
+        <v>45.838</v>
+      </c>
+      <c r="W21" s="6">
+        <v>46.871</v>
+      </c>
+      <c r="X21" s="6">
+        <v>47.553</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>46.934</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>46.99</v>
       </c>
       <c r="AD21" s="4" t="inlineStr">
         <is>
+          <t>Z04_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="AE21" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE21" s="4" t="inlineStr">
+      <c r="AF21" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF21" s="4" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AG21" s="7">
+      <c r="AG21" s="4" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AH21" s="7">
         <v>2030</v>
       </c>
-      <c r="AH21" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="AI21" s="4" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ21" s="4" t="inlineStr">
+        <is>
+          <t>2022</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>5.1.e</t>
+          <t>5.1.a</t>
         </is>
       </c>
       <c r="B22" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>23</v>
+      </c>
+      <c r="K22" s="6">
+        <v>23</v>
+      </c>
+      <c r="L22" s="6">
+        <v>23</v>
+      </c>
+      <c r="M22" s="6">
+        <v>23</v>
+      </c>
+      <c r="N22" s="6">
+        <v>22</v>
+      </c>
+      <c r="O22" s="6">
+        <v>22</v>
+      </c>
+      <c r="P22" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>22</v>
+      </c>
       <c r="R22" s="6">
-        <v>354.841</v>
+        <v>22</v>
+      </c>
+      <c r="S22" s="6">
+        <v>22</v>
+      </c>
+      <c r="T22" s="6">
+        <v>21</v>
       </c>
       <c r="U22" s="6">
-        <v>863</v>
+        <v>20</v>
+      </c>
+      <c r="V22" s="6">
+        <v>20</v>
+      </c>
+      <c r="W22" s="6">
+        <v>19</v>
       </c>
       <c r="X22" s="6">
-        <v>80.083</v>
-      </c>
-      <c r="AC22" s="4" t="inlineStr">
-        <is>
-          <t>Z05_B01_P02_Ib01_I01</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>18</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>18</v>
       </c>
       <c r="AD22" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z05_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE22" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>J</t>
         </is>
       </c>
       <c r="AF22" s="4" t="inlineStr">
         <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="AG22" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH22" s="4" t="inlineStr">
-        <is>
-          <t>Ganz alt</t>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG22" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="AI22" s="4" t="inlineStr">
         <is>
-          <t>Ganz alt</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ22" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>6.1.a</t>
+          <t>5.1.b</t>
         </is>
       </c>
       <c r="B23" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C23" s="6">
-        <v>29.1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>29.7</v>
-      </c>
-      <c r="E23" s="6">
-        <v>26.9</v>
-      </c>
-      <c r="F23" s="6">
-        <v>31.7</v>
-      </c>
-      <c r="G23" s="6">
-        <v>32.2</v>
-      </c>
-      <c r="H23" s="6">
-        <v>30.7</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="C23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>21.3</v>
+      </c>
+      <c r="T23" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="U23" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="V23" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="W23" s="6">
         <v>33.9</v>
       </c>
-      <c r="J23" s="6">
-        <v>30.9</v>
-      </c>
-      <c r="K23" s="6">
-        <v>33.2</v>
-      </c>
-      <c r="L23" s="6">
-        <v>33.6</v>
-      </c>
-      <c r="M23" s="6">
-        <v>32.2</v>
-      </c>
-      <c r="N23" s="6">
-        <v>37.7</v>
-      </c>
-      <c r="O23" s="6">
-        <v>35.5</v>
-      </c>
-      <c r="P23" s="6">
-        <v>36.2</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>34.8</v>
-      </c>
-      <c r="R23" s="6">
-        <v>30.8</v>
-      </c>
-      <c r="S23" s="6">
-        <v>37.3</v>
-      </c>
-      <c r="T23" s="6">
-        <v>35.3</v>
-      </c>
-      <c r="U23" s="6">
-        <v>44.1</v>
-      </c>
-      <c r="V23" s="6">
-        <v>42.6</v>
-      </c>
-      <c r="W23" s="6">
-        <v>41.8</v>
-      </c>
       <c r="X23" s="6">
-        <v>43.2</v>
-      </c>
-      <c r="AC23" s="4" t="inlineStr">
-        <is>
-          <t>Z06_B01_P01_Ib01_I01</t>
-        </is>
+        <v>35.2</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>35.6</v>
       </c>
       <c r="AD23" s="4" t="inlineStr">
         <is>
+          <t>Z05_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="AE23" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE23" s="4" t="inlineStr">
+      <c r="AF23" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF23" s="4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AG23" s="7">
+      <c r="AG23" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AH23" s="7">
         <v>2030</v>
       </c>
-      <c r="AH23" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AI23" s="4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ23" s="4" t="inlineStr">
+        <is>
+          <t>2022</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>6.1.b</t>
+          <t>5.1.c</t>
         </is>
       </c>
       <c r="B24" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>19.7</v>
+      </c>
+      <c r="G24" s="6">
+        <v>24</v>
+      </c>
+      <c r="H24" s="6">
+        <v>24</v>
+      </c>
+      <c r="I24" s="6">
+        <v>26.6</v>
+      </c>
+      <c r="J24" s="6">
+        <v>26.9</v>
+      </c>
       <c r="K24" s="6">
-        <v>81.8</v>
+        <v>27.8</v>
       </c>
       <c r="L24" s="6">
-        <v>82.5</v>
+        <v>28.7</v>
       </c>
       <c r="M24" s="6">
-        <v>81.7</v>
+        <v>29.9</v>
       </c>
       <c r="N24" s="6">
-        <v>82</v>
+        <v>30.8</v>
       </c>
       <c r="O24" s="6">
-        <v>81</v>
+        <v>30.6</v>
       </c>
       <c r="P24" s="6">
-        <v>81.4</v>
+        <v>30.6</v>
       </c>
       <c r="Q24" s="6">
-        <v>81.8</v>
+        <v>30.6</v>
       </c>
       <c r="R24" s="6">
-        <v>81</v>
+        <v>32.1</v>
       </c>
       <c r="S24" s="6">
-        <v>81.8</v>
-      </c>
-      <c r="T24" s="6">
-        <v>83.1</v>
+        <v>33.6</v>
       </c>
       <c r="U24" s="6">
-        <v>82.7</v>
-      </c>
-      <c r="V24" s="6">
-        <v>84.2</v>
+        <v>35.2</v>
       </c>
       <c r="W24" s="6">
-        <v>84.1</v>
-      </c>
-      <c r="X24" s="6">
-        <v>84</v>
-      </c>
-      <c r="AC24" s="4" t="inlineStr">
-        <is>
-          <t>Z06_B01_P01_Ib02_I01</t>
-        </is>
+        <v>37.6</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>39.6</v>
       </c>
       <c r="AD24" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z05_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="AE24" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF24" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF24" s="4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AH24" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+      <c r="AG24" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AH24" s="7">
+        <v>2025</v>
       </c>
       <c r="AI24" s="4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AJ24" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>5.1.d</t>
         </is>
       </c>
       <c r="B25" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="M25" s="6">
+        <v>24</v>
+      </c>
+      <c r="N25" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="O25" s="6">
+        <v>28</v>
+      </c>
+      <c r="P25" s="6">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="R25" s="6">
+        <v>34.8</v>
+      </c>
+      <c r="S25" s="6">
+        <v>36.9</v>
+      </c>
+      <c r="T25" s="6">
+        <v>38.8</v>
+      </c>
+      <c r="U25" s="6">
+        <v>40.4</v>
+      </c>
       <c r="V25" s="6">
-        <v>14.3</v>
+        <v>42.1</v>
       </c>
       <c r="W25" s="6">
-        <v>10.9</v>
-      </c>
-      <c r="AC25" s="4" t="inlineStr">
-        <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
-        </is>
+        <v>43.5</v>
       </c>
       <c r="AD25" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z05_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="AE25" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF25" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF25" s="4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AH25" s="4" t="inlineStr">
-        <is>
-          <t>Ganz alt</t>
-        </is>
+      <c r="AG25" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AH25" s="7">
+        <v>2030</v>
       </c>
       <c r="AI25" s="4" t="inlineStr">
         <is>
-          <t>Ganz alt</t>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AJ25" s="4" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>5.1.e</t>
         </is>
       </c>
       <c r="B26" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <v>354.841</v>
+      </c>
       <c r="V26" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="W26" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="AC26" s="4" t="inlineStr">
-        <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
-        </is>
+        <v>863</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>80.083</v>
       </c>
       <c r="AD26" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z05_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="AE26" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF26" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF26" s="4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH26" s="4" t="inlineStr">
+      <c r="AG26" s="4" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="AH26" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AI26" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
       </c>
-      <c r="AI26" s="4" t="inlineStr">
+      <c r="AJ26" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
@@ -2767,574 +2857,472 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>7.1.a</t>
+          <t>6.1.a</t>
         </is>
       </c>
       <c r="B27" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>29.1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>29.7</v>
+      </c>
+      <c r="F27" s="6">
+        <v>26.9</v>
+      </c>
+      <c r="G27" s="6">
+        <v>31.7</v>
+      </c>
+      <c r="H27" s="6">
+        <v>32.2</v>
+      </c>
+      <c r="I27" s="6">
+        <v>30.7</v>
+      </c>
+      <c r="J27" s="6">
+        <v>33.9</v>
+      </c>
       <c r="K27" s="6">
-        <v>100</v>
+        <v>30.9</v>
       </c>
       <c r="L27" s="6">
-        <v>99.68</v>
+        <v>33.2</v>
       </c>
       <c r="M27" s="6">
-        <v>96.66</v>
+        <v>33.6</v>
       </c>
       <c r="N27" s="6">
-        <v>105.29</v>
+        <v>32.2</v>
       </c>
       <c r="O27" s="6">
-        <v>105.29</v>
+        <v>37.7</v>
       </c>
       <c r="P27" s="6">
-        <v>102.76</v>
+        <v>35.5</v>
       </c>
       <c r="Q27" s="6">
-        <v>110.82</v>
+        <v>36.2</v>
       </c>
       <c r="R27" s="6">
-        <v>109.96</v>
+        <v>34.8</v>
       </c>
       <c r="S27" s="6">
-        <v>110.26</v>
+        <v>30.8</v>
       </c>
       <c r="T27" s="6">
-        <v>111.54</v>
+        <v>37.3</v>
       </c>
       <c r="U27" s="6">
-        <v>116.22</v>
+        <v>35.3</v>
       </c>
       <c r="V27" s="6">
-        <v>116.8</v>
+        <v>44.1</v>
       </c>
       <c r="W27" s="6">
-        <v>120.16</v>
+        <v>42.6</v>
       </c>
       <c r="X27" s="6">
-        <v>119.52</v>
-      </c>
-      <c r="AC27" s="4" t="inlineStr">
-        <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
-        </is>
+        <v>41.8</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>43.2</v>
       </c>
       <c r="AD27" s="4" t="inlineStr">
         <is>
+          <t>Z06_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE27" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE27" s="4" t="inlineStr">
+      <c r="AF27" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF27" s="4" t="inlineStr">
-        <is>
-          <t>239,4</t>
-        </is>
-      </c>
-      <c r="AG27" s="7">
-        <v>2050</v>
-      </c>
-      <c r="AH27" s="4" t="inlineStr">
+      <c r="AG27" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AH27" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AI27" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AI27" s="4" t="inlineStr">
-        <is>
-          <t>2021</t>
+      <c r="AJ27" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>7.1.b</t>
+          <t>6.1.b</t>
         </is>
       </c>
       <c r="B28" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K28" s="6">
-        <v>100</v>
+      <c r="C28" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="L28" s="6">
-        <v>94.1</v>
+        <v>81.8</v>
       </c>
       <c r="M28" s="6">
-        <v>98.87</v>
+        <v>82.5</v>
       </c>
       <c r="N28" s="6">
-        <v>94.57</v>
+        <v>81.7</v>
       </c>
       <c r="O28" s="6">
-        <v>93.51</v>
+        <v>82</v>
       </c>
       <c r="P28" s="6">
-        <v>96.12</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="6">
-        <v>91.65</v>
+        <v>81.4</v>
       </c>
       <c r="R28" s="6">
-        <v>92.22</v>
+        <v>81.8</v>
       </c>
       <c r="S28" s="6">
-        <v>93.82</v>
+        <v>81</v>
       </c>
       <c r="T28" s="6">
-        <v>94.04</v>
+        <v>81.8</v>
       </c>
       <c r="U28" s="6">
-        <v>91.3</v>
+        <v>83.1</v>
       </c>
       <c r="V28" s="6">
-        <v>89.05</v>
+        <v>82.7</v>
       </c>
       <c r="W28" s="6">
-        <v>82.72</v>
+        <v>84.2</v>
       </c>
       <c r="X28" s="6">
-        <v>86.509</v>
+        <v>84.1</v>
       </c>
       <c r="Y28" s="6">
-        <v>81.843</v>
-      </c>
-      <c r="AC28" s="4" t="inlineStr">
-        <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
-        </is>
+        <v>84</v>
       </c>
       <c r="AD28" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z06_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="AE28" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>J</t>
         </is>
       </c>
       <c r="AF28" s="4" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG28" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH28" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG28" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="AI28" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ28" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>7.2.a</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="B29" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H29" s="6">
-        <v>7.1</v>
-      </c>
-      <c r="I29" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="J29" s="6">
-        <v>10.2</v>
-      </c>
-      <c r="K29" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="L29" s="6">
-        <v>10.6</v>
-      </c>
-      <c r="M29" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="N29" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="O29" s="6">
-        <v>13.6</v>
-      </c>
-      <c r="P29" s="6">
-        <v>13.7</v>
-      </c>
-      <c r="Q29" s="6">
+      <c r="C29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W29" s="6">
         <v>14.3</v>
       </c>
-      <c r="R29" s="6">
-        <v>15.1</v>
-      </c>
-      <c r="S29" s="6">
-        <v>14.9</v>
-      </c>
-      <c r="T29" s="6">
-        <v>16</v>
-      </c>
-      <c r="U29" s="6">
-        <v>16.8</v>
-      </c>
-      <c r="V29" s="6">
-        <v>17.7</v>
-      </c>
-      <c r="W29" s="6">
-        <v>19.4</v>
-      </c>
       <c r="X29" s="6">
-        <v>18.8</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>20.3</v>
-      </c>
-      <c r="AC29" s="4" t="inlineStr">
-        <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
-        </is>
+        <v>10.9</v>
       </c>
       <c r="AD29" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE29" s="4" t="inlineStr">
         <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AF29" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF29" s="4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AG29" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH29" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+      <c r="AG29" s="4" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="AI29" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>Ganz alt</t>
+        </is>
+      </c>
+      <c r="AJ29" s="4" t="inlineStr">
+        <is>
+          <t>Ganz alt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>7.2.b</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="B30" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="6">
-        <v>10.3</v>
-      </c>
-      <c r="I30" s="6">
-        <v>11.7</v>
-      </c>
-      <c r="J30" s="6">
-        <v>14.3</v>
-      </c>
-      <c r="K30" s="6">
-        <v>15.2</v>
-      </c>
-      <c r="L30" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="M30" s="6">
-        <v>17.1</v>
-      </c>
-      <c r="N30" s="6">
-        <v>20.4</v>
-      </c>
-      <c r="O30" s="6">
-        <v>23.6</v>
-      </c>
-      <c r="P30" s="6">
-        <v>25.1</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>27.3</v>
-      </c>
-      <c r="R30" s="6">
-        <v>31.4</v>
-      </c>
-      <c r="S30" s="6">
-        <v>31.6</v>
-      </c>
-      <c r="T30" s="6">
-        <v>36</v>
-      </c>
-      <c r="U30" s="6">
-        <v>37.7</v>
-      </c>
-      <c r="V30" s="6">
-        <v>42</v>
+      <c r="C30" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="W30" s="6">
-        <v>45.2</v>
+        <v>6.1</v>
       </c>
       <c r="X30" s="6">
-        <v>41.2</v>
-      </c>
-      <c r="Y30" s="6">
-        <v>46.2</v>
-      </c>
-      <c r="AC30" s="4" t="inlineStr">
-        <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
-        </is>
+        <v>1.8</v>
       </c>
       <c r="AD30" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AE30" s="4" t="inlineStr">
         <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AF30" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF30" s="4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AG30" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH30" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+      <c r="AG30" s="4" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="AI30" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>Ganz alt</t>
+        </is>
+      </c>
+      <c r="AJ30" s="4" t="inlineStr">
+        <is>
+          <t>Ganz alt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.1.a</t>
         </is>
       </c>
       <c r="B31" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
         <v>100</v>
       </c>
-      <c r="D31" s="6">
-        <v>104</v>
-      </c>
-      <c r="E31" s="6">
-        <v>110</v>
-      </c>
-      <c r="F31" s="6">
-        <v>108</v>
-      </c>
-      <c r="G31" s="6">
-        <v>108</v>
-      </c>
-      <c r="H31" s="6">
-        <v>109</v>
-      </c>
-      <c r="I31" s="6">
-        <v>108</v>
-      </c>
-      <c r="J31" s="6">
-        <v>111</v>
-      </c>
-      <c r="K31" s="6">
-        <v>115</v>
-      </c>
-      <c r="L31" s="6">
-        <v>122</v>
-      </c>
       <c r="M31" s="6">
-        <v>117</v>
+        <v>99.68</v>
       </c>
       <c r="N31" s="6">
-        <v>115</v>
+        <v>96.66</v>
       </c>
       <c r="O31" s="6">
-        <v>119</v>
+        <v>105.29</v>
       </c>
       <c r="P31" s="6">
-        <v>119</v>
+        <v>105.29</v>
       </c>
       <c r="Q31" s="6">
-        <v>119</v>
+        <v>102.76</v>
       </c>
       <c r="R31" s="6">
-        <v>123</v>
+        <v>110.82</v>
       </c>
       <c r="S31" s="6">
-        <v>122</v>
+        <v>109.96</v>
       </c>
       <c r="T31" s="6">
-        <v>127</v>
+        <v>110.26</v>
       </c>
       <c r="U31" s="6">
-        <v>126</v>
-      </c>
-      <c r="AC31" s="4" t="inlineStr">
-        <is>
-          <t>Z08_B01_P01_Ib01_I01</t>
-        </is>
+        <v>111.54</v>
+      </c>
+      <c r="V31" s="6">
+        <v>116.22</v>
+      </c>
+      <c r="W31" s="6">
+        <v>116.8</v>
+      </c>
+      <c r="X31" s="6">
+        <v>120.16</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>119.52</v>
       </c>
       <c r="AD31" s="4" t="inlineStr">
         <is>
+          <t>Z07_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE31" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE31" s="4" t="inlineStr">
+      <c r="AF31" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF31" s="4" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG31" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH31" s="4" t="inlineStr">
+      <c r="AG31" s="4" t="inlineStr">
+        <is>
+          <t>239,4</t>
+        </is>
+      </c>
+      <c r="AH31" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AI31" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AI31" s="4" t="inlineStr">
-        <is>
-          <t>2018</t>
+      <c r="AJ31" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>8.2.a</t>
+          <t>7.1.b</t>
         </is>
       </c>
       <c r="B32" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C32" s="6">
-        <v>-1.585</v>
-      </c>
-      <c r="D32" s="6">
-        <v>-3.025</v>
-      </c>
-      <c r="E32" s="6">
-        <v>-3.875</v>
-      </c>
-      <c r="F32" s="6">
-        <v>-3.704</v>
-      </c>
-      <c r="G32" s="6">
-        <v>-3.334</v>
-      </c>
-      <c r="H32" s="6">
-        <v>-3.319</v>
-      </c>
-      <c r="I32" s="6">
-        <v>-1.653</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0.261</v>
-      </c>
-      <c r="K32" s="6">
-        <v>-0.116</v>
+      <c r="C32" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="L32" s="6">
-        <v>-3.151</v>
+        <v>100</v>
       </c>
       <c r="M32" s="6">
-        <v>-4.379</v>
+        <v>94.1</v>
       </c>
       <c r="N32" s="6">
-        <v>-0.881</v>
+        <v>98.87</v>
       </c>
       <c r="O32" s="6">
-        <v>0.009</v>
+        <v>94.57</v>
       </c>
       <c r="P32" s="6">
-        <v>0.04</v>
+        <v>93.51</v>
       </c>
       <c r="Q32" s="6">
-        <v>0.58</v>
+        <v>96.12</v>
       </c>
       <c r="R32" s="6">
-        <v>0.961</v>
+        <v>91.65</v>
       </c>
       <c r="S32" s="6">
-        <v>1.16</v>
+        <v>92.22</v>
       </c>
       <c r="T32" s="6">
-        <v>1.336</v>
+        <v>93.82</v>
       </c>
       <c r="U32" s="6">
-        <v>1.95</v>
+        <v>94.04</v>
       </c>
       <c r="V32" s="6">
-        <v>1.531</v>
+        <v>91.3</v>
       </c>
       <c r="W32" s="6">
-        <v>-4.333</v>
+        <v>89.05</v>
       </c>
       <c r="X32" s="6">
-        <v>-3.727</v>
+        <v>82.72</v>
       </c>
       <c r="Y32" s="6">
-        <v>-2.74</v>
-      </c>
-      <c r="AC32" s="4" t="inlineStr">
-        <is>
-          <t>Z08_B02_P01_Ib01_I01</t>
-        </is>
+        <v>86.509</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>81.843</v>
       </c>
       <c r="AD32" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AE32" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AF32" s="4" t="inlineStr">
         <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="AH32" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG32" s="4" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AH32" s="7">
+        <v>2030</v>
       </c>
       <c r="AI32" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AJ32" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3343,92 +3331,98 @@
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>8.2.b</t>
+          <t>7.2.a</t>
         </is>
       </c>
       <c r="B33" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H33" s="6">
-        <v>-2.2</v>
+      <c r="C33" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I33" s="6">
-        <v>-1.8</v>
+        <v>7.1</v>
       </c>
       <c r="J33" s="6">
-        <v>-0.7</v>
+        <v>8.4</v>
       </c>
       <c r="K33" s="6">
-        <v>-0.6</v>
+        <v>10.2</v>
       </c>
       <c r="L33" s="6">
-        <v>-0.5</v>
+        <v>10.1</v>
       </c>
       <c r="M33" s="6">
-        <v>-2.1</v>
+        <v>10.6</v>
       </c>
       <c r="N33" s="6">
-        <v>-1.2</v>
+        <v>11.4</v>
       </c>
       <c r="O33" s="6">
-        <v>0.1</v>
+        <v>12.5</v>
       </c>
       <c r="P33" s="6">
-        <v>0.6</v>
+        <v>13.6</v>
       </c>
       <c r="Q33" s="6">
-        <v>0.9</v>
+        <v>13.7</v>
       </c>
       <c r="R33" s="6">
-        <v>1.1</v>
+        <v>14.3</v>
       </c>
       <c r="S33" s="6">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="T33" s="6">
-        <v>0.7</v>
+        <v>14.9</v>
       </c>
       <c r="U33" s="6">
-        <v>1.3</v>
+        <v>16</v>
       </c>
       <c r="V33" s="6">
-        <v>0.8</v>
+        <v>16.8</v>
       </c>
       <c r="W33" s="6">
-        <v>-2.7</v>
+        <v>17.7</v>
       </c>
       <c r="X33" s="6">
-        <v>-2.9</v>
+        <v>19.4</v>
       </c>
       <c r="Y33" s="6">
-        <v>-1.8</v>
-      </c>
-      <c r="AC33" s="4" t="inlineStr">
-        <is>
-          <t>Z08_B02_P01_Ib01_I02</t>
-        </is>
+        <v>18.8</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>20.3</v>
       </c>
       <c r="AD33" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE33" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF33" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF33" s="4" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="AH33" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="AG33" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AH33" s="7">
+        <v>2030</v>
       </c>
       <c r="AI33" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ33" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3437,107 +3431,98 @@
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>8.2.c</t>
+          <t>7.2.b</t>
         </is>
       </c>
       <c r="B34" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C34" s="6">
-        <v>59.3</v>
-      </c>
-      <c r="D34" s="6">
-        <v>58.2</v>
-      </c>
-      <c r="E34" s="6">
-        <v>59.9</v>
-      </c>
-      <c r="F34" s="6">
-        <v>63.5</v>
-      </c>
-      <c r="G34" s="6">
-        <v>65.2</v>
-      </c>
-      <c r="H34" s="6">
-        <v>67.5</v>
+      <c r="C34" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I34" s="6">
-        <v>66.9</v>
+        <v>10.3</v>
       </c>
       <c r="J34" s="6">
-        <v>64.2</v>
+        <v>11.7</v>
       </c>
       <c r="K34" s="6">
-        <v>65.7</v>
+        <v>14.3</v>
       </c>
       <c r="L34" s="6">
-        <v>73.2</v>
+        <v>15.2</v>
       </c>
       <c r="M34" s="6">
-        <v>82</v>
+        <v>16.5</v>
       </c>
       <c r="N34" s="6">
-        <v>79.4</v>
+        <v>17.1</v>
       </c>
       <c r="O34" s="6">
-        <v>80.7</v>
+        <v>20.4</v>
       </c>
       <c r="P34" s="6">
-        <v>78.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q34" s="6">
-        <v>75.3</v>
+        <v>25.1</v>
       </c>
       <c r="R34" s="6">
-        <v>71.9</v>
+        <v>27.3</v>
       </c>
       <c r="S34" s="6">
-        <v>69</v>
+        <v>31.4</v>
       </c>
       <c r="T34" s="6">
-        <v>65.2</v>
+        <v>31.6</v>
       </c>
       <c r="U34" s="6">
-        <v>61.9</v>
+        <v>36</v>
       </c>
       <c r="V34" s="6">
-        <v>59.6</v>
+        <v>37.7</v>
       </c>
       <c r="W34" s="6">
-        <v>68.7</v>
+        <v>42</v>
       </c>
       <c r="X34" s="6">
-        <v>69.3</v>
+        <v>45.2</v>
       </c>
       <c r="Y34" s="6">
-        <v>66.3</v>
-      </c>
-      <c r="AC34" s="4" t="inlineStr">
-        <is>
-          <t>Z08_B02_P01_Ib02_I01</t>
-        </is>
+        <v>41.2</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>46.2</v>
       </c>
       <c r="AD34" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="AE34" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AF34" s="4" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AH34" s="4" t="inlineStr">
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG34" s="4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AH34" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AI34" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AI34" s="4" t="inlineStr">
+      <c r="AJ34" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3546,216 +3531,213 @@
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="B35" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C35" s="6">
-        <v>23.114</v>
+      <c r="C35" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="D35" s="6">
-        <v>21.778</v>
+        <v>100</v>
       </c>
       <c r="E35" s="6">
-        <v>20.122</v>
+        <v>104</v>
       </c>
       <c r="F35" s="6">
-        <v>19.523</v>
+        <v>110</v>
       </c>
       <c r="G35" s="6">
-        <v>19.091</v>
+        <v>108</v>
       </c>
       <c r="H35" s="6">
-        <v>19.077</v>
+        <v>108</v>
       </c>
       <c r="I35" s="6">
-        <v>19.803</v>
+        <v>109</v>
       </c>
       <c r="J35" s="6">
-        <v>20.057</v>
+        <v>108</v>
       </c>
       <c r="K35" s="6">
-        <v>20.303</v>
+        <v>111</v>
       </c>
       <c r="L35" s="6">
-        <v>19.268</v>
+        <v>115</v>
       </c>
       <c r="M35" s="6">
-        <v>19.543</v>
+        <v>122</v>
       </c>
       <c r="N35" s="6">
-        <v>20.371</v>
+        <v>117</v>
       </c>
       <c r="O35" s="6">
-        <v>20.321</v>
+        <v>115</v>
       </c>
       <c r="P35" s="6">
-        <v>19.901</v>
+        <v>119</v>
       </c>
       <c r="Q35" s="6">
-        <v>20.04</v>
+        <v>119</v>
       </c>
       <c r="R35" s="6">
-        <v>20.02</v>
+        <v>119</v>
       </c>
       <c r="S35" s="6">
-        <v>20.298</v>
+        <v>123</v>
       </c>
       <c r="T35" s="6">
-        <v>20.411</v>
+        <v>122</v>
       </c>
       <c r="U35" s="6">
-        <v>21.065</v>
+        <v>127</v>
       </c>
       <c r="V35" s="6">
-        <v>21.374</v>
-      </c>
-      <c r="W35" s="6">
-        <v>21.617</v>
-      </c>
-      <c r="X35" s="6">
-        <v>21.762</v>
-      </c>
-      <c r="Y35" s="6">
-        <v>22.544</v>
-      </c>
-      <c r="AC35" s="4" t="inlineStr">
-        <is>
-          <t>Z08_B03_P01_Ib01_I01</t>
-        </is>
+        <v>126</v>
       </c>
       <c r="AD35" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE35" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF35" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH35" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
+      <c r="AG35" s="4" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="AH35" s="7">
+        <v>2030</v>
       </c>
       <c r="AI35" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ35" s="4" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="B36" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C36" s="6">
-        <v>31.373</v>
+      <c r="C36" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="D36" s="6">
-        <v>31.877</v>
+        <v>-1.585</v>
       </c>
       <c r="E36" s="6">
-        <v>31.79</v>
+        <v>-3.025</v>
       </c>
       <c r="F36" s="6">
-        <v>31.579</v>
+        <v>-3.875</v>
       </c>
       <c r="G36" s="6">
-        <v>31.987</v>
+        <v>-3.704</v>
       </c>
       <c r="H36" s="6">
-        <v>32.268</v>
+        <v>-3.334</v>
       </c>
       <c r="I36" s="6">
-        <v>33.567</v>
+        <v>-3.319</v>
       </c>
       <c r="J36" s="6">
-        <v>34.643</v>
+        <v>-1.653</v>
       </c>
       <c r="K36" s="6">
-        <v>35.075</v>
+        <v>0.261</v>
       </c>
       <c r="L36" s="6">
-        <v>33.193</v>
+        <v>-0.116</v>
       </c>
       <c r="M36" s="6">
-        <v>34.666</v>
+        <v>-3.151</v>
       </c>
       <c r="N36" s="6">
-        <v>36.031</v>
+        <v>-4.379</v>
       </c>
       <c r="O36" s="6">
-        <v>36.114</v>
+        <v>-0.881</v>
       </c>
       <c r="P36" s="6">
-        <v>36.173</v>
+        <v>0.009</v>
       </c>
       <c r="Q36" s="6">
-        <v>36.818</v>
+        <v>0.04</v>
       </c>
       <c r="R36" s="6">
-        <v>37.046</v>
+        <v>0.58</v>
       </c>
       <c r="S36" s="6">
-        <v>37.567</v>
+        <v>0.961</v>
       </c>
       <c r="T36" s="6">
-        <v>38.43</v>
+        <v>1.16</v>
       </c>
       <c r="U36" s="6">
-        <v>38.691</v>
+        <v>1.336</v>
       </c>
       <c r="V36" s="6">
-        <v>39.012</v>
+        <v>1.95</v>
       </c>
       <c r="W36" s="6">
-        <v>37.539</v>
+        <v>1.531</v>
       </c>
       <c r="X36" s="6">
-        <v>38.509</v>
+        <v>-4.333</v>
       </c>
       <c r="Y36" s="6">
-        <v>38.926</v>
-      </c>
-      <c r="AC36" s="4" t="inlineStr">
-        <is>
-          <t>Z08_B04_P01_Ib01_I01</t>
-        </is>
+        <v>-3.727</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>-2.74</v>
       </c>
       <c r="AD36" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE36" s="4" t="inlineStr">
         <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AF36" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH36" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
+      <c r="AG36" s="4" t="inlineStr">
+        <is>
+          <t>-3</t>
         </is>
       </c>
       <c r="AI36" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ36" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3764,110 +3746,95 @@
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>8.5.a</t>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="B37" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C37" s="6">
-        <v>68.7</v>
-      </c>
-      <c r="D37" s="6">
-        <v>69.1</v>
-      </c>
-      <c r="E37" s="6">
-        <v>68.8</v>
-      </c>
-      <c r="F37" s="6">
-        <v>68.4</v>
-      </c>
-      <c r="G37" s="6">
-        <v>67.9</v>
-      </c>
-      <c r="H37" s="6">
-        <v>69.4</v>
+      <c r="C37" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I37" s="6">
-        <v>71.1</v>
+        <v>-2.2</v>
       </c>
       <c r="J37" s="6">
-        <v>72.9</v>
+        <v>-1.8</v>
       </c>
       <c r="K37" s="6">
-        <v>74</v>
+        <v>-0.7</v>
       </c>
       <c r="L37" s="6">
-        <v>74.2</v>
+        <v>-0.6</v>
       </c>
       <c r="M37" s="6">
-        <v>75</v>
+        <v>-0.5</v>
       </c>
       <c r="N37" s="6">
-        <v>76.5</v>
+        <v>-2.1</v>
       </c>
       <c r="O37" s="6">
-        <v>76.9</v>
+        <v>-1.2</v>
       </c>
       <c r="P37" s="6">
-        <v>77.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q37" s="6">
-        <v>77.7</v>
+        <v>0.6</v>
       </c>
       <c r="R37" s="6">
-        <v>78</v>
+        <v>0.9</v>
       </c>
       <c r="S37" s="6">
-        <v>78.6</v>
+        <v>1.1</v>
       </c>
       <c r="T37" s="6">
-        <v>79.2</v>
+        <v>1</v>
       </c>
       <c r="U37" s="6">
-        <v>79.9</v>
+        <v>0.7</v>
       </c>
       <c r="V37" s="6">
-        <v>80.6</v>
+        <v>1.3</v>
       </c>
       <c r="W37" s="6">
-        <v>79.2</v>
+        <v>0.8</v>
       </c>
       <c r="X37" s="6">
-        <v>79.4</v>
+        <v>-2.7</v>
       </c>
       <c r="Y37" s="6">
-        <v>80.7</v>
-      </c>
-      <c r="AC37" s="4" t="inlineStr">
-        <is>
-          <t>Z08_B05_P01_Ib01_I01</t>
-        </is>
+        <v>-2.9</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>-1.8</v>
       </c>
       <c r="AD37" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AE37" s="4" t="inlineStr">
         <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AF37" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF37" s="4" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AG37" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH37" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
+      <c r="AG37" s="4" t="inlineStr">
+        <is>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="AI37" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ37" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3876,110 +3843,110 @@
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>8.5.b</t>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="B38" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C38" s="6">
-        <v>19.6</v>
+      <c r="C38" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="D38" s="6">
-        <v>20.8</v>
+        <v>59.3</v>
       </c>
       <c r="E38" s="6">
-        <v>22.2</v>
+        <v>58.2</v>
       </c>
       <c r="F38" s="6">
-        <v>23.5</v>
+        <v>59.9</v>
       </c>
       <c r="G38" s="6">
-        <v>25.3</v>
+        <v>63.5</v>
       </c>
       <c r="H38" s="6">
-        <v>28.2</v>
+        <v>65.2</v>
       </c>
       <c r="I38" s="6">
-        <v>29.7</v>
+        <v>67.5</v>
       </c>
       <c r="J38" s="6">
-        <v>32.9</v>
+        <v>66.9</v>
       </c>
       <c r="K38" s="6">
-        <v>35.1</v>
+        <v>64.2</v>
       </c>
       <c r="L38" s="6">
-        <v>38.6</v>
+        <v>65.7</v>
       </c>
       <c r="M38" s="6">
-        <v>41.1</v>
+        <v>73.2</v>
       </c>
       <c r="N38" s="6">
-        <v>44.3</v>
+        <v>82</v>
       </c>
       <c r="O38" s="6">
-        <v>46.6</v>
+        <v>79.4</v>
       </c>
       <c r="P38" s="6">
-        <v>50</v>
+        <v>80.7</v>
       </c>
       <c r="Q38" s="6">
-        <v>52.6</v>
+        <v>78.3</v>
       </c>
       <c r="R38" s="6">
-        <v>53.3</v>
+        <v>75.3</v>
       </c>
       <c r="S38" s="6">
-        <v>56</v>
+        <v>71.9</v>
       </c>
       <c r="T38" s="6">
-        <v>58.4</v>
+        <v>69</v>
       </c>
       <c r="U38" s="6">
-        <v>60.3</v>
+        <v>65.2</v>
       </c>
       <c r="V38" s="6">
-        <v>61.8</v>
+        <v>61.9</v>
       </c>
       <c r="W38" s="6">
-        <v>60.6</v>
+        <v>59.6</v>
       </c>
       <c r="X38" s="6">
-        <v>61.1</v>
+        <v>68.7</v>
       </c>
       <c r="Y38" s="6">
-        <v>63.2</v>
-      </c>
-      <c r="AC38" s="4" t="inlineStr">
-        <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
-        </is>
+        <v>69.3</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>66.3</v>
       </c>
       <c r="AD38" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="AE38" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>J</t>
         </is>
       </c>
       <c r="AF38" s="4" t="inlineStr">
         <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG38" s="4" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="AG38" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH38" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="AI38" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ38" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3988,65 +3955,110 @@
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="B39" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>23.114</v>
+      </c>
+      <c r="E39" s="6">
+        <v>21.778</v>
+      </c>
+      <c r="F39" s="6">
+        <v>20.122</v>
+      </c>
+      <c r="G39" s="6">
+        <v>19.523</v>
+      </c>
+      <c r="H39" s="6">
+        <v>19.091</v>
+      </c>
+      <c r="I39" s="6">
+        <v>19.077</v>
+      </c>
+      <c r="J39" s="6">
+        <v>19.803</v>
+      </c>
+      <c r="K39" s="6">
+        <v>20.057</v>
+      </c>
+      <c r="L39" s="6">
+        <v>20.303</v>
+      </c>
+      <c r="M39" s="6">
+        <v>19.268</v>
+      </c>
+      <c r="N39" s="6">
+        <v>19.543</v>
+      </c>
+      <c r="O39" s="6">
+        <v>20.371</v>
+      </c>
+      <c r="P39" s="6">
+        <v>20.321</v>
+      </c>
       <c r="Q39" s="6">
-        <v>59</v>
+        <v>19.901</v>
       </c>
       <c r="R39" s="6">
-        <v>172</v>
+        <v>20.04</v>
       </c>
       <c r="S39" s="6">
-        <v>188</v>
+        <v>20.02</v>
       </c>
       <c r="T39" s="6">
-        <v>147</v>
+        <v>20.298</v>
       </c>
       <c r="U39" s="6">
-        <v>128</v>
+        <v>20.411</v>
       </c>
       <c r="V39" s="6">
-        <v>124</v>
+        <v>21.065</v>
       </c>
       <c r="W39" s="6">
-        <v>136</v>
+        <v>21.374</v>
       </c>
       <c r="X39" s="6">
-        <v>123</v>
+        <v>21.617</v>
       </c>
       <c r="Y39" s="6">
-        <v>128</v>
-      </c>
-      <c r="AC39" s="4" t="inlineStr">
-        <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
-        </is>
+        <v>21.762</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>22.544</v>
       </c>
       <c r="AD39" s="4" t="inlineStr">
         <is>
+          <t>Z08_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE39" s="4" t="inlineStr">
+        <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AE39" s="4" t="inlineStr">
+      <c r="AF39" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF39" s="4" t="inlineStr">
+      <c r="AG39" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH39" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="AI39" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ39" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4055,256 +4067,340 @@
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>9.1.a</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="B40" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C40" s="6">
-        <v>2.41</v>
+      <c r="C40" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="D40" s="6">
-        <v>2.4</v>
+        <v>31.373</v>
       </c>
       <c r="E40" s="6">
-        <v>2.44</v>
+        <v>31.877</v>
       </c>
       <c r="F40" s="6">
-        <v>2.47</v>
+        <v>31.79</v>
       </c>
       <c r="G40" s="6">
-        <v>2.44</v>
+        <v>31.579</v>
       </c>
       <c r="H40" s="6">
-        <v>2.44</v>
+        <v>31.987</v>
       </c>
       <c r="I40" s="6">
-        <v>2.47</v>
+        <v>32.268</v>
       </c>
       <c r="J40" s="6">
-        <v>2.46</v>
+        <v>33.567</v>
       </c>
       <c r="K40" s="6">
-        <v>2.62</v>
+        <v>34.643</v>
       </c>
       <c r="L40" s="6">
-        <v>2.74</v>
+        <v>35.075</v>
       </c>
       <c r="M40" s="6">
-        <v>2.73</v>
+        <v>33.193</v>
       </c>
       <c r="N40" s="6">
-        <v>2.81</v>
+        <v>34.666</v>
       </c>
       <c r="O40" s="6">
-        <v>2.88</v>
+        <v>36.031</v>
       </c>
       <c r="P40" s="6">
-        <v>2.84</v>
+        <v>36.114</v>
       </c>
       <c r="Q40" s="6">
-        <v>2.88</v>
+        <v>36.173</v>
       </c>
       <c r="R40" s="6">
-        <v>2.93</v>
+        <v>36.818</v>
       </c>
       <c r="S40" s="6">
-        <v>2.94</v>
+        <v>37.046</v>
       </c>
       <c r="T40" s="6">
-        <v>3.05</v>
+        <v>37.567</v>
       </c>
       <c r="U40" s="6">
-        <v>3.11</v>
+        <v>38.43</v>
       </c>
       <c r="V40" s="6">
-        <v>3.17</v>
+        <v>38.691</v>
       </c>
       <c r="W40" s="6">
-        <v>3.13</v>
+        <v>39.012</v>
       </c>
       <c r="X40" s="6">
-        <v>3.13</v>
-      </c>
-      <c r="AC40" s="4" t="inlineStr">
-        <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
-        </is>
+        <v>37.539</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>38.509</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>38.926</v>
       </c>
       <c r="AD40" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE40" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AF40" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF40" s="4" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-      <c r="AG40" s="7">
-        <v>2025</v>
-      </c>
-      <c r="AH40" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+      <c r="AG40" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI40" s="4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ40" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>9.1.b</t>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="B41" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="AC41" s="4" t="inlineStr">
-        <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
-        </is>
+      <c r="C41" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>68.7</v>
+      </c>
+      <c r="E41" s="6">
+        <v>69.1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>68.8</v>
+      </c>
+      <c r="G41" s="6">
+        <v>68.4</v>
+      </c>
+      <c r="H41" s="6">
+        <v>67.9</v>
+      </c>
+      <c r="I41" s="6">
+        <v>69.4</v>
+      </c>
+      <c r="J41" s="6">
+        <v>71.1</v>
+      </c>
+      <c r="K41" s="6">
+        <v>72.9</v>
+      </c>
+      <c r="L41" s="6">
+        <v>74</v>
+      </c>
+      <c r="M41" s="6">
+        <v>74.2</v>
+      </c>
+      <c r="N41" s="6">
+        <v>75</v>
+      </c>
+      <c r="O41" s="6">
+        <v>76.5</v>
+      </c>
+      <c r="P41" s="6">
+        <v>76.9</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>77.3</v>
+      </c>
+      <c r="R41" s="6">
+        <v>77.7</v>
+      </c>
+      <c r="S41" s="6">
+        <v>78</v>
+      </c>
+      <c r="T41" s="6">
+        <v>78.6</v>
+      </c>
+      <c r="U41" s="6">
+        <v>79.2</v>
+      </c>
+      <c r="V41" s="6">
+        <v>79.9</v>
+      </c>
+      <c r="W41" s="6">
+        <v>80.6</v>
+      </c>
+      <c r="X41" s="6">
+        <v>79.2</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>79.4</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>80.7</v>
       </c>
       <c r="AD41" s="4" t="inlineStr">
         <is>
+          <t>Z08_B05_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE41" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE41" s="4" t="inlineStr">
+      <c r="AF41" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF41" s="4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AG41" s="7">
-        <v>2025</v>
-      </c>
-      <c r="AH41" s="4" t="inlineStr">
-        <is>
-          <t>Ganz alt</t>
-        </is>
+      <c r="AG41" s="4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AH41" s="7">
+        <v>2030</v>
       </c>
       <c r="AI41" s="4" t="inlineStr">
         <is>
-          <t>Ganz alt</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ41" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="B42" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C42" s="6">
-        <v>80.1</v>
+      <c r="C42" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="D42" s="6">
-        <v>79.8</v>
+        <v>19.6</v>
       </c>
       <c r="E42" s="6">
-        <v>80.6</v>
+        <v>20.8</v>
       </c>
       <c r="F42" s="6">
-        <v>80.9</v>
+        <v>22.2</v>
       </c>
       <c r="G42" s="6">
-        <v>81.9</v>
+        <v>23.5</v>
       </c>
       <c r="H42" s="6">
-        <v>82.6</v>
+        <v>25.3</v>
       </c>
       <c r="I42" s="6">
-        <v>83.2</v>
+        <v>28.2</v>
       </c>
       <c r="J42" s="6">
-        <v>84</v>
+        <v>29.7</v>
       </c>
       <c r="K42" s="6">
-        <v>85</v>
+        <v>32.9</v>
       </c>
       <c r="L42" s="6">
-        <v>86.2</v>
+        <v>35.1</v>
       </c>
       <c r="M42" s="6">
-        <v>87.2</v>
+        <v>38.6</v>
       </c>
       <c r="N42" s="6">
-        <v>88.2</v>
+        <v>41.1</v>
       </c>
       <c r="O42" s="6">
-        <v>88.6</v>
+        <v>44.3</v>
       </c>
       <c r="P42" s="6">
-        <v>89.3</v>
+        <v>46.6</v>
       </c>
       <c r="Q42" s="6">
-        <v>88.5</v>
+        <v>50</v>
       </c>
       <c r="R42" s="6">
-        <v>88.2</v>
+        <v>52.6</v>
       </c>
       <c r="S42" s="6">
-        <v>85.8</v>
+        <v>53.3</v>
       </c>
       <c r="T42" s="6">
-        <v>81.8</v>
+        <v>56</v>
       </c>
       <c r="U42" s="6">
-        <v>81.8</v>
+        <v>58.4</v>
       </c>
       <c r="V42" s="6">
-        <v>82.4</v>
+        <v>60.3</v>
       </c>
       <c r="W42" s="6">
-        <v>85.3</v>
+        <v>61.8</v>
       </c>
       <c r="X42" s="6">
-        <v>84.3</v>
-      </c>
-      <c r="AC42" s="4" t="inlineStr">
-        <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
-        </is>
+        <v>60.6</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>61.1</v>
+      </c>
+      <c r="Z42" s="6">
+        <v>63.2</v>
       </c>
       <c r="AD42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AE42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K</t>
         </is>
       </c>
       <c r="AF42" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH42" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG42" s="4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AH42" s="7">
+        <v>2030</v>
       </c>
       <c r="AI42" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ42" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4313,201 +4409,180 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>11.1.a</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="B43" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C43" s="6">
-        <v>129.157</v>
-      </c>
-      <c r="D43" s="6">
-        <v>128.368</v>
-      </c>
-      <c r="E43" s="6">
-        <v>123.041</v>
-      </c>
-      <c r="F43" s="6">
-        <v>115.103</v>
-      </c>
-      <c r="G43" s="6">
-        <v>115.116</v>
-      </c>
-      <c r="H43" s="6">
-        <v>114.225</v>
-      </c>
-      <c r="I43" s="6">
-        <v>113.335</v>
-      </c>
-      <c r="J43" s="6">
-        <v>112.787</v>
-      </c>
-      <c r="K43" s="6">
-        <v>103.77</v>
-      </c>
-      <c r="L43" s="6">
-        <v>93.907</v>
-      </c>
-      <c r="M43" s="6">
-        <v>86.647</v>
-      </c>
-      <c r="N43" s="6">
-        <v>80.875</v>
-      </c>
-      <c r="O43" s="6">
-        <v>74.442</v>
-      </c>
-      <c r="P43" s="6">
-        <v>72.569</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>69.209</v>
+      <c r="C43" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="R43" s="6">
-        <v>66.056</v>
+        <v>59</v>
       </c>
       <c r="S43" s="6">
-        <v>61.539</v>
+        <v>172</v>
       </c>
       <c r="T43" s="6">
-        <v>57.692</v>
+        <v>188</v>
       </c>
       <c r="U43" s="6">
-        <v>56.373</v>
+        <v>147</v>
       </c>
       <c r="V43" s="6">
-        <v>52.37</v>
+        <v>128</v>
       </c>
       <c r="W43" s="6">
-        <v>54.051</v>
+        <v>124</v>
       </c>
       <c r="X43" s="6">
-        <v>54.749</v>
-      </c>
-      <c r="AC43" s="4" t="inlineStr">
-        <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
-        </is>
+        <v>136</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>123</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>128</v>
       </c>
       <c r="AD43" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE43" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AF43" s="4" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AG43" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH43" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG43" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI43" s="4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ43" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>11.1.b</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="B44" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C44" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2.41</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="F44" s="6">
+        <v>2.44</v>
+      </c>
       <c r="G44" s="6">
-        <v>-5.096</v>
+        <v>2.47</v>
       </c>
       <c r="H44" s="6">
-        <v>-4.971</v>
+        <v>2.44</v>
       </c>
       <c r="I44" s="6">
-        <v>-4.848</v>
+        <v>2.44</v>
       </c>
       <c r="J44" s="6">
-        <v>-4.728</v>
+        <v>2.47</v>
       </c>
       <c r="K44" s="6">
-        <v>-4.609</v>
+        <v>2.46</v>
       </c>
       <c r="L44" s="6">
-        <v>-4.33</v>
+        <v>2.62</v>
       </c>
       <c r="M44" s="6">
-        <v>-4.035</v>
+        <v>2.74</v>
       </c>
       <c r="N44" s="6">
-        <v>-4.223</v>
+        <v>2.73</v>
       </c>
       <c r="O44" s="6">
-        <v>-3.798</v>
+        <v>2.81</v>
       </c>
       <c r="P44" s="6">
-        <v>-3.636</v>
+        <v>2.88</v>
       </c>
       <c r="Q44" s="6">
-        <v>-3.693</v>
+        <v>2.84</v>
       </c>
       <c r="R44" s="6">
-        <v>-2.876</v>
+        <v>2.88</v>
       </c>
       <c r="S44" s="6">
-        <v>-2.715</v>
+        <v>2.93</v>
       </c>
       <c r="T44" s="6">
-        <v>-2.764</v>
+        <v>2.94</v>
       </c>
       <c r="U44" s="6">
-        <v>-2.795</v>
+        <v>3.05</v>
       </c>
       <c r="V44" s="6">
-        <v>-2.766</v>
+        <v>3.11</v>
       </c>
       <c r="W44" s="6">
-        <v>-2.836</v>
+        <v>3.17</v>
       </c>
       <c r="X44" s="6">
-        <v>-2.711</v>
-      </c>
-      <c r="AC44" s="4" t="inlineStr">
-        <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
-        </is>
+        <v>3.13</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>3.13</v>
       </c>
       <c r="AD44" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE44" s="4" t="inlineStr">
         <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AF44" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH44" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
+      <c r="AG44" s="4" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="AH44" s="7">
+        <v>2025</v>
       </c>
       <c r="AI44" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ44" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4516,782 +4591,908 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>11.1.c</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="B45" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C45" s="6">
-        <v>100</v>
-      </c>
-      <c r="D45" s="6">
-        <v>99.27</v>
-      </c>
-      <c r="E45" s="6">
-        <v>98.453</v>
-      </c>
-      <c r="F45" s="6">
-        <v>97.531</v>
-      </c>
-      <c r="G45" s="6">
-        <v>96.596</v>
-      </c>
-      <c r="H45" s="6">
-        <v>95.727</v>
-      </c>
-      <c r="I45" s="6">
-        <v>94.803</v>
-      </c>
-      <c r="J45" s="6">
-        <v>93.924</v>
-      </c>
-      <c r="K45" s="6">
-        <v>92.924</v>
-      </c>
-      <c r="L45" s="6">
-        <v>92.141</v>
-      </c>
-      <c r="M45" s="6">
-        <v>91.543</v>
-      </c>
-      <c r="N45" s="6">
-        <v>90.807</v>
-      </c>
-      <c r="O45" s="6">
-        <v>90.585</v>
-      </c>
-      <c r="P45" s="6">
-        <v>90.431</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>90.361</v>
-      </c>
-      <c r="R45" s="6">
-        <v>91.129</v>
-      </c>
-      <c r="S45" s="6">
-        <v>91.121</v>
-      </c>
-      <c r="T45" s="6">
-        <v>90.957</v>
-      </c>
-      <c r="U45" s="6">
-        <v>90.631</v>
-      </c>
-      <c r="V45" s="6">
-        <v>90.494</v>
-      </c>
-      <c r="W45" s="6">
-        <v>90.112</v>
-      </c>
-      <c r="X45" s="6">
-        <v>89.837</v>
-      </c>
-      <c r="AC45" s="4" t="inlineStr">
-        <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
-        </is>
+      <c r="C45" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="AD45" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="AE45" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF45" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH45" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="AG45" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AH45" s="7">
+        <v>2025</v>
       </c>
       <c r="AI45" s="4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>Ganz alt</t>
+        </is>
+      </c>
+      <c r="AJ45" s="4" t="inlineStr">
+        <is>
+          <t>Ganz alt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>11.2.a</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="B46" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C46" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>91.7</v>
+      </c>
+      <c r="E46" s="6">
+        <v>91.3</v>
+      </c>
+      <c r="F46" s="6">
+        <v>91.8</v>
+      </c>
+      <c r="G46" s="6">
+        <v>92.1</v>
       </c>
       <c r="H46" s="6">
-        <v>100</v>
+        <v>92.6</v>
       </c>
       <c r="I46" s="6">
-        <v>104.935</v>
+        <v>92.8</v>
       </c>
       <c r="J46" s="6">
-        <v>107.875</v>
+        <v>93.1</v>
       </c>
       <c r="K46" s="6">
-        <v>105.894</v>
+        <v>93.6</v>
       </c>
       <c r="L46" s="6">
-        <v>95.759</v>
+        <v>93.8</v>
       </c>
       <c r="M46" s="6">
-        <v>99.336</v>
+        <v>94.2</v>
       </c>
       <c r="N46" s="6">
-        <v>100.956</v>
+        <v>94.6</v>
       </c>
       <c r="O46" s="6">
-        <v>98.965</v>
+        <v>95</v>
       </c>
       <c r="P46" s="6">
-        <v>99.973</v>
+        <v>95.1</v>
       </c>
       <c r="Q46" s="6">
-        <v>101.539</v>
+        <v>95.4</v>
       </c>
       <c r="R46" s="6">
-        <v>103.068</v>
+        <v>95.1</v>
       </c>
       <c r="S46" s="6">
-        <v>104.894</v>
+        <v>95</v>
       </c>
       <c r="T46" s="6">
-        <v>107.47</v>
+        <v>95.1</v>
       </c>
       <c r="U46" s="6">
-        <v>109.201</v>
+        <v>94.8</v>
       </c>
       <c r="V46" s="6">
-        <v>108.099</v>
+        <v>94.6</v>
       </c>
       <c r="W46" s="6">
-        <v>104.988</v>
+        <v>94.5</v>
       </c>
       <c r="X46" s="6">
-        <v>106.974</v>
-      </c>
-      <c r="AC46" s="4" t="inlineStr">
-        <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
-        </is>
+        <v>94.9</v>
+      </c>
+      <c r="Y46" s="6">
+        <v>94.9</v>
       </c>
       <c r="AD46" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE46" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t/>
         </is>
       </c>
       <c r="AF46" s="4" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="AG46" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH46" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AG46" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI46" s="4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ46" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>11.2.b</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="B47" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>80.1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>79.8</v>
+      </c>
+      <c r="F47" s="6">
+        <v>80.6</v>
+      </c>
+      <c r="G47" s="6">
+        <v>80.9</v>
+      </c>
       <c r="H47" s="6">
-        <v>100</v>
+        <v>81.9</v>
       </c>
       <c r="I47" s="6">
-        <v>99.247</v>
+        <v>82.6</v>
       </c>
       <c r="J47" s="6">
-        <v>99.354</v>
+        <v>83.2</v>
       </c>
       <c r="K47" s="6">
-        <v>98.265</v>
+        <v>84</v>
       </c>
       <c r="L47" s="6">
-        <v>99.416</v>
+        <v>85</v>
       </c>
       <c r="M47" s="6">
-        <v>99.331</v>
+        <v>86.2</v>
       </c>
       <c r="N47" s="6">
-        <v>100.065</v>
+        <v>87.2</v>
       </c>
       <c r="O47" s="6">
-        <v>99.386</v>
+        <v>88.2</v>
       </c>
       <c r="P47" s="6">
-        <v>99.324</v>
+        <v>88.6</v>
       </c>
       <c r="Q47" s="6">
-        <v>100.354</v>
+        <v>89.3</v>
       </c>
       <c r="R47" s="6">
-        <v>99.685</v>
+        <v>88.5</v>
       </c>
       <c r="S47" s="6">
-        <v>100.673</v>
+        <v>88.2</v>
       </c>
       <c r="T47" s="6">
-        <v>101.189</v>
+        <v>85.8</v>
       </c>
       <c r="U47" s="6">
-        <v>101.054</v>
+        <v>81.8</v>
       </c>
       <c r="V47" s="6">
-        <v>101.647</v>
+        <v>81.8</v>
       </c>
       <c r="W47" s="6">
-        <v>85.468</v>
+        <v>82.4</v>
       </c>
       <c r="X47" s="6">
-        <v>84.448</v>
-      </c>
-      <c r="AC47" s="4" t="inlineStr">
-        <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
-        </is>
+        <v>85.3</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>84.3</v>
       </c>
       <c r="AD47" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE47" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t/>
         </is>
       </c>
       <c r="AF47" s="4" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="AG47" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH47" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AG47" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI47" s="4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ47" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>11.2.c</t>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="B48" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>129.157</v>
+      </c>
+      <c r="E48" s="6">
+        <v>128.368</v>
+      </c>
+      <c r="F48" s="6">
+        <v>123.041</v>
+      </c>
+      <c r="G48" s="6">
+        <v>115.103</v>
+      </c>
+      <c r="H48" s="6">
+        <v>115.116</v>
+      </c>
+      <c r="I48" s="6">
+        <v>114.225</v>
+      </c>
+      <c r="J48" s="6">
+        <v>113.335</v>
+      </c>
+      <c r="K48" s="6">
+        <v>112.787</v>
+      </c>
+      <c r="L48" s="6">
+        <v>103.77</v>
+      </c>
+      <c r="M48" s="6">
+        <v>93.907</v>
+      </c>
+      <c r="N48" s="6">
+        <v>86.647</v>
+      </c>
       <c r="O48" s="6">
-        <v>23.49</v>
+        <v>80.875</v>
+      </c>
+      <c r="P48" s="6">
+        <v>74.442</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>72.569</v>
+      </c>
+      <c r="R48" s="6">
+        <v>69.209</v>
       </c>
       <c r="S48" s="6">
-        <v>22.41</v>
+        <v>66.056</v>
+      </c>
+      <c r="T48" s="6">
+        <v>61.539</v>
       </c>
       <c r="U48" s="6">
-        <v>21.86</v>
+        <v>57.692</v>
+      </c>
+      <c r="V48" s="6">
+        <v>56.373</v>
       </c>
       <c r="W48" s="6">
-        <v>20.59</v>
-      </c>
-      <c r="AC48" s="4" t="inlineStr">
-        <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
-        </is>
+        <v>52.37</v>
+      </c>
+      <c r="X48" s="6">
+        <v>54.051</v>
+      </c>
+      <c r="Y48" s="6">
+        <v>54.749</v>
       </c>
       <c r="AD48" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE48" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF48" s="4" t="inlineStr">
+        <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH48" s="4" t="inlineStr">
-        <is>
-          <t>Ganz alt</t>
-        </is>
+      <c r="AG48" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AH48" s="7">
+        <v>2030</v>
       </c>
       <c r="AI48" s="4" t="inlineStr">
         <is>
-          <t>Ganz alt</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ48" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="B49" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>-5.096</v>
+      </c>
+      <c r="I49" s="6">
+        <v>-4.971</v>
+      </c>
+      <c r="J49" s="6">
+        <v>-4.848</v>
+      </c>
+      <c r="K49" s="6">
+        <v>-4.728</v>
+      </c>
+      <c r="L49" s="6">
+        <v>-4.609</v>
+      </c>
+      <c r="M49" s="6">
+        <v>-4.33</v>
+      </c>
+      <c r="N49" s="6">
+        <v>-4.035</v>
+      </c>
       <c r="O49" s="6">
-        <v>5.6</v>
+        <v>-4.223</v>
       </c>
       <c r="P49" s="6">
-        <v>6.9</v>
+        <v>-3.798</v>
       </c>
       <c r="Q49" s="6">
-        <v>11.2</v>
+        <v>-3.636</v>
       </c>
       <c r="R49" s="6">
-        <v>18.2</v>
+        <v>-3.693</v>
       </c>
       <c r="S49" s="6">
-        <v>20.4</v>
+        <v>-2.876</v>
       </c>
       <c r="T49" s="6">
-        <v>23.7</v>
+        <v>-2.715</v>
       </c>
       <c r="U49" s="6">
-        <v>24.2</v>
+        <v>-2.764</v>
       </c>
       <c r="V49" s="6">
-        <v>32.1</v>
+        <v>-2.795</v>
       </c>
       <c r="W49" s="6">
-        <v>35.6</v>
+        <v>-2.766</v>
       </c>
       <c r="X49" s="6">
-        <v>40.2</v>
+        <v>-2.836</v>
       </c>
       <c r="Y49" s="6">
-        <v>44.9</v>
-      </c>
-      <c r="AC49" s="4" t="inlineStr">
-        <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
-        </is>
+        <v>-2.711</v>
       </c>
       <c r="AD49" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="AE49" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AF49" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF49" s="4" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="AG49" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH49" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
+      <c r="AG49" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI49" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AJ49" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="B50" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>100</v>
+      </c>
+      <c r="E50" s="6">
+        <v>99.27</v>
+      </c>
+      <c r="F50" s="6">
+        <v>98.453</v>
+      </c>
+      <c r="G50" s="6">
+        <v>97.531</v>
+      </c>
+      <c r="H50" s="6">
+        <v>96.596</v>
+      </c>
+      <c r="I50" s="6">
+        <v>95.727</v>
+      </c>
+      <c r="J50" s="6">
+        <v>94.803</v>
+      </c>
+      <c r="K50" s="6">
+        <v>93.924</v>
+      </c>
+      <c r="L50" s="6">
+        <v>92.924</v>
+      </c>
+      <c r="M50" s="6">
+        <v>92.141</v>
+      </c>
+      <c r="N50" s="6">
+        <v>91.543</v>
+      </c>
       <c r="O50" s="6">
-        <v>3.6</v>
+        <v>90.807</v>
       </c>
       <c r="P50" s="6">
-        <v>4.4</v>
+        <v>90.585</v>
       </c>
       <c r="Q50" s="6">
-        <v>5.9</v>
+        <v>90.431</v>
       </c>
       <c r="R50" s="6">
-        <v>7.6</v>
+        <v>90.361</v>
       </c>
       <c r="S50" s="6">
-        <v>8.7</v>
+        <v>91.129</v>
       </c>
       <c r="T50" s="6">
-        <v>8.4</v>
+        <v>91.121</v>
       </c>
       <c r="U50" s="6">
-        <v>7.4</v>
+        <v>90.957</v>
       </c>
       <c r="V50" s="6">
-        <v>7.9</v>
+        <v>90.631</v>
       </c>
       <c r="W50" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="AC50" s="4" t="inlineStr">
-        <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
-        </is>
+        <v>90.494</v>
+      </c>
+      <c r="X50" s="6">
+        <v>90.112</v>
+      </c>
+      <c r="Y50" s="6">
+        <v>89.837</v>
       </c>
       <c r="AD50" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="AE50" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AF50" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF50" s="4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AG50" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH50" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+      <c r="AG50" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI50" s="4" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ50" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>12.1.ba</t>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="B51" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C51" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>100</v>
+      </c>
+      <c r="J51" s="6">
+        <v>104.935</v>
+      </c>
+      <c r="K51" s="6">
+        <v>107.875</v>
+      </c>
+      <c r="L51" s="6">
+        <v>105.894</v>
+      </c>
       <c r="M51" s="6">
-        <v>100</v>
+        <v>95.759</v>
       </c>
       <c r="N51" s="6">
-        <v>101.382</v>
+        <v>99.336</v>
       </c>
       <c r="O51" s="6">
-        <v>99.693</v>
+        <v>100.956</v>
       </c>
       <c r="P51" s="6">
-        <v>98.464</v>
+        <v>98.965</v>
       </c>
       <c r="Q51" s="6">
-        <v>99.386</v>
+        <v>99.973</v>
       </c>
       <c r="R51" s="6">
-        <v>97.696</v>
+        <v>101.539</v>
       </c>
       <c r="S51" s="6">
-        <v>101.229</v>
+        <v>103.068</v>
       </c>
       <c r="T51" s="6">
-        <v>100</v>
+        <v>104.894</v>
       </c>
       <c r="U51" s="6">
-        <v>100</v>
-      </c>
-      <c r="AC51" s="4" t="inlineStr">
-        <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
-        </is>
+        <v>107.47</v>
+      </c>
+      <c r="V51" s="6">
+        <v>109.201</v>
+      </c>
+      <c r="W51" s="6">
+        <v>108.099</v>
+      </c>
+      <c r="X51" s="6">
+        <v>104.988</v>
+      </c>
+      <c r="Y51" s="6">
+        <v>106.974</v>
       </c>
       <c r="AD51" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE51" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF51" s="4" t="inlineStr">
+        <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH51" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="AG51" s="4" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AH51" s="7">
+        <v>2030</v>
       </c>
       <c r="AI51" s="4" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ51" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>12.1.bb</t>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="B52" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>100</v>
+      </c>
+      <c r="J52" s="6">
+        <v>99.247</v>
+      </c>
+      <c r="K52" s="6">
+        <v>99.354</v>
+      </c>
+      <c r="L52" s="6">
+        <v>98.265</v>
+      </c>
       <c r="M52" s="6">
-        <v>100</v>
+        <v>99.416</v>
       </c>
       <c r="N52" s="6">
-        <v>95.751</v>
+        <v>99.331</v>
       </c>
       <c r="O52" s="6">
-        <v>95.038</v>
+        <v>100.065</v>
       </c>
       <c r="P52" s="6">
-        <v>96.49</v>
+        <v>99.386</v>
       </c>
       <c r="Q52" s="6">
-        <v>90.044</v>
+        <v>99.324</v>
       </c>
       <c r="R52" s="6">
-        <v>92.347</v>
+        <v>100.354</v>
       </c>
       <c r="S52" s="6">
-        <v>95.038</v>
+        <v>99.685</v>
       </c>
       <c r="T52" s="6">
-        <v>94.057</v>
-      </c>
-      <c r="AC52" s="4" t="inlineStr">
-        <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
-        </is>
+        <v>100.673</v>
+      </c>
+      <c r="U52" s="6">
+        <v>101.189</v>
+      </c>
+      <c r="V52" s="6">
+        <v>101.054</v>
+      </c>
+      <c r="W52" s="6">
+        <v>101.647</v>
+      </c>
+      <c r="X52" s="6">
+        <v>85.468</v>
+      </c>
+      <c r="Y52" s="6">
+        <v>84.448</v>
       </c>
       <c r="AD52" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="AE52" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF52" s="4" t="inlineStr">
+        <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH52" s="4" t="inlineStr">
-        <is>
-          <t>Sp</t>
-        </is>
+      <c r="AG52" s="4" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AH52" s="7">
+        <v>2030</v>
       </c>
       <c r="AI52" s="4" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ52" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>12.1.bc</t>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="B53" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M53" s="6">
-        <v>100</v>
-      </c>
-      <c r="N53" s="6">
-        <v>97.395</v>
-      </c>
-      <c r="O53" s="6">
-        <v>97.977</v>
+      <c r="C53" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="P53" s="6">
-        <v>98.721</v>
-      </c>
-      <c r="Q53" s="6">
-        <v>91.772</v>
-      </c>
-      <c r="R53" s="6">
-        <v>93.658</v>
-      </c>
-      <c r="S53" s="6">
-        <v>93.839</v>
+        <v>23.49</v>
       </c>
       <c r="T53" s="6">
-        <v>92.089</v>
-      </c>
-      <c r="AC53" s="4" t="inlineStr">
-        <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
-        </is>
+        <v>22.41</v>
+      </c>
+      <c r="V53" s="6">
+        <v>21.86</v>
+      </c>
+      <c r="X53" s="6">
+        <v>20.59</v>
       </c>
       <c r="AD53" s="4" t="inlineStr">
         <is>
+          <t>Z11_B02_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="AE53" s="4" t="inlineStr">
+        <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AE53" s="4" t="inlineStr">
+      <c r="AF53" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF53" s="4" t="inlineStr">
+      <c r="AG53" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH53" s="4" t="inlineStr">
-        <is>
-          <t>Sp</t>
-        </is>
-      </c>
       <c r="AI53" s="4" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>Ganz alt</t>
+        </is>
+      </c>
+      <c r="AJ53" s="4" t="inlineStr">
+        <is>
+          <t>Ganz alt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="B54" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H54" s="6">
-        <v>1958</v>
-      </c>
-      <c r="I54" s="6">
-        <v>1985</v>
-      </c>
-      <c r="J54" s="6">
-        <v>1956</v>
-      </c>
-      <c r="K54" s="6">
-        <v>1917</v>
-      </c>
-      <c r="L54" s="6">
-        <v>1906</v>
-      </c>
-      <c r="M54" s="6">
-        <v>1913</v>
-      </c>
-      <c r="N54" s="6">
-        <v>1909</v>
-      </c>
-      <c r="O54" s="6">
-        <v>1828</v>
+      <c r="C54" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>1862</v>
+        <v>5.6</v>
       </c>
       <c r="Q54" s="6">
-        <v>1906</v>
+        <v>6.9</v>
       </c>
       <c r="R54" s="6">
-        <v>2004</v>
+        <v>11.2</v>
       </c>
       <c r="S54" s="6">
-        <v>2073</v>
+        <v>18.2</v>
       </c>
       <c r="T54" s="6">
-        <v>2182</v>
+        <v>20.4</v>
       </c>
       <c r="U54" s="6">
-        <v>2167</v>
+        <v>23.7</v>
       </c>
       <c r="V54" s="6">
-        <v>2176</v>
+        <v>24.2</v>
       </c>
       <c r="W54" s="6">
-        <v>2184</v>
+        <v>32.1</v>
       </c>
       <c r="X54" s="6">
-        <v>2290</v>
+        <v>35.6</v>
       </c>
       <c r="Y54" s="6">
-        <v>2361</v>
-      </c>
-      <c r="AC54" s="4" t="inlineStr">
-        <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
-        </is>
+        <v>40.2</v>
+      </c>
+      <c r="Z54" s="6">
+        <v>44.9</v>
       </c>
       <c r="AD54" s="4" t="inlineStr">
         <is>
+          <t>Z11_B04_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE54" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE54" s="4" t="inlineStr">
+      <c r="AF54" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF54" s="4" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="AG54" s="7">
+      <c r="AG54" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AH54" s="7">
         <v>2030</v>
       </c>
-      <c r="AH54" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AI54" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ54" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -5300,517 +5501,439 @@
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>12.3.a</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="B55" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>4.4</v>
+      </c>
       <c r="R55" s="6">
-        <v>100</v>
+        <v>5.9</v>
       </c>
       <c r="S55" s="6">
-        <v>136.802</v>
+        <v>7.6</v>
       </c>
       <c r="T55" s="6">
-        <v>147.738</v>
+        <v>8.7</v>
       </c>
       <c r="U55" s="6">
-        <v>197.464</v>
+        <v>8.4</v>
       </c>
       <c r="V55" s="6">
-        <v>204.067</v>
+        <v>7.4</v>
       </c>
       <c r="W55" s="6">
-        <v>212.886</v>
-      </c>
-      <c r="AC55" s="4" t="inlineStr">
-        <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
-        </is>
+        <v>7.9</v>
+      </c>
+      <c r="X55" s="6">
+        <v>13.4</v>
       </c>
       <c r="AD55" s="4" t="inlineStr">
         <is>
+          <t>Z12_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE55" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE55" s="4" t="inlineStr">
+      <c r="AF55" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF55" s="4" t="inlineStr">
-        <is>
-          <t>210,8</t>
-        </is>
-      </c>
-      <c r="AG55" s="7">
-        <v>2020</v>
-      </c>
-      <c r="AH55" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
+      <c r="AG55" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AH55" s="7">
+        <v>2030</v>
       </c>
       <c r="AI55" s="4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ55" s="4" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>12.3.b</t>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="B56" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>100</v>
+      </c>
+      <c r="O56" s="6">
+        <v>101.382</v>
+      </c>
+      <c r="P56" s="6">
+        <v>99.693</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>98.464</v>
+      </c>
       <c r="R56" s="6">
+        <v>99.386</v>
+      </c>
+      <c r="S56" s="6">
+        <v>97.696</v>
+      </c>
+      <c r="T56" s="6">
+        <v>101.229</v>
+      </c>
+      <c r="U56" s="6">
         <v>100</v>
       </c>
-      <c r="S56" s="6">
-        <v>99.978</v>
-      </c>
-      <c r="T56" s="6">
-        <v>100.046</v>
-      </c>
-      <c r="U56" s="6">
-        <v>99.985</v>
-      </c>
       <c r="V56" s="6">
-        <v>100.63</v>
-      </c>
-      <c r="W56" s="6">
-        <v>101.773</v>
-      </c>
-      <c r="AC56" s="4" t="inlineStr">
-        <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
-        </is>
+        <v>100</v>
       </c>
       <c r="AD56" s="4" t="inlineStr">
         <is>
+          <t>Z12_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="AE56" s="4" t="inlineStr">
+        <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AE56" s="4" t="inlineStr">
+      <c r="AF56" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF56" s="4" t="inlineStr">
+      <c r="AG56" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH56" s="4" t="inlineStr">
+      <c r="AI56" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AI56" s="4" t="inlineStr">
-        <is>
-          <t>2020</t>
+      <c r="AJ56" s="4" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>13.1.a</t>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="B57" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C57" s="6">
-        <v>83.134</v>
-      </c>
-      <c r="D57" s="6">
-        <v>84.307</v>
-      </c>
-      <c r="E57" s="6">
-        <v>82.562</v>
-      </c>
-      <c r="F57" s="6">
-        <v>82.271</v>
-      </c>
-      <c r="G57" s="6">
-        <v>80.744</v>
-      </c>
-      <c r="H57" s="6">
-        <v>78.722</v>
-      </c>
-      <c r="I57" s="6">
-        <v>79.274</v>
-      </c>
-      <c r="J57" s="6">
-        <v>77.114</v>
-      </c>
-      <c r="K57" s="6">
-        <v>77.122</v>
-      </c>
-      <c r="L57" s="6">
-        <v>71.797</v>
-      </c>
-      <c r="M57" s="6">
-        <v>74.517</v>
+      <c r="C57" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="N57" s="6">
-        <v>72.529</v>
+        <v>100</v>
       </c>
       <c r="O57" s="6">
-        <v>72.996</v>
+        <v>95.751</v>
       </c>
       <c r="P57" s="6">
-        <v>74.607</v>
+        <v>95.038</v>
       </c>
       <c r="Q57" s="6">
-        <v>71.402</v>
+        <v>96.49</v>
       </c>
       <c r="R57" s="6">
-        <v>71.662</v>
+        <v>90.044</v>
       </c>
       <c r="S57" s="6">
-        <v>71.814</v>
+        <v>92.347</v>
       </c>
       <c r="T57" s="6">
-        <v>70.458</v>
+        <v>95.038</v>
       </c>
       <c r="U57" s="6">
-        <v>67.627</v>
-      </c>
-      <c r="V57" s="6">
-        <v>63.508</v>
-      </c>
-      <c r="W57" s="6">
-        <v>58.417</v>
-      </c>
-      <c r="X57" s="6">
-        <v>60.769</v>
-      </c>
-      <c r="Y57" s="6">
-        <v>59.591</v>
-      </c>
-      <c r="AC57" s="4" t="inlineStr">
-        <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
-        </is>
+        <v>94.057</v>
       </c>
       <c r="AD57" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="AE57" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AF57" s="4" t="inlineStr">
+        <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AF57" s="4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AG57" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH57" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+      <c r="AG57" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI57" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>Sp</t>
+        </is>
+      </c>
+      <c r="AJ57" s="4" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>13.1.b</t>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="B58" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C58" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="N58" s="6">
-        <v>1.56</v>
+        <v>100</v>
       </c>
       <c r="O58" s="6">
-        <v>1.66</v>
+        <v>97.395</v>
       </c>
       <c r="P58" s="6">
-        <v>1.95</v>
+        <v>97.977</v>
       </c>
       <c r="Q58" s="6">
-        <v>2.34</v>
+        <v>98.721</v>
       </c>
       <c r="R58" s="6">
-        <v>2.684</v>
+        <v>91.772</v>
       </c>
       <c r="S58" s="6">
-        <v>3.362</v>
+        <v>93.658</v>
       </c>
       <c r="T58" s="6">
-        <v>3.65</v>
+        <v>93.839</v>
       </c>
       <c r="U58" s="6">
-        <v>3.37</v>
-      </c>
-      <c r="V58" s="6">
-        <v>4.34</v>
-      </c>
-      <c r="W58" s="6">
-        <v>5.09</v>
-      </c>
-      <c r="X58" s="6">
-        <v>5.34</v>
-      </c>
-      <c r="AC58" s="4" t="inlineStr">
-        <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
-        </is>
+        <v>92.089</v>
       </c>
       <c r="AD58" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="AE58" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AF58" s="4" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG58" s="7">
-        <v>2025</v>
-      </c>
-      <c r="AH58" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG58" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI58" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>Sp</t>
+        </is>
+      </c>
+      <c r="AJ58" s="4" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>14.1.aa</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="B59" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C59" s="6">
-        <v>3.832</v>
-      </c>
-      <c r="D59" s="6">
-        <v>3.958</v>
-      </c>
-      <c r="E59" s="6">
-        <v>4.182</v>
-      </c>
-      <c r="F59" s="6">
-        <v>3.741</v>
-      </c>
-      <c r="G59" s="6">
-        <v>3.582</v>
-      </c>
-      <c r="H59" s="6">
-        <v>3.577</v>
+      <c r="C59" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I59" s="6">
-        <v>3.515</v>
+        <v>1958</v>
       </c>
       <c r="J59" s="6">
-        <v>3.524</v>
+        <v>1985</v>
       </c>
       <c r="K59" s="6">
-        <v>3.686</v>
+        <v>1956</v>
       </c>
       <c r="L59" s="6">
-        <v>3.602</v>
+        <v>1917</v>
       </c>
       <c r="M59" s="6">
-        <v>3.754</v>
+        <v>1906</v>
       </c>
       <c r="N59" s="6">
-        <v>3.785</v>
+        <v>1913</v>
       </c>
       <c r="O59" s="6">
-        <v>3.447</v>
+        <v>1909</v>
       </c>
       <c r="P59" s="6">
-        <v>3.41</v>
+        <v>1828</v>
       </c>
       <c r="Q59" s="6">
-        <v>3.352</v>
+        <v>1862</v>
       </c>
       <c r="R59" s="6">
-        <v>3.146</v>
+        <v>1906</v>
       </c>
       <c r="S59" s="6">
-        <v>2.954</v>
+        <v>2004</v>
       </c>
       <c r="T59" s="6">
-        <v>3.191</v>
+        <v>2073</v>
       </c>
       <c r="U59" s="6">
-        <v>3.145</v>
+        <v>2182</v>
       </c>
       <c r="V59" s="6">
-        <v>3.17</v>
+        <v>2167</v>
       </c>
       <c r="W59" s="6">
-        <v>3.071</v>
+        <v>2176</v>
       </c>
       <c r="X59" s="6">
-        <v>3.196</v>
-      </c>
-      <c r="AC59" s="4" t="inlineStr">
-        <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
-        </is>
+        <v>2184</v>
+      </c>
+      <c r="Y59" s="6">
+        <v>2290</v>
+      </c>
+      <c r="Z59" s="6">
+        <v>2361</v>
       </c>
       <c r="AD59" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE59" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AF59" s="4" t="inlineStr">
         <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="AH59" s="4" t="inlineStr">
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG59" s="4" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="AH59" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AI59" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AI59" s="4" t="inlineStr">
-        <is>
-          <t>2020</t>
+      <c r="AJ59" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>14.1.ab</t>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="B60" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C60" s="6">
-        <v>4.022</v>
-      </c>
-      <c r="D60" s="6">
-        <v>3.833</v>
-      </c>
-      <c r="E60" s="6">
-        <v>3.76</v>
-      </c>
-      <c r="F60" s="6">
-        <v>3.617</v>
-      </c>
-      <c r="G60" s="6">
-        <v>3.583</v>
-      </c>
-      <c r="H60" s="6">
-        <v>3.552</v>
-      </c>
-      <c r="I60" s="6">
-        <v>3.558</v>
-      </c>
-      <c r="J60" s="6">
-        <v>3.481</v>
-      </c>
-      <c r="K60" s="6">
-        <v>3.446</v>
-      </c>
-      <c r="L60" s="6">
-        <v>3.381</v>
-      </c>
-      <c r="M60" s="6">
-        <v>3.385</v>
-      </c>
-      <c r="N60" s="6">
-        <v>3.296</v>
-      </c>
-      <c r="O60" s="6">
-        <v>3.169</v>
-      </c>
-      <c r="P60" s="6">
-        <v>3.157</v>
-      </c>
-      <c r="Q60" s="6">
-        <v>3.086</v>
-      </c>
-      <c r="R60" s="6">
-        <v>2.978</v>
+      <c r="C60" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="S60" s="6">
-        <v>2.921</v>
+        <v>100</v>
       </c>
       <c r="T60" s="6">
-        <v>2.975</v>
+        <v>136.802</v>
       </c>
       <c r="U60" s="6">
-        <v>2.838</v>
+        <v>147.738</v>
       </c>
       <c r="V60" s="6">
-        <v>2.815</v>
+        <v>197.464</v>
       </c>
       <c r="W60" s="6">
-        <v>2.756</v>
+        <v>204.067</v>
       </c>
       <c r="X60" s="6">
-        <v>2.75</v>
-      </c>
-      <c r="AC60" s="4" t="inlineStr">
-        <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
-        </is>
+        <v>212.886</v>
       </c>
       <c r="AD60" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE60" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AF60" s="4" t="inlineStr">
         <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="AH60" s="4" t="inlineStr">
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG60" s="4" t="inlineStr">
+        <is>
+          <t>210,8</t>
+        </is>
+      </c>
+      <c r="AH60" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AI60" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AI60" s="4" t="inlineStr">
+      <c r="AJ60" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5819,98 +5942,59 @@
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>14.1.b</t>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="B61" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F61" s="6">
-        <v>32.258</v>
-      </c>
-      <c r="G61" s="6">
-        <v>22.581</v>
-      </c>
-      <c r="H61" s="6">
-        <v>19.355</v>
-      </c>
-      <c r="I61" s="6">
-        <v>16.129</v>
-      </c>
-      <c r="J61" s="6">
-        <v>22.581</v>
-      </c>
-      <c r="K61" s="6">
-        <v>32.258</v>
-      </c>
-      <c r="L61" s="6">
-        <v>32.258</v>
-      </c>
-      <c r="M61" s="6">
-        <v>38.71</v>
-      </c>
-      <c r="N61" s="6">
-        <v>38.71</v>
-      </c>
-      <c r="O61" s="6">
-        <v>41.935</v>
-      </c>
-      <c r="P61" s="6">
-        <v>41.935</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>35.484</v>
-      </c>
-      <c r="R61" s="6">
-        <v>41.935</v>
+      <c r="C61" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="S61" s="6">
-        <v>45.161</v>
+        <v>100</v>
       </c>
       <c r="T61" s="6">
-        <v>46.875</v>
+        <v>99.978</v>
       </c>
       <c r="U61" s="6">
-        <v>50</v>
+        <v>100.046</v>
       </c>
       <c r="V61" s="6">
-        <v>43.75</v>
+        <v>99.985</v>
       </c>
       <c r="W61" s="6">
-        <v>53.125</v>
+        <v>100.63</v>
       </c>
       <c r="X61" s="6">
-        <v>65.625</v>
-      </c>
-      <c r="AC61" s="4" t="inlineStr">
-        <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
-        </is>
+        <v>101.773</v>
       </c>
       <c r="AD61" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AE61" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AF61" s="4" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AG61" s="7">
-        <v>2020</v>
-      </c>
-      <c r="AH61" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG61" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI61" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ61" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5919,235 +6003,301 @@
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="B62" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C62" s="6">
-        <v>71.864</v>
+      <c r="C62" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="D62" s="6">
-        <v>71.115</v>
+        <v>83.134</v>
       </c>
       <c r="E62" s="6">
-        <v>69.744</v>
+        <v>84.307</v>
       </c>
       <c r="F62" s="6">
-        <v>69.809</v>
+        <v>82.562</v>
       </c>
       <c r="G62" s="6">
-        <v>72.457</v>
+        <v>82.271</v>
       </c>
       <c r="H62" s="6">
-        <v>70.991</v>
+        <v>80.744</v>
       </c>
       <c r="I62" s="6">
-        <v>70.212</v>
+        <v>78.722</v>
       </c>
       <c r="J62" s="6">
-        <v>70.06</v>
+        <v>79.274</v>
       </c>
       <c r="K62" s="6">
-        <v>70.34</v>
+        <v>77.114</v>
       </c>
       <c r="L62" s="6">
-        <v>67.219</v>
+        <v>77.122</v>
       </c>
       <c r="M62" s="6">
-        <v>67.973</v>
+        <v>71.797</v>
       </c>
       <c r="N62" s="6">
-        <v>66.195</v>
+        <v>74.517</v>
       </c>
       <c r="O62" s="6">
-        <v>70.411</v>
+        <v>72.529</v>
       </c>
       <c r="P62" s="6">
-        <v>67.814</v>
+        <v>72.996</v>
       </c>
       <c r="Q62" s="6">
-        <v>67.006</v>
+        <v>74.607</v>
       </c>
       <c r="R62" s="6">
-        <v>69.773</v>
+        <v>71.402</v>
       </c>
       <c r="S62" s="6">
-        <v>70.502</v>
-      </c>
-      <c r="AC62" s="4" t="inlineStr">
-        <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
-        </is>
+        <v>71.662</v>
+      </c>
+      <c r="T62" s="6">
+        <v>71.814</v>
+      </c>
+      <c r="U62" s="6">
+        <v>70.458</v>
+      </c>
+      <c r="V62" s="6">
+        <v>67.627</v>
+      </c>
+      <c r="W62" s="6">
+        <v>63.508</v>
+      </c>
+      <c r="X62" s="6">
+        <v>58.417</v>
+      </c>
+      <c r="Y62" s="6">
+        <v>60.769</v>
+      </c>
+      <c r="Z62" s="6">
+        <v>59.591</v>
       </c>
       <c r="AD62" s="4" t="inlineStr">
         <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE62" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE62" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="AF62" s="4" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AG62" s="7">
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG62" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AH62" s="7">
         <v>2030</v>
       </c>
-      <c r="AH62" s="4" t="inlineStr">
-        <is>
-          <t>Ganz alt</t>
-        </is>
-      </c>
       <c r="AI62" s="4" t="inlineStr">
         <is>
-          <t>Ganz alt</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ62" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="B63" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C63" s="6">
-        <v>84.377</v>
-      </c>
-      <c r="H63" s="6">
-        <v>79.447</v>
-      </c>
-      <c r="M63" s="6">
-        <v>75.752</v>
+      <c r="C63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="P63" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>1.95</v>
       </c>
       <c r="R63" s="6">
-        <v>68.677</v>
+        <v>2.34</v>
       </c>
       <c r="S63" s="6">
-        <v>71.592</v>
+        <v>2.684</v>
       </c>
       <c r="T63" s="6">
-        <v>71.334</v>
+        <v>3.362</v>
       </c>
       <c r="U63" s="6">
-        <v>68.811</v>
+        <v>3.65</v>
       </c>
       <c r="V63" s="6">
-        <v>68.513</v>
-      </c>
-      <c r="AC63" s="4" t="inlineStr">
-        <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
-        </is>
+        <v>3.37</v>
+      </c>
+      <c r="W63" s="6">
+        <v>4.34</v>
+      </c>
+      <c r="X63" s="6">
+        <v>5.09</v>
+      </c>
+      <c r="Y63" s="6">
+        <v>5.34</v>
       </c>
       <c r="AD63" s="4" t="inlineStr">
         <is>
+          <t>Z13_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE63" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE63" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
       <c r="AF63" s="4" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AG63" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH63" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG63" s="4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AH63" s="7">
+        <v>2025</v>
       </c>
       <c r="AI63" s="4" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ63" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>15.3.a</t>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="B64" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C64" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6">
+        <v>3.832</v>
+      </c>
+      <c r="E64" s="6">
+        <v>3.958</v>
+      </c>
+      <c r="F64" s="6">
+        <v>4.182</v>
+      </c>
+      <c r="G64" s="6">
+        <v>3.741</v>
+      </c>
+      <c r="H64" s="6">
+        <v>3.582</v>
+      </c>
+      <c r="I64" s="6">
+        <v>3.577</v>
+      </c>
+      <c r="J64" s="6">
+        <v>3.515</v>
+      </c>
+      <c r="K64" s="6">
+        <v>3.524</v>
+      </c>
       <c r="L64" s="6">
-        <v>3</v>
+        <v>3.686</v>
       </c>
       <c r="M64" s="6">
-        <v>20</v>
+        <v>3.602</v>
       </c>
       <c r="N64" s="6">
-        <v>12</v>
+        <v>3.754</v>
       </c>
       <c r="O64" s="6">
-        <v>24.9</v>
+        <v>3.785</v>
       </c>
       <c r="P64" s="6">
-        <v>36.3</v>
+        <v>3.447</v>
       </c>
       <c r="Q64" s="6">
-        <v>31</v>
+        <v>3.41</v>
       </c>
       <c r="R64" s="6">
-        <v>15.7</v>
+        <v>3.352</v>
       </c>
       <c r="S64" s="6">
-        <v>59.8</v>
+        <v>3.146</v>
       </c>
       <c r="T64" s="6">
-        <v>68</v>
+        <v>2.954</v>
       </c>
       <c r="U64" s="6">
-        <v>63</v>
+        <v>3.191</v>
       </c>
       <c r="V64" s="6">
-        <v>63.5</v>
+        <v>3.145</v>
       </c>
       <c r="W64" s="6">
-        <v>24.2</v>
-      </c>
-      <c r="AC64" s="4" t="inlineStr">
-        <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
-        </is>
+        <v>3.17</v>
+      </c>
+      <c r="X64" s="6">
+        <v>3.071</v>
+      </c>
+      <c r="Y64" s="6">
+        <v>3.196</v>
       </c>
       <c r="AD64" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE64" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>J</t>
         </is>
       </c>
       <c r="AF64" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH64" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG64" s="4" t="inlineStr">
+        <is>
+          <t>2,6</t>
         </is>
       </c>
       <c r="AI64" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ64" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6156,74 +6306,107 @@
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>15.3.b</t>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="B65" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C65" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
+        <v>4.022</v>
+      </c>
+      <c r="E65" s="6">
+        <v>3.833</v>
+      </c>
+      <c r="F65" s="6">
+        <v>3.76</v>
+      </c>
+      <c r="G65" s="6">
+        <v>3.617</v>
+      </c>
+      <c r="H65" s="6">
+        <v>3.583</v>
+      </c>
+      <c r="I65" s="6">
+        <v>3.552</v>
+      </c>
+      <c r="J65" s="6">
+        <v>3.558</v>
+      </c>
+      <c r="K65" s="6">
+        <v>3.481</v>
+      </c>
       <c r="L65" s="6">
-        <v>40</v>
+        <v>3.446</v>
       </c>
       <c r="M65" s="6">
-        <v>152.5</v>
+        <v>3.381</v>
       </c>
       <c r="N65" s="6">
-        <v>198.6</v>
+        <v>3.385</v>
       </c>
       <c r="O65" s="6">
-        <v>245.3</v>
+        <v>3.296</v>
       </c>
       <c r="P65" s="6">
-        <v>248.7</v>
+        <v>3.169</v>
       </c>
       <c r="Q65" s="6">
-        <v>239.7</v>
+        <v>3.157</v>
       </c>
       <c r="R65" s="6">
-        <v>271.9</v>
+        <v>3.086</v>
       </c>
       <c r="S65" s="6">
-        <v>347.4</v>
+        <v>2.978</v>
       </c>
       <c r="T65" s="6">
-        <v>483.4</v>
+        <v>2.921</v>
       </c>
       <c r="U65" s="6">
-        <v>571.8</v>
+        <v>2.975</v>
       </c>
       <c r="V65" s="6">
-        <v>745.6</v>
+        <v>2.838</v>
       </c>
       <c r="W65" s="6">
-        <v>703.5</v>
-      </c>
-      <c r="AC65" s="4" t="inlineStr">
-        <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
-        </is>
+        <v>2.815</v>
+      </c>
+      <c r="X65" s="6">
+        <v>2.756</v>
+      </c>
+      <c r="Y65" s="6">
+        <v>2.75</v>
       </c>
       <c r="AD65" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AE65" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>J</t>
         </is>
       </c>
       <c r="AF65" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH65" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG65" s="4" t="inlineStr">
+        <is>
+          <t>2,8</t>
         </is>
       </c>
       <c r="AI65" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ65" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6232,490 +6415,541 @@
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="B66" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C66" s="6">
-        <v>7691.754</v>
-      </c>
-      <c r="D66" s="6">
-        <v>7811.684</v>
-      </c>
-      <c r="E66" s="6">
-        <v>7977.821</v>
-      </c>
-      <c r="F66" s="6">
-        <v>8055.254</v>
+      <c r="C66" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="G66" s="6">
-        <v>8137.919</v>
+        <v>32.258</v>
       </c>
       <c r="H66" s="6">
-        <v>7851.874</v>
+        <v>22.581</v>
       </c>
       <c r="I66" s="6">
-        <v>7757.168</v>
+        <v>19.355</v>
       </c>
       <c r="J66" s="6">
-        <v>7751.507</v>
+        <v>16.129</v>
       </c>
       <c r="K66" s="6">
-        <v>7556.892</v>
+        <v>22.581</v>
       </c>
       <c r="L66" s="6">
-        <v>7509.802</v>
+        <v>32.258</v>
       </c>
       <c r="M66" s="6">
-        <v>7384.652</v>
+        <v>32.258</v>
       </c>
       <c r="N66" s="6">
-        <v>7467.62</v>
+        <v>38.71</v>
       </c>
       <c r="O66" s="6">
-        <v>7465.7</v>
+        <v>38.71</v>
       </c>
       <c r="P66" s="6">
-        <v>7403.6</v>
+        <v>41.935</v>
       </c>
       <c r="Q66" s="6">
-        <v>7530.3</v>
+        <v>41.935</v>
       </c>
       <c r="R66" s="6">
-        <v>7796.6</v>
+        <v>35.484</v>
       </c>
       <c r="S66" s="6">
-        <v>7754.759</v>
+        <v>41.935</v>
       </c>
       <c r="T66" s="6">
-        <v>6982.4</v>
+        <v>45.161</v>
       </c>
       <c r="U66" s="6">
-        <v>6710.185</v>
+        <v>46.875</v>
       </c>
       <c r="V66" s="6">
-        <v>6548.365</v>
+        <v>50</v>
       </c>
       <c r="W66" s="6">
-        <v>6385.513</v>
+        <v>43.75</v>
       </c>
       <c r="X66" s="6">
-        <v>6070.42</v>
+        <v>53.125</v>
       </c>
       <c r="Y66" s="6">
-        <v>6762.108</v>
-      </c>
-      <c r="AC66" s="4" t="inlineStr">
-        <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
-        </is>
+        <v>65.625</v>
       </c>
       <c r="AD66" s="4" t="inlineStr">
         <is>
+          <t>Z14_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="AE66" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE66" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
       <c r="AF66" s="4" t="inlineStr">
         <is>
-          <t>6500</t>
-        </is>
-      </c>
-      <c r="AG66" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH66" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG66" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AH66" s="7">
+        <v>2020</v>
       </c>
       <c r="AI66" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ66" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="B67" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C67" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6">
+        <v>71.864</v>
+      </c>
+      <c r="E67" s="6">
+        <v>71.115</v>
+      </c>
+      <c r="F67" s="6">
+        <v>69.744</v>
+      </c>
+      <c r="G67" s="6">
+        <v>69.809</v>
+      </c>
+      <c r="H67" s="6">
+        <v>72.457</v>
+      </c>
       <c r="I67" s="6">
-        <v>8</v>
+        <v>70.991</v>
       </c>
       <c r="J67" s="6">
-        <v>6</v>
+        <v>70.212</v>
       </c>
       <c r="K67" s="6">
-        <v>8</v>
+        <v>70.06</v>
       </c>
       <c r="L67" s="6">
-        <v>2</v>
+        <v>70.34</v>
       </c>
       <c r="M67" s="6">
-        <v>3</v>
+        <v>67.219</v>
       </c>
       <c r="N67" s="6">
-        <v>11</v>
+        <v>67.973</v>
       </c>
       <c r="O67" s="6">
-        <v>15</v>
+        <v>66.195</v>
       </c>
       <c r="P67" s="6">
-        <v>14</v>
+        <v>70.411</v>
       </c>
       <c r="Q67" s="6">
-        <v>15</v>
+        <v>67.814</v>
       </c>
       <c r="R67" s="6">
-        <v>26</v>
+        <v>67.006</v>
       </c>
       <c r="S67" s="6">
-        <v>26</v>
+        <v>69.773</v>
       </c>
       <c r="T67" s="6">
-        <v>19</v>
-      </c>
-      <c r="U67" s="6">
-        <v>36</v>
-      </c>
-      <c r="V67" s="6">
-        <v>31</v>
-      </c>
-      <c r="W67" s="6">
-        <v>38</v>
-      </c>
-      <c r="X67" s="6">
-        <v>38</v>
-      </c>
-      <c r="AC67" s="4" t="inlineStr">
-        <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
-        </is>
+        <v>70.502</v>
       </c>
       <c r="AD67" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE67" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF67" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF67" s="4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AH67" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
+      <c r="AG67" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AH67" s="7">
+        <v>2030</v>
       </c>
       <c r="AI67" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>Ganz alt</t>
+        </is>
+      </c>
+      <c r="AJ67" s="4" t="inlineStr">
+        <is>
+          <t>Ganz alt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>16.3.a</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="B68" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="O68" s="6">
-        <v>79</v>
-      </c>
-      <c r="P68" s="6">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="6">
-        <v>79</v>
-      </c>
-      <c r="R68" s="6">
-        <v>81</v>
+      <c r="C68" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
+        <v>84.377</v>
+      </c>
+      <c r="I68" s="6">
+        <v>79.447</v>
+      </c>
+      <c r="N68" s="6">
+        <v>75.752</v>
       </c>
       <c r="S68" s="6">
-        <v>81</v>
+        <v>68.677</v>
       </c>
       <c r="T68" s="6">
-        <v>81</v>
+        <v>71.592</v>
       </c>
       <c r="U68" s="6">
-        <v>80</v>
+        <v>71.334</v>
       </c>
       <c r="V68" s="6">
-        <v>80</v>
+        <v>68.811</v>
       </c>
       <c r="W68" s="6">
-        <v>80</v>
-      </c>
-      <c r="X68" s="6">
-        <v>80</v>
-      </c>
-      <c r="Y68" s="6">
-        <v>79</v>
-      </c>
-      <c r="AC68" s="4" t="inlineStr">
-        <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
-        </is>
+        <v>68.513</v>
       </c>
       <c r="AD68" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE68" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AF68" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH68" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG68" s="4" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AH68" s="7">
+        <v>2030</v>
       </c>
       <c r="AI68" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ68" s="4" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>16.3.b</t>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="B69" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C69" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="6">
+        <v>3</v>
+      </c>
+      <c r="N69" s="6">
+        <v>20</v>
+      </c>
+      <c r="O69" s="6">
+        <v>12</v>
+      </c>
       <c r="P69" s="6">
-        <v>16</v>
+        <v>24.9</v>
       </c>
       <c r="Q69" s="6">
-        <v>30</v>
+        <v>36.3</v>
       </c>
       <c r="R69" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S69" s="6">
-        <v>32</v>
+        <v>15.7</v>
       </c>
       <c r="T69" s="6">
-        <v>33</v>
+        <v>59.8</v>
       </c>
       <c r="U69" s="6">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="V69" s="6">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="W69" s="6">
-        <v>37</v>
+        <v>63.5</v>
       </c>
       <c r="X69" s="6">
-        <v>37</v>
-      </c>
-      <c r="Y69" s="6">
-        <v>31</v>
-      </c>
-      <c r="AC69" s="4" t="inlineStr">
-        <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
-        </is>
+        <v>24.2</v>
       </c>
       <c r="AD69" s="4" t="inlineStr">
         <is>
+          <t>Z15_B02_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE69" s="4" t="inlineStr">
+        <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AE69" s="4" t="inlineStr">
+      <c r="AF69" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF69" s="4" t="inlineStr">
+      <c r="AG69" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH69" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="AI69" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AJ69" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="B70" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C70" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" s="6">
+        <v>40</v>
+      </c>
+      <c r="N70" s="6">
+        <v>152.5</v>
+      </c>
+      <c r="O70" s="6">
+        <v>198.6</v>
+      </c>
+      <c r="P70" s="6">
+        <v>245.3</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>248.7</v>
+      </c>
+      <c r="R70" s="6">
+        <v>239.7</v>
+      </c>
+      <c r="S70" s="6">
+        <v>271.9</v>
+      </c>
+      <c r="T70" s="6">
+        <v>347.4</v>
+      </c>
       <c r="U70" s="6">
-        <v>0.61</v>
+        <v>483.4</v>
       </c>
       <c r="V70" s="6">
-        <v>0.612</v>
+        <v>571.8</v>
       </c>
       <c r="W70" s="6">
-        <v>0.734</v>
+        <v>745.6</v>
       </c>
       <c r="X70" s="6">
-        <v>0.765</v>
-      </c>
-      <c r="Y70" s="6">
-        <v>0.833</v>
-      </c>
-      <c r="AC70" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
-        </is>
+        <v>703.5</v>
       </c>
       <c r="AD70" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="AE70" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AF70" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF70" s="4" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="AG70" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AH70" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
+      <c r="AG70" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AI70" s="4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AJ70" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="B71" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="C71" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
+        <v>7691.754</v>
+      </c>
+      <c r="E71" s="6">
+        <v>7811.684</v>
+      </c>
+      <c r="F71" s="6">
+        <v>7977.821</v>
+      </c>
+      <c r="G71" s="6">
+        <v>8055.254</v>
+      </c>
       <c r="H71" s="6">
-        <v>140519</v>
+        <v>8137.919</v>
       </c>
       <c r="I71" s="6">
-        <v>141289</v>
+        <v>7851.874</v>
       </c>
       <c r="J71" s="6">
-        <v>136087</v>
+        <v>7757.168</v>
       </c>
       <c r="K71" s="6">
-        <v>140832</v>
+        <v>7751.507</v>
       </c>
       <c r="L71" s="6">
-        <v>147152</v>
+        <v>7556.892</v>
       </c>
       <c r="M71" s="6">
-        <v>153690</v>
+        <v>7509.802</v>
       </c>
       <c r="N71" s="6">
-        <v>158557</v>
+        <v>7384.652</v>
       </c>
       <c r="O71" s="6">
-        <v>170618</v>
+        <v>7467.62</v>
       </c>
       <c r="P71" s="6">
-        <v>185787</v>
+        <v>7465.7</v>
       </c>
       <c r="Q71" s="6">
-        <v>200349</v>
+        <v>7403.6</v>
       </c>
       <c r="R71" s="6">
-        <v>215258</v>
+        <v>7530.3</v>
       </c>
       <c r="S71" s="6">
-        <v>230689</v>
+        <v>7796.6</v>
       </c>
       <c r="T71" s="6">
-        <v>247436</v>
+        <v>7754.759</v>
       </c>
       <c r="U71" s="6">
-        <v>267250</v>
+        <v>6982.4</v>
       </c>
       <c r="V71" s="6">
-        <v>285450</v>
+        <v>6710.185</v>
       </c>
       <c r="W71" s="6">
-        <v>298149</v>
+        <v>6548.365</v>
       </c>
       <c r="X71" s="6">
-        <v>316001</v>
-      </c>
-      <c r="AC71" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
-        </is>
+        <v>6385.513</v>
+      </c>
+      <c r="Y71" s="6">
+        <v>6070.42</v>
+      </c>
+      <c r="Z71" s="6">
+        <v>6762.108</v>
       </c>
       <c r="AD71" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AE71" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AF71" s="4" t="inlineStr">
         <is>
-          <t>237000</t>
-        </is>
-      </c>
-      <c r="AH71" s="4" t="inlineStr">
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="AG71" s="4" t="inlineStr">
+        <is>
+          <t>6500</t>
+        </is>
+      </c>
+      <c r="AH71" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AI71" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AI71" s="4" t="inlineStr">
+      <c r="AJ71" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -6724,104 +6958,502 @@
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>8</v>
+      </c>
+      <c r="K72" s="6">
+        <v>6</v>
+      </c>
+      <c r="L72" s="6">
+        <v>8</v>
+      </c>
+      <c r="M72" s="6">
+        <v>2</v>
+      </c>
+      <c r="N72" s="6">
+        <v>3</v>
+      </c>
+      <c r="O72" s="6">
+        <v>11</v>
+      </c>
+      <c r="P72" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>14</v>
+      </c>
+      <c r="R72" s="6">
+        <v>15</v>
+      </c>
+      <c r="S72" s="6">
+        <v>26</v>
+      </c>
+      <c r="T72" s="6">
+        <v>26</v>
+      </c>
+      <c r="U72" s="6">
+        <v>19</v>
+      </c>
+      <c r="V72" s="6">
+        <v>36</v>
+      </c>
+      <c r="W72" s="6">
+        <v>31</v>
+      </c>
+      <c r="X72" s="6">
+        <v>38</v>
+      </c>
+      <c r="Y72" s="6">
+        <v>38</v>
+      </c>
+      <c r="AD72" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE72" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AF72" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG72" s="4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AI72" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ72" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>16.3.a</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P73" s="6">
+        <v>79</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>78</v>
+      </c>
+      <c r="R73" s="6">
+        <v>79</v>
+      </c>
+      <c r="S73" s="6">
+        <v>81</v>
+      </c>
+      <c r="T73" s="6">
+        <v>81</v>
+      </c>
+      <c r="U73" s="6">
+        <v>81</v>
+      </c>
+      <c r="V73" s="6">
+        <v>80</v>
+      </c>
+      <c r="W73" s="6">
+        <v>80</v>
+      </c>
+      <c r="X73" s="6">
+        <v>80</v>
+      </c>
+      <c r="Y73" s="6">
+        <v>80</v>
+      </c>
+      <c r="Z73" s="6">
+        <v>79</v>
+      </c>
+      <c r="AD73" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE73" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AF73" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI73" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AJ73" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>16.3.b</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>16</v>
+      </c>
+      <c r="R74" s="6">
+        <v>30</v>
+      </c>
+      <c r="S74" s="6">
+        <v>30</v>
+      </c>
+      <c r="T74" s="6">
+        <v>32</v>
+      </c>
+      <c r="U74" s="6">
+        <v>33</v>
+      </c>
+      <c r="V74" s="6">
+        <v>32</v>
+      </c>
+      <c r="W74" s="6">
+        <v>35</v>
+      </c>
+      <c r="X74" s="6">
+        <v>37</v>
+      </c>
+      <c r="Y74" s="6">
+        <v>37</v>
+      </c>
+      <c r="Z74" s="6">
+        <v>31</v>
+      </c>
+      <c r="AD74" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="AE74" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AF74" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI74" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ74" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V75" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="W75" s="6">
+        <v>0.612</v>
+      </c>
+      <c r="X75" s="6">
+        <v>0.734</v>
+      </c>
+      <c r="Y75" s="6">
+        <v>0.765</v>
+      </c>
+      <c r="Z75" s="6">
+        <v>0.833</v>
+      </c>
+      <c r="AD75" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE75" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AF75" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG75" s="4" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="AH75" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AI75" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ75" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <v>140519</v>
+      </c>
+      <c r="J76" s="6">
+        <v>141289</v>
+      </c>
+      <c r="K76" s="6">
+        <v>136087</v>
+      </c>
+      <c r="L76" s="6">
+        <v>140832</v>
+      </c>
+      <c r="M76" s="6">
+        <v>147152</v>
+      </c>
+      <c r="N76" s="6">
+        <v>153690</v>
+      </c>
+      <c r="O76" s="6">
+        <v>158557</v>
+      </c>
+      <c r="P76" s="6">
+        <v>170618</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>185787</v>
+      </c>
+      <c r="R76" s="6">
+        <v>200349</v>
+      </c>
+      <c r="S76" s="6">
+        <v>215258</v>
+      </c>
+      <c r="T76" s="6">
+        <v>230689</v>
+      </c>
+      <c r="U76" s="6">
+        <v>247436</v>
+      </c>
+      <c r="V76" s="6">
+        <v>267250</v>
+      </c>
+      <c r="W76" s="6">
+        <v>285450</v>
+      </c>
+      <c r="X76" s="6">
+        <v>298149</v>
+      </c>
+      <c r="Y76" s="6">
+        <v>316001</v>
+      </c>
+      <c r="AD76" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AE76" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AF76" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="AG76" s="4" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="AI76" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ76" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
           <t>17.3</t>
         </is>
       </c>
-      <c r="B72" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" s="6">
+      <c r="B77" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
         <v>0.44</v>
       </c>
-      <c r="F72" s="6">
+      <c r="G77" s="6">
         <v>0.52</v>
       </c>
-      <c r="G72" s="6">
+      <c r="H77" s="6">
         <v>0.52</v>
       </c>
-      <c r="H72" s="6">
+      <c r="I77" s="6">
         <v>0.44</v>
       </c>
-      <c r="I72" s="6">
+      <c r="J77" s="6">
         <v>0.49</v>
       </c>
-      <c r="J72" s="6">
+      <c r="K77" s="6">
         <v>0.52</v>
       </c>
-      <c r="K72" s="6">
+      <c r="L77" s="6">
         <v>0.46</v>
       </c>
-      <c r="L72" s="6">
+      <c r="M77" s="6">
         <v>0.58</v>
       </c>
-      <c r="M72" s="6">
+      <c r="N77" s="6">
         <v>0.53</v>
       </c>
-      <c r="N72" s="6">
+      <c r="O77" s="6">
         <v>0.67</v>
       </c>
-      <c r="O72" s="6">
+      <c r="P77" s="6">
         <v>0.62</v>
       </c>
-      <c r="P72" s="6">
+      <c r="Q77" s="6">
         <v>0.71</v>
       </c>
-      <c r="Q72" s="6">
+      <c r="R77" s="6">
         <v>0.71</v>
       </c>
-      <c r="R72" s="6">
+      <c r="S77" s="6">
         <v>0.81</v>
       </c>
-      <c r="S72" s="6">
+      <c r="T77" s="6">
         <v>0.88</v>
       </c>
-      <c r="T72" s="6">
+      <c r="U77" s="6">
         <v>0.94</v>
       </c>
-      <c r="U72" s="6">
+      <c r="V77" s="6">
         <v>0.94</v>
       </c>
-      <c r="V72" s="6">
+      <c r="W77" s="6">
         <v>0.94</v>
       </c>
-      <c r="W72" s="6">
+      <c r="X77" s="6">
         <v>0.98</v>
       </c>
-      <c r="X72" s="6">
+      <c r="Y77" s="6">
         <v>1.03</v>
       </c>
-      <c r="Y72" s="6">
+      <c r="Z77" s="6">
         <v>1.15</v>
       </c>
-      <c r="AC72" s="4" t="inlineStr">
+      <c r="AD77" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AD72" s="4" t="inlineStr">
+      <c r="AE77" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AE72" s="4" t="inlineStr">
+      <c r="AF77" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AF72" s="4" t="inlineStr">
+      <c r="AG77" s="4" t="inlineStr">
         <is>
           <t>1,43</t>
         </is>
       </c>
-      <c r="AG72" s="7">
+      <c r="AH77" s="7">
         <v>2030</v>
       </c>
-      <c r="AH72" s="4" t="inlineStr">
+      <c r="AI77" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AI72" s="4" t="inlineStr">
+      <c r="AJ77" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>

--- a/Wetterbericht.xlsx
+++ b/Wetterbericht.xlsx
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ77"/>
+  <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -530,10 +530,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="12.15625"/>
-    <col customWidth="true" min="2" max="2" width="23.14453125"/>
-    <col customWidth="true" min="3" max="3" width="13.8359375"/>
-    <col customWidth="true" min="4" max="4" width="9.375"/>
+    <col customWidth="true" min="1" max="1" width="30.76171875"/>
+    <col customWidth="true" min="2" max="2" width="12.15625"/>
+    <col customWidth="true" min="3" max="3" width="23.14453125"/>
+    <col customWidth="true" min="4" max="4" width="29.58984375"/>
     <col customWidth="true" min="5" max="5" width="9.375"/>
     <col customWidth="true" min="6" max="6" width="9.375"/>
     <col customWidth="true" min="7" max="7" width="9.375"/>
@@ -559,192 +559,204 @@
     <col customWidth="true" min="27" max="27" width="9.375"/>
     <col customWidth="true" min="28" max="28" width="9.375"/>
     <col customWidth="true" min="29" max="29" width="9.375"/>
-    <col customWidth="true" min="30" max="30" width="15.0859375"/>
-    <col customWidth="true" min="31" max="31" width="8.7890625"/>
-    <col customWidth="true" min="32" max="32" width="13.8359375"/>
-    <col customWidth="true" min="33" max="33" width="10.69140625"/>
+    <col customWidth="true" min="30" max="30" width="9.375"/>
+    <col customWidth="true" min="31" max="31" width="15.0859375"/>
+    <col customWidth="true" min="32" max="32" width="30.76171875"/>
+    <col customWidth="true" min="33" max="33" width="8.7890625"/>
     <col customWidth="true" min="34" max="34" width="13.8359375"/>
-    <col customWidth="true" min="35" max="35" width="13.8359375"/>
-    <col customWidth="true" min="36" max="36" width="29.734375"/>
+    <col customWidth="true" min="35" max="35" width="10.69140625"/>
+    <col customWidth="true" min="36" max="36" width="13.8359375"/>
+    <col customWidth="true" min="37" max="37" width="13.8359375"/>
+    <col customWidth="true" min="38" max="38" width="29.734375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Wetterbericht_Daten.DNr</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>Indikator</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>WetterZeitreihe?</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>WetterVergleichswerte?</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>2001</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>2002</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>2003</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
       </c>
-      <c r="AD1" s="2" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>INr</t>
         </is>
       </c>
-      <c r="AE1" s="2" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Feld0</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>Zieltyp</t>
         </is>
       </c>
-      <c r="AF1" s="2" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>Zielrichtung</t>
         </is>
       </c>
-      <c r="AG1" s="2" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t>Zielwert</t>
         </is>
       </c>
-      <c r="AH1" s="2" t="inlineStr">
+      <c r="AJ1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr</t>
         </is>
       </c>
-      <c r="AI1" s="2" t="inlineStr">
+      <c r="AK1" s="2" t="inlineStr">
         <is>
           <t>WetterAktuell</t>
         </is>
       </c>
-      <c r="AJ1" s="2" t="inlineStr">
+      <c r="AL1" s="2" t="inlineStr">
         <is>
           <t>WetterBerichtsjahr</t>
         </is>
@@ -753,74 +765,84 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
+          <t>Z01_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
           <t>1.1.a</t>
         </is>
-      </c>
-      <c r="B2" s="5" t="b">
-        <v>1</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N2" s="6">
-        <v>11.1</v>
+      <c r="D2" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="O2" s="6">
-        <v>12.4</v>
+        <v>17.8</v>
       </c>
       <c r="P2" s="6">
-        <v>11.3</v>
+        <v>18.5</v>
       </c>
       <c r="Q2" s="6">
-        <v>11.6</v>
+        <v>19.8</v>
       </c>
       <c r="R2" s="6">
-        <v>11.3</v>
+        <v>19.5</v>
       </c>
       <c r="S2" s="6">
-        <v>10.7</v>
+        <v>18.5</v>
       </c>
       <c r="T2" s="6">
-        <v>9.7</v>
+        <v>17</v>
       </c>
       <c r="U2" s="6">
-        <v>9.1</v>
+        <v>15.7</v>
       </c>
       <c r="V2" s="6">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="W2" s="6">
-        <v>6.8</v>
+        <v>13.1</v>
       </c>
       <c r="X2" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="AD2" s="4" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="AE2" s="4" t="inlineStr">
         <is>
           <t>Z01_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE2" s="4" t="inlineStr">
+      <c r="AF2" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG2" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF2" s="4" t="inlineStr">
+      <c r="AH2" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG2" s="4" t="inlineStr">
+      <c r="AI2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI2" s="4" t="inlineStr">
+      <c r="AK2" s="4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="AJ2" s="4" t="inlineStr">
+      <c r="AL2" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -829,74 +851,84 @@
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
+          <t>Z01_B01_P01_Ib01_I01_D004</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
           <t>1.1.a</t>
         </is>
-      </c>
-      <c r="B3" s="5" t="b">
-        <v>0</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="6">
-        <v>17.8</v>
+      <c r="D3" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="O3" s="6">
-        <v>18.5</v>
+        <v>11.1</v>
       </c>
       <c r="P3" s="6">
-        <v>19.8</v>
+        <v>12.4</v>
       </c>
       <c r="Q3" s="6">
-        <v>19.5</v>
+        <v>11.3</v>
       </c>
       <c r="R3" s="6">
-        <v>18.5</v>
+        <v>11.6</v>
       </c>
       <c r="S3" s="6">
-        <v>17</v>
+        <v>11.3</v>
       </c>
       <c r="T3" s="6">
-        <v>15.7</v>
+        <v>10.7</v>
       </c>
       <c r="U3" s="6">
-        <v>14.5</v>
+        <v>9.7</v>
       </c>
       <c r="V3" s="6">
-        <v>13.1</v>
+        <v>9.1</v>
       </c>
       <c r="W3" s="6">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="X3" s="6">
-        <v>13.3</v>
-      </c>
-      <c r="AD3" s="4" t="inlineStr">
+        <v>6.8</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>Z01_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE3" s="4" t="inlineStr">
+      <c r="AF3" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_D004</t>
+        </is>
+      </c>
+      <c r="AG3" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF3" s="4" t="inlineStr">
+      <c r="AH3" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG3" s="4" t="inlineStr">
+      <c r="AI3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI3" s="4" t="inlineStr">
+      <c r="AK3" s="4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="AJ3" s="4" t="inlineStr">
+      <c r="AL3" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -905,74 +937,84 @@
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
+          <t>Z01_B01_P01_Ib01_I02_D007</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
           <t>1.1.b</t>
         </is>
-      </c>
-      <c r="B4" s="5" t="b">
-        <v>1</v>
       </c>
       <c r="C4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>4.5</v>
+      <c r="D4" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="O4" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="P4" s="6">
+        <v>8.8</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="R4" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="S4" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="T4" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="V4" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="W4" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="X4" s="6">
         <v>5.3</v>
       </c>
-      <c r="P4" s="6">
-        <v>4.9</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="R4" s="6">
-        <v>5</v>
-      </c>
-      <c r="S4" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="T4" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="U4" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="V4" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="W4" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="X4" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="AD4" s="4" t="inlineStr">
+      <c r="Y4" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="AE4" s="4" t="inlineStr">
         <is>
           <t>Z01_B01_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE4" s="4" t="inlineStr">
+      <c r="AF4" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_D007</t>
+        </is>
+      </c>
+      <c r="AG4" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF4" s="4" t="inlineStr">
+      <c r="AH4" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG4" s="4" t="inlineStr">
+      <c r="AI4" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI4" s="4" t="inlineStr">
+      <c r="AK4" s="4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="AJ4" s="4" t="inlineStr">
+      <c r="AL4" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -981,74 +1023,84 @@
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
+          <t>Z01_B01_P01_Ib01_I02_D010</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
           <t>1.1.b</t>
         </is>
-      </c>
-      <c r="B5" s="5" t="b">
-        <v>0</v>
       </c>
       <c r="C5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="6">
-        <v>8.4</v>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="O5" s="6">
-        <v>8.8</v>
+        <v>4.5</v>
       </c>
       <c r="P5" s="6">
-        <v>9.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q5" s="6">
-        <v>9.6</v>
+        <v>4.9</v>
       </c>
       <c r="R5" s="6">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="S5" s="6">
-        <v>8.1</v>
+        <v>5</v>
       </c>
       <c r="T5" s="6">
-        <v>7.5</v>
+        <v>4.4</v>
       </c>
       <c r="U5" s="6">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="V5" s="6">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="W5" s="6">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
       <c r="X5" s="6">
-        <v>5.9</v>
-      </c>
-      <c r="AD5" s="4" t="inlineStr">
+        <v>2.6</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="AE5" s="4" t="inlineStr">
         <is>
           <t>Z01_B01_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE5" s="4" t="inlineStr">
+      <c r="AF5" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_D010</t>
+        </is>
+      </c>
+      <c r="AG5" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF5" s="4" t="inlineStr">
+      <c r="AH5" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG5" s="4" t="inlineStr">
+      <c r="AI5" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI5" s="4" t="inlineStr">
+      <c r="AK5" s="4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="AJ5" s="4" t="inlineStr">
+      <c r="AL5" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1057,101 +1109,111 @@
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
+          <t>Z02_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
           <t>2.1.a</t>
         </is>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="C6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="D6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>108.3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>107.8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>105.1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>102.5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>103.3</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>102.2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>101.8</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>99.1</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>96.6</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>96.8</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>94.9</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>93</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>93.2</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>95.6</v>
       </c>
-      <c r="R6" s="6">
+      <c r="S6" s="6">
         <v>94</v>
       </c>
-      <c r="S6" s="6">
+      <c r="T6" s="6">
         <v>93.8</v>
       </c>
-      <c r="T6" s="6">
+      <c r="U6" s="6">
         <v>92.7</v>
       </c>
-      <c r="U6" s="6">
+      <c r="V6" s="6">
         <v>91.5</v>
       </c>
-      <c r="V6" s="6">
+      <c r="W6" s="6">
         <v>87</v>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AE6" s="4" t="inlineStr">
         <is>
           <t>Z02_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AF6" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG6" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AH6" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG6" s="4" t="inlineStr">
+      <c r="AI6" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AH6" s="7">
+      <c r="AJ6" s="7">
         <v>2030</v>
       </c>
-      <c r="AI6" s="4" t="inlineStr">
+      <c r="AK6" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ6" s="4" t="inlineStr">
+      <c r="AL6" s="4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -1160,89 +1222,99 @@
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
+          <t>Z02_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
           <t>2.1.b</t>
         </is>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="C7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="b">
+      <c r="D7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>3.573</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>4.299</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>4.593</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>5.079</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>5.636</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>5.76</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>6.04</v>
       </c>
-      <c r="R7" s="6">
+      <c r="S7" s="6">
         <v>6.18</v>
       </c>
-      <c r="S7" s="6">
+      <c r="T7" s="6">
         <v>6.34</v>
-      </c>
-      <c r="T7" s="6">
-        <v>6.82</v>
       </c>
       <c r="U7" s="6">
         <v>6.82</v>
       </c>
       <c r="V7" s="6">
+        <v>6.82</v>
+      </c>
+      <c r="W7" s="6">
         <v>7.34</v>
       </c>
-      <c r="W7" s="6">
+      <c r="X7" s="6">
         <v>7.75</v>
       </c>
-      <c r="X7" s="6">
+      <c r="Y7" s="6">
         <v>9.59</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Z7" s="6">
         <v>9.687</v>
       </c>
-      <c r="AD7" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Z02_B01_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE7" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG7" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF7" s="4" t="inlineStr">
+      <c r="AH7" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG7" s="4" t="inlineStr">
+      <c r="AI7" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH7" s="7">
+      <c r="AJ7" s="7">
         <v>2030</v>
       </c>
-      <c r="AI7" s="4" t="inlineStr">
+      <c r="AK7" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ7" s="4" t="inlineStr">
+      <c r="AL7" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -1251,47 +1323,57 @@
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
+          <t>Z02_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="C8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="D8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="T8" s="6">
+      <c r="U8" s="6">
         <v>16.71</v>
       </c>
-      <c r="V8" s="6">
+      <c r="W8" s="6">
         <v>18.32</v>
       </c>
-      <c r="AD8" s="4" t="inlineStr">
+      <c r="AE8" s="4" t="inlineStr">
         <is>
           <t>Z02_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE8" s="4" t="inlineStr">
+      <c r="AF8" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG8" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF8" s="4" t="inlineStr">
+      <c r="AH8" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG8" s="4" t="inlineStr">
+      <c r="AI8" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI8" s="4" t="inlineStr">
+      <c r="AK8" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
       </c>
-      <c r="AJ8" s="4" t="inlineStr">
+      <c r="AL8" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
@@ -1300,110 +1382,120 @@
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
+          <t>Z03_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
           <t>3.1.a</t>
         </is>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="C9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="b">
+      <c r="D9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>184.3</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>179</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>177</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>173.2</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>166.4</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>164.7</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>159.2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>157.9</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>158.8</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="6">
         <v>157.4</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <v>155.4</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <v>157.1</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <v>152.9</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <v>155.8</v>
       </c>
-      <c r="R9" s="6">
+      <c r="S9" s="6">
         <v>149.1</v>
       </c>
-      <c r="S9" s="6">
+      <c r="T9" s="6">
         <v>153</v>
       </c>
-      <c r="T9" s="6">
+      <c r="U9" s="6">
         <v>151.6</v>
       </c>
-      <c r="U9" s="6">
+      <c r="V9" s="6">
         <v>148.7</v>
       </c>
-      <c r="V9" s="6">
+      <c r="W9" s="6">
         <v>151.1</v>
       </c>
-      <c r="W9" s="6">
+      <c r="X9" s="6">
         <v>145.9</v>
       </c>
-      <c r="X9" s="6">
+      <c r="Y9" s="6">
         <v>145.4</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Z9" s="6">
         <v>151.8</v>
       </c>
-      <c r="AD9" s="4" t="inlineStr">
+      <c r="AE9" s="4" t="inlineStr">
         <is>
           <t>Z03_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE9" s="4" t="inlineStr">
+      <c r="AF9" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG9" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF9" s="4" t="inlineStr">
+      <c r="AH9" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG9" s="4" t="inlineStr">
+      <c r="AI9" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="AH9" s="7">
+      <c r="AJ9" s="7">
         <v>2030</v>
       </c>
-      <c r="AI9" s="4" t="inlineStr">
+      <c r="AK9" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ9" s="4" t="inlineStr">
+      <c r="AL9" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1412,110 +1504,120 @@
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
+          <t>Z03_B01_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
           <t>3.1.b</t>
         </is>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="C10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="D10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <v>381.8</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>366.5</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>360</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>355.5</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>337.3</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>329.4</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>318.4</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>312.9</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <v>307.8</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <v>304.8</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <v>300.6</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>298.7</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>292.3</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>291.9</v>
       </c>
-      <c r="R10" s="6">
+      <c r="S10" s="6">
         <v>281.2</v>
       </c>
-      <c r="S10" s="6">
+      <c r="T10" s="6">
         <v>288.1</v>
       </c>
-      <c r="T10" s="6">
+      <c r="U10" s="6">
         <v>283.8</v>
       </c>
-      <c r="U10" s="6">
+      <c r="V10" s="6">
         <v>276</v>
       </c>
-      <c r="V10" s="6">
+      <c r="W10" s="6">
         <v>279.3</v>
       </c>
-      <c r="W10" s="6">
+      <c r="X10" s="6">
         <v>271</v>
       </c>
-      <c r="X10" s="6">
+      <c r="Y10" s="6">
         <v>276.3</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Z10" s="6">
         <v>289.9</v>
       </c>
-      <c r="AD10" s="4" t="inlineStr">
+      <c r="AE10" s="4" t="inlineStr">
         <is>
           <t>Z03_B01_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE10" s="4" t="inlineStr">
+      <c r="AF10" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG10" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF10" s="4" t="inlineStr">
+      <c r="AH10" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG10" s="4" t="inlineStr">
+      <c r="AI10" s="4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="AH10" s="7">
+      <c r="AJ10" s="7">
         <v>2030</v>
       </c>
-      <c r="AI10" s="4" t="inlineStr">
+      <c r="AK10" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ10" s="4" t="inlineStr">
+      <c r="AL10" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1524,89 +1626,99 @@
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
+          <t>Z03_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
           <t>3.1.c</t>
         </is>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="C11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="D11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>27.5</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>22.5</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>23.5</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>20</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>17.7</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>15.4</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>12.9</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>11.7</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <v>12</v>
       </c>
-      <c r="R11" s="6">
+      <c r="S11" s="6">
         <v>9.7</v>
       </c>
-      <c r="S11" s="6">
+      <c r="T11" s="6">
         <v>9.6</v>
       </c>
-      <c r="T11" s="6">
+      <c r="U11" s="6">
         <v>8.3</v>
       </c>
-      <c r="V11" s="6">
+      <c r="W11" s="6">
         <v>8.7</v>
       </c>
-      <c r="W11" s="6">
+      <c r="X11" s="6">
         <v>7.2</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Z11" s="6">
         <v>6.1</v>
       </c>
-      <c r="AD11" s="4" t="inlineStr">
+      <c r="AE11" s="4" t="inlineStr">
         <is>
           <t>Z03_B01_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE11" s="4" t="inlineStr">
+      <c r="AF11" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG11" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF11" s="4" t="inlineStr">
+      <c r="AH11" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG11" s="4" t="inlineStr">
+      <c r="AI11" s="4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AH11" s="7">
+      <c r="AJ11" s="7">
         <v>2030</v>
       </c>
-      <c r="AI11" s="4" t="inlineStr">
+      <c r="AK11" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ11" s="4" t="inlineStr">
+      <c r="AL11" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -1615,62 +1727,72 @@
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
+          <t>Z03_B01_P01_Ib02_I02_D001</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
           <t>3.1.d</t>
         </is>
       </c>
-      <c r="B12" s="5" t="b">
+      <c r="C12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="b">
+      <c r="D12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <v>27.4</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>27.2</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <v>25.7</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="R12" s="6">
         <v>24.5</v>
       </c>
-      <c r="U12" s="6">
+      <c r="V12" s="6">
         <v>22.4</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Z12" s="6">
         <v>18.9</v>
       </c>
-      <c r="AD12" s="4" t="inlineStr">
+      <c r="AE12" s="4" t="inlineStr">
         <is>
           <t>Z03_B01_P01_Ib02_I02</t>
         </is>
       </c>
-      <c r="AE12" s="4" t="inlineStr">
+      <c r="AF12" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib02_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG12" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF12" s="4" t="inlineStr">
+      <c r="AH12" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG12" s="4" t="inlineStr">
+      <c r="AI12" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="AH12" s="7">
+      <c r="AJ12" s="7">
         <v>2030</v>
       </c>
-      <c r="AI12" s="4" t="inlineStr">
+      <c r="AK12" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ12" s="4" t="inlineStr">
+      <c r="AL12" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -1679,41 +1801,51 @@
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
+          <t>Z03_B01_P01_Ib03_I01_D001</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
           <t>3.1.e</t>
         </is>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="C13" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="b">
+      <c r="D13" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="AD13" s="4" t="inlineStr">
+      <c r="AE13" s="4" t="inlineStr">
         <is>
           <t>Z03_B01_P01_Ib03_I01</t>
         </is>
       </c>
-      <c r="AE13" s="4" t="inlineStr">
+      <c r="AF13" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib03_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG13" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF13" s="4" t="inlineStr">
+      <c r="AH13" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG13" s="4" t="inlineStr">
+      <c r="AI13" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI13" s="4" t="inlineStr">
+      <c r="AK13" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
       </c>
-      <c r="AJ13" s="4" t="inlineStr">
+      <c r="AL13" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
@@ -1722,59 +1854,69 @@
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
+          <t>Z03_B01_P01_Ib04_I01_D001</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
           <t>3.1.f</t>
         </is>
       </c>
-      <c r="B14" s="5" t="b">
+      <c r="C14" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="b">
+      <c r="D14" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>11.7</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>12.5</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <v>13.3</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="R14" s="6">
         <v>14.1</v>
       </c>
-      <c r="U14" s="6">
+      <c r="V14" s="6">
         <v>14.789</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Z14" s="6">
         <v>15.418</v>
       </c>
-      <c r="AD14" s="4" t="inlineStr">
+      <c r="AE14" s="4" t="inlineStr">
         <is>
           <t>Z03_B01_P01_Ib04_I01</t>
         </is>
       </c>
-      <c r="AE14" s="4" t="inlineStr">
+      <c r="AF14" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib04_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG14" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF14" s="4" t="inlineStr">
+      <c r="AH14" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG14" s="4" t="inlineStr">
+      <c r="AI14" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI14" s="4" t="inlineStr">
+      <c r="AK14" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AJ14" s="4" t="inlineStr">
+      <c r="AL14" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -1783,95 +1925,105 @@
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
+          <t>Z03_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
           <t>3.2.a</t>
         </is>
       </c>
-      <c r="B15" s="5" t="b">
+      <c r="C15" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="b">
+      <c r="D15" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>100</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>99.856</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>97.164</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>94.909</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <v>88.279</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <v>91.482</v>
       </c>
-      <c r="O15" s="6">
+      <c r="P15" s="6">
         <v>88.755</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="6">
         <v>87.623</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="R15" s="6">
         <v>86.499</v>
       </c>
-      <c r="R15" s="6">
+      <c r="S15" s="6">
         <v>83.622</v>
       </c>
-      <c r="S15" s="6">
+      <c r="T15" s="6">
         <v>82.673</v>
       </c>
-      <c r="T15" s="6">
+      <c r="U15" s="6">
         <v>80.05</v>
       </c>
-      <c r="U15" s="6">
+      <c r="V15" s="6">
         <v>78.284</v>
       </c>
-      <c r="V15" s="6">
+      <c r="W15" s="6">
         <v>75.033</v>
       </c>
-      <c r="W15" s="6">
+      <c r="X15" s="6">
         <v>70.958</v>
       </c>
-      <c r="X15" s="6">
+      <c r="Y15" s="6">
         <v>65.414</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Z15" s="6">
         <v>65.895</v>
       </c>
-      <c r="AD15" s="4" t="inlineStr">
+      <c r="AE15" s="4" t="inlineStr">
         <is>
           <t>Z03_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE15" s="4" t="inlineStr">
+      <c r="AF15" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG15" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF15" s="4" t="inlineStr">
+      <c r="AH15" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG15" s="4" t="inlineStr">
+      <c r="AI15" s="4" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AH15" s="7">
+      <c r="AJ15" s="7">
         <v>2030</v>
       </c>
-      <c r="AI15" s="4" t="inlineStr">
+      <c r="AK15" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ15" s="4" t="inlineStr">
+      <c r="AL15" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1880,86 +2032,96 @@
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
+          <t>Z03_B02_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
           <t>3.2.b</t>
         </is>
       </c>
-      <c r="B16" s="5" t="b">
+      <c r="C16" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="b">
+      <c r="D16" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <v>29.659</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>21.016</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <v>31.126</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <v>34.611</v>
       </c>
-      <c r="O16" s="6">
+      <c r="P16" s="6">
         <v>36.372</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="6">
         <v>12.507</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="R16" s="6">
         <v>17.184</v>
       </c>
-      <c r="R16" s="6">
+      <c r="S16" s="6">
         <v>11.904</v>
       </c>
-      <c r="S16" s="6">
+      <c r="T16" s="6">
         <v>4.987</v>
       </c>
-      <c r="T16" s="6">
+      <c r="U16" s="6">
         <v>3.842</v>
       </c>
-      <c r="U16" s="6">
+      <c r="V16" s="6">
         <v>2.539</v>
       </c>
-      <c r="V16" s="6">
+      <c r="W16" s="6">
         <v>2.9</v>
       </c>
-      <c r="W16" s="6">
+      <c r="X16" s="6">
         <v>0.2</v>
       </c>
-      <c r="X16" s="6">
+      <c r="Y16" s="6">
         <v>0.04</v>
       </c>
-      <c r="AD16" s="4" t="inlineStr">
+      <c r="AE16" s="4" t="inlineStr">
         <is>
           <t>Z03_B02_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE16" s="4" t="inlineStr">
+      <c r="AF16" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG16" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF16" s="4" t="inlineStr">
+      <c r="AH16" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG16" s="4" t="inlineStr">
+      <c r="AI16" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH16" s="7">
+      <c r="AJ16" s="7">
         <v>2030</v>
       </c>
-      <c r="AI16" s="4" t="inlineStr">
+      <c r="AK16" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ16" s="4" t="inlineStr">
+      <c r="AL16" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1968,65 +2130,75 @@
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
+          <t>Z03_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="B17" s="5" t="b">
+      <c r="C17" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="b">
+      <c r="D17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S17" s="6">
+      <c r="T17" s="6">
         <v>147.85</v>
       </c>
-      <c r="T17" s="6">
+      <c r="U17" s="6">
         <v>154.531</v>
       </c>
-      <c r="U17" s="6">
+      <c r="V17" s="6">
         <v>322.084</v>
       </c>
-      <c r="V17" s="6">
+      <c r="W17" s="6">
         <v>279.446</v>
       </c>
-      <c r="W17" s="6">
+      <c r="X17" s="6">
         <v>300.518</v>
       </c>
-      <c r="X17" s="6">
+      <c r="Y17" s="6">
         <v>398.28</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Z17" s="6">
         <v>396.693</v>
       </c>
-      <c r="AD17" s="4" t="inlineStr">
+      <c r="AE17" s="4" t="inlineStr">
         <is>
           <t>Z03_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE17" s="4" t="inlineStr">
+      <c r="AF17" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG17" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF17" s="4" t="inlineStr">
+      <c r="AH17" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG17" s="4" t="inlineStr">
+      <c r="AI17" s="4" t="inlineStr">
         <is>
           <t>272,5</t>
         </is>
       </c>
-      <c r="AH17" s="7">
+      <c r="AJ17" s="7">
         <v>2030</v>
       </c>
-      <c r="AI17" s="4" t="inlineStr">
+      <c r="AK17" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ17" s="4" t="inlineStr">
+      <c r="AL17" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -2035,110 +2207,120 @@
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
+          <t>Z04_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
           <t>4.1.a</t>
         </is>
       </c>
-      <c r="B18" s="5" t="b">
+      <c r="C18" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="b">
+      <c r="D18" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="6">
         <v>14.9</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <v>12.5</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <v>12.6</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <v>12.8</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>12.1</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>13.83</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>14.09</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <v>12.73</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <v>11.8</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="6">
         <v>11.1</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <v>11.86</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="6">
         <v>11.56</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <v>10.37</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R18" s="6">
         <v>9.81</v>
       </c>
-      <c r="R18" s="6">
+      <c r="S18" s="6">
         <v>9.53</v>
       </c>
-      <c r="S18" s="6">
+      <c r="T18" s="6">
         <v>9.82</v>
       </c>
-      <c r="T18" s="6">
+      <c r="U18" s="6">
         <v>10.3</v>
       </c>
-      <c r="U18" s="6">
+      <c r="V18" s="6">
         <v>10.11</v>
-      </c>
-      <c r="V18" s="6">
-        <v>10.34</v>
       </c>
       <c r="W18" s="6">
         <v>10.34</v>
       </c>
       <c r="X18" s="6">
+        <v>10.34</v>
+      </c>
+      <c r="Y18" s="6">
         <v>10.1</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Z18" s="6">
         <v>11.6</v>
       </c>
-      <c r="AD18" s="4" t="inlineStr">
+      <c r="AE18" s="4" t="inlineStr">
         <is>
           <t>Z04_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE18" s="4" t="inlineStr">
+      <c r="AF18" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG18" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF18" s="4" t="inlineStr">
+      <c r="AH18" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG18" s="4" t="inlineStr">
+      <c r="AI18" s="4" t="inlineStr">
         <is>
           <t>9,5</t>
         </is>
       </c>
-      <c r="AH18" s="7">
+      <c r="AJ18" s="7">
         <v>2030</v>
       </c>
-      <c r="AI18" s="4" t="inlineStr">
+      <c r="AK18" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AJ18" s="4" t="inlineStr">
+      <c r="AL18" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -2147,110 +2329,120 @@
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
+          <t>Z04_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
           <t>4.1.b</t>
         </is>
       </c>
-      <c r="B19" s="5" t="b">
+      <c r="C19" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="b">
+      <c r="D19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="E19" s="6">
         <v>33</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <v>33.17</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <v>33.28</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <v>33.89</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>36.22</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>35.99</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>36.5</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
         <v>37.63</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="6">
         <v>38.77</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="6">
         <v>40.71</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19" s="6">
         <v>41.31</v>
       </c>
-      <c r="O19" s="6">
+      <c r="P19" s="6">
         <v>42.22</v>
       </c>
-      <c r="P19" s="6">
+      <c r="Q19" s="6">
         <v>43.43</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="R19" s="6">
         <v>44.48</v>
       </c>
-      <c r="R19" s="6">
+      <c r="S19" s="6">
         <v>45.67</v>
       </c>
-      <c r="S19" s="6">
+      <c r="T19" s="6">
         <v>46.77</v>
       </c>
-      <c r="T19" s="6">
+      <c r="U19" s="6">
         <v>47.88</v>
       </c>
-      <c r="U19" s="6">
+      <c r="V19" s="6">
         <v>48.84</v>
       </c>
-      <c r="V19" s="6">
+      <c r="W19" s="6">
         <v>49.83</v>
       </c>
-      <c r="W19" s="6">
+      <c r="X19" s="6">
         <v>50.49</v>
       </c>
-      <c r="X19" s="6">
+      <c r="Y19" s="6">
         <v>52.3</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Z19" s="6">
         <v>53.238</v>
       </c>
-      <c r="AD19" s="4" t="inlineStr">
+      <c r="AE19" s="4" t="inlineStr">
         <is>
           <t>Z04_B01_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE19" s="4" t="inlineStr">
+      <c r="AF19" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG19" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF19" s="4" t="inlineStr">
+      <c r="AH19" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG19" s="4" t="inlineStr">
+      <c r="AI19" s="4" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AH19" s="7">
+      <c r="AJ19" s="7">
         <v>2030</v>
       </c>
-      <c r="AI19" s="4" t="inlineStr">
+      <c r="AK19" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ19" s="4" t="inlineStr">
+      <c r="AL19" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -2259,95 +2451,105 @@
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
+          <t>Z04_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
           <t>4.2.a</t>
         </is>
       </c>
-      <c r="B20" s="5" t="b">
+      <c r="C20" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C20" s="5" t="b">
+      <c r="D20" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <v>5.87</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <v>6.521</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>7.313</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>8.669</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="6">
         <v>10.167</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20" s="6">
         <v>11.344</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q20" s="6">
         <v>12.745</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="R20" s="6">
         <v>13.718</v>
       </c>
-      <c r="R20" s="6">
+      <c r="S20" s="6">
         <v>15.306</v>
       </c>
-      <c r="S20" s="6">
+      <c r="T20" s="6">
         <v>15.919</v>
       </c>
-      <c r="T20" s="6">
+      <c r="U20" s="6">
         <v>16.158</v>
       </c>
-      <c r="U20" s="6">
+      <c r="V20" s="6">
         <v>16.231</v>
       </c>
-      <c r="V20" s="6">
+      <c r="W20" s="6">
         <v>16.528</v>
       </c>
-      <c r="W20" s="6">
+      <c r="X20" s="6">
         <v>16.914</v>
       </c>
-      <c r="X20" s="6">
+      <c r="Y20" s="6">
         <v>17.096</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Z20" s="6">
         <v>16.461</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="AA20" s="6">
         <v>16.803</v>
       </c>
-      <c r="AD20" s="4" t="inlineStr">
+      <c r="AE20" s="4" t="inlineStr">
         <is>
           <t>Z04_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE20" s="4" t="inlineStr">
+      <c r="AF20" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG20" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF20" s="4" t="inlineStr">
+      <c r="AH20" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG20" s="4" t="inlineStr">
+      <c r="AI20" s="4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AH20" s="7">
+      <c r="AJ20" s="7">
         <v>2030</v>
       </c>
-      <c r="AI20" s="4" t="inlineStr">
+      <c r="AK20" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ20" s="4" t="inlineStr">
+      <c r="AL20" s="4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -2356,95 +2558,105 @@
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
+          <t>Z04_B02_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
           <t>4.2.b</t>
         </is>
       </c>
-      <c r="B21" s="5" t="b">
+      <c r="C21" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="b">
+      <c r="D21" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="6">
         <v>21.963</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="6">
         <v>24.189</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="6">
         <v>26.896</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="6">
         <v>29.696</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21" s="6">
         <v>32.138</v>
       </c>
-      <c r="O21" s="6">
+      <c r="P21" s="6">
         <v>34.672</v>
       </c>
-      <c r="P21" s="6">
+      <c r="Q21" s="6">
         <v>36.847</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="R21" s="6">
         <v>39.05</v>
       </c>
-      <c r="R21" s="6">
+      <c r="S21" s="6">
         <v>41.428</v>
       </c>
-      <c r="S21" s="6">
+      <c r="T21" s="6">
         <v>44.136</v>
       </c>
-      <c r="T21" s="6">
+      <c r="U21" s="6">
         <v>44.49</v>
       </c>
-      <c r="U21" s="6">
+      <c r="V21" s="6">
         <v>45.239</v>
       </c>
-      <c r="V21" s="6">
+      <c r="W21" s="6">
         <v>45.838</v>
       </c>
-      <c r="W21" s="6">
+      <c r="X21" s="6">
         <v>46.871</v>
       </c>
-      <c r="X21" s="6">
+      <c r="Y21" s="6">
         <v>47.553</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Z21" s="6">
         <v>46.934</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="AA21" s="6">
         <v>46.99</v>
       </c>
-      <c r="AD21" s="4" t="inlineStr">
+      <c r="AE21" s="4" t="inlineStr">
         <is>
           <t>Z04_B02_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE21" s="4" t="inlineStr">
+      <c r="AF21" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG21" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF21" s="4" t="inlineStr">
+      <c r="AH21" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG21" s="4" t="inlineStr">
+      <c r="AI21" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AH21" s="7">
+      <c r="AJ21" s="7">
         <v>2030</v>
       </c>
-      <c r="AI21" s="4" t="inlineStr">
+      <c r="AK21" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ21" s="4" t="inlineStr">
+      <c r="AL21" s="4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -2453,17 +2665,19 @@
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
+          <t>Z05_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
           <t>5.1.a</t>
         </is>
       </c>
-      <c r="B22" s="5" t="b">
+      <c r="C22" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C22" s="5" t="b">
+      <c r="D22" s="5" t="b">
         <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>23</v>
       </c>
       <c r="K22" s="6">
         <v>23</v>
@@ -2475,16 +2689,16 @@
         <v>23</v>
       </c>
       <c r="N22" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O22" s="6">
         <v>22</v>
       </c>
       <c r="P22" s="6">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="6">
         <v>23</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>22</v>
       </c>
       <c r="R22" s="6">
         <v>22</v>
@@ -2493,19 +2707,19 @@
         <v>22</v>
       </c>
       <c r="T22" s="6">
+        <v>22</v>
+      </c>
+      <c r="U22" s="6">
         <v>21</v>
-      </c>
-      <c r="U22" s="6">
-        <v>20</v>
       </c>
       <c r="V22" s="6">
         <v>20</v>
       </c>
       <c r="W22" s="6">
+        <v>20</v>
+      </c>
+      <c r="X22" s="6">
         <v>19</v>
-      </c>
-      <c r="X22" s="6">
-        <v>18</v>
       </c>
       <c r="Y22" s="6">
         <v>18</v>
@@ -2513,32 +2727,40 @@
       <c r="Z22" s="6">
         <v>18</v>
       </c>
-      <c r="AD22" s="4" t="inlineStr">
+      <c r="AA22" s="6">
+        <v>18</v>
+      </c>
+      <c r="AE22" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE22" s="4" t="inlineStr">
+      <c r="AF22" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG22" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF22" s="4" t="inlineStr">
+      <c r="AH22" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG22" s="4" t="inlineStr">
+      <c r="AI22" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AI22" s="4" t="inlineStr">
+      <c r="AK22" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ22" s="4" t="inlineStr">
+      <c r="AL22" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -2547,68 +2769,78 @@
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
+          <t>Z05_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
           <t>5.1.b</t>
         </is>
       </c>
-      <c r="B23" s="5" t="b">
+      <c r="C23" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C23" s="5" t="b">
+      <c r="D23" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S23" s="6">
+      <c r="T23" s="6">
         <v>21.3</v>
       </c>
-      <c r="T23" s="6">
+      <c r="U23" s="6">
         <v>23.8</v>
       </c>
-      <c r="U23" s="6">
+      <c r="V23" s="6">
         <v>28.1</v>
       </c>
-      <c r="V23" s="6">
+      <c r="W23" s="6">
         <v>30.9</v>
       </c>
-      <c r="W23" s="6">
+      <c r="X23" s="6">
         <v>33.9</v>
       </c>
-      <c r="X23" s="6">
+      <c r="Y23" s="6">
         <v>35.2</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="Z23" s="6">
         <v>35.9</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="AA23" s="6">
         <v>35.6</v>
       </c>
-      <c r="AD23" s="4" t="inlineStr">
+      <c r="AE23" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE23" s="4" t="inlineStr">
+      <c r="AF23" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG23" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF23" s="4" t="inlineStr">
+      <c r="AH23" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG23" s="4" t="inlineStr">
+      <c r="AI23" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH23" s="7">
+      <c r="AJ23" s="7">
         <v>2030</v>
       </c>
-      <c r="AI23" s="4" t="inlineStr">
+      <c r="AK23" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ23" s="4" t="inlineStr">
+      <c r="AL23" s="4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -2617,50 +2849,52 @@
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
+          <t>Z05_B01_P01_Ib02_I02_D001</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
           <t>5.1.c</t>
         </is>
       </c>
-      <c r="B24" s="5" t="b">
+      <c r="C24" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="b">
+      <c r="D24" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="6">
         <v>19.5</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <v>18.5</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <v>19.7</v>
-      </c>
-      <c r="G24" s="6">
-        <v>24</v>
       </c>
       <c r="H24" s="6">
         <v>24</v>
       </c>
       <c r="I24" s="6">
+        <v>24</v>
+      </c>
+      <c r="J24" s="6">
         <v>26.6</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <v>26.9</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="6">
         <v>27.8</v>
       </c>
-      <c r="L24" s="6">
+      <c r="M24" s="6">
         <v>28.7</v>
       </c>
-      <c r="M24" s="6">
+      <c r="N24" s="6">
         <v>29.9</v>
       </c>
-      <c r="N24" s="6">
+      <c r="O24" s="6">
         <v>30.8</v>
-      </c>
-      <c r="O24" s="6">
-        <v>30.6</v>
       </c>
       <c r="P24" s="6">
         <v>30.6</v>
@@ -2669,49 +2903,57 @@
         <v>30.6</v>
       </c>
       <c r="R24" s="6">
+        <v>30.6</v>
+      </c>
+      <c r="S24" s="6">
         <v>32.1</v>
       </c>
-      <c r="S24" s="6">
+      <c r="T24" s="6">
         <v>33.6</v>
       </c>
-      <c r="U24" s="6">
+      <c r="V24" s="6">
         <v>35.2</v>
       </c>
-      <c r="W24" s="6">
+      <c r="X24" s="6">
         <v>37.6</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Z24" s="6">
         <v>39.6</v>
       </c>
-      <c r="AD24" s="4" t="inlineStr">
+      <c r="AE24" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01_Ib02_I02</t>
         </is>
       </c>
-      <c r="AE24" s="4" t="inlineStr">
+      <c r="AF24" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib02_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG24" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF24" s="4" t="inlineStr">
+      <c r="AH24" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG24" s="4" t="inlineStr">
+      <c r="AI24" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AH24" s="7">
+      <c r="AJ24" s="7">
         <v>2025</v>
       </c>
-      <c r="AI24" s="4" t="inlineStr">
+      <c r="AK24" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AJ24" s="4" t="inlineStr">
+      <c r="AL24" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -2720,80 +2962,90 @@
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
+          <t>Z05_B01_P01_Ib03_I01_D001</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
           <t>5.1.d</t>
         </is>
       </c>
-      <c r="B25" s="5" t="b">
+      <c r="C25" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="b">
+      <c r="D25" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="6">
         <v>21.2</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="6">
         <v>24</v>
       </c>
-      <c r="N25" s="6">
+      <c r="O25" s="6">
         <v>25.9</v>
       </c>
-      <c r="O25" s="6">
+      <c r="P25" s="6">
         <v>28</v>
       </c>
-      <c r="P25" s="6">
+      <c r="Q25" s="6">
         <v>30</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="R25" s="6">
         <v>32.6</v>
       </c>
-      <c r="R25" s="6">
+      <c r="S25" s="6">
         <v>34.8</v>
       </c>
-      <c r="S25" s="6">
+      <c r="T25" s="6">
         <v>36.9</v>
       </c>
-      <c r="T25" s="6">
+      <c r="U25" s="6">
         <v>38.8</v>
       </c>
-      <c r="U25" s="6">
+      <c r="V25" s="6">
         <v>40.4</v>
       </c>
-      <c r="V25" s="6">
+      <c r="W25" s="6">
         <v>42.1</v>
       </c>
-      <c r="W25" s="6">
+      <c r="X25" s="6">
         <v>43.5</v>
       </c>
-      <c r="AD25" s="4" t="inlineStr">
+      <c r="AE25" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01_Ib03_I01</t>
         </is>
       </c>
-      <c r="AE25" s="4" t="inlineStr">
+      <c r="AF25" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib03_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG25" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF25" s="4" t="inlineStr">
+      <c r="AH25" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG25" s="4" t="inlineStr">
+      <c r="AI25" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="AH25" s="7">
+      <c r="AJ25" s="7">
         <v>2030</v>
       </c>
-      <c r="AI25" s="4" t="inlineStr">
+      <c r="AK25" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AJ25" s="4" t="inlineStr">
+      <c r="AL25" s="4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -2802,53 +3054,63 @@
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
+          <t>Z05_B01_P02_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
           <t>5.1.e</t>
         </is>
       </c>
-      <c r="B26" s="5" t="b">
+      <c r="C26" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C26" s="5" t="b">
+      <c r="D26" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S26" s="6">
+      <c r="T26" s="6">
         <v>354.841</v>
       </c>
-      <c r="V26" s="6">
+      <c r="W26" s="6">
         <v>863</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Z26" s="6">
         <v>80.083</v>
       </c>
-      <c r="AD26" s="4" t="inlineStr">
+      <c r="AE26" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P02_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE26" s="4" t="inlineStr">
+      <c r="AF26" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P02_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG26" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF26" s="4" t="inlineStr">
+      <c r="AH26" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG26" s="4" t="inlineStr">
+      <c r="AI26" s="4" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="AH26" s="7">
+      <c r="AJ26" s="7">
         <v>2030</v>
       </c>
-      <c r="AI26" s="4" t="inlineStr">
+      <c r="AK26" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
       </c>
-      <c r="AJ26" s="4" t="inlineStr">
+      <c r="AL26" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
@@ -2857,110 +3119,120 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
+          <t>Z06_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
           <t>6.1.a</t>
         </is>
       </c>
-      <c r="B27" s="5" t="b">
+      <c r="C27" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="b">
+      <c r="D27" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="6">
         <v>29.1</v>
       </c>
-      <c r="E27" s="6">
+      <c r="F27" s="6">
         <v>29.7</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <v>26.9</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H27" s="6">
         <v>31.7</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="6">
         <v>32.2</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <v>30.7</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <v>33.9</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>30.9</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <v>33.2</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <v>33.6</v>
       </c>
-      <c r="N27" s="6">
+      <c r="O27" s="6">
         <v>32.2</v>
       </c>
-      <c r="O27" s="6">
+      <c r="P27" s="6">
         <v>37.7</v>
       </c>
-      <c r="P27" s="6">
+      <c r="Q27" s="6">
         <v>35.5</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="R27" s="6">
         <v>36.2</v>
       </c>
-      <c r="R27" s="6">
+      <c r="S27" s="6">
         <v>34.8</v>
       </c>
-      <c r="S27" s="6">
+      <c r="T27" s="6">
         <v>30.8</v>
       </c>
-      <c r="T27" s="6">
+      <c r="U27" s="6">
         <v>37.3</v>
       </c>
-      <c r="U27" s="6">
+      <c r="V27" s="6">
         <v>35.3</v>
       </c>
-      <c r="V27" s="6">
+      <c r="W27" s="6">
         <v>44.1</v>
       </c>
-      <c r="W27" s="6">
+      <c r="X27" s="6">
         <v>42.6</v>
       </c>
-      <c r="X27" s="6">
+      <c r="Y27" s="6">
         <v>41.8</v>
       </c>
-      <c r="Y27" s="6">
+      <c r="Z27" s="6">
         <v>43.2</v>
       </c>
-      <c r="AD27" s="4" t="inlineStr">
+      <c r="AE27" s="4" t="inlineStr">
         <is>
           <t>Z06_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE27" s="4" t="inlineStr">
+      <c r="AF27" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG27" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF27" s="4" t="inlineStr">
+      <c r="AH27" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG27" s="4" t="inlineStr">
+      <c r="AI27" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="AH27" s="7">
+      <c r="AJ27" s="7">
         <v>2030</v>
       </c>
-      <c r="AI27" s="4" t="inlineStr">
+      <c r="AK27" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ27" s="4" t="inlineStr">
+      <c r="AL27" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2969,83 +3241,93 @@
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
+          <t>Z06_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
           <t>6.1.b</t>
         </is>
       </c>
-      <c r="B28" s="5" t="b">
+      <c r="C28" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C28" s="5" t="b">
+      <c r="D28" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <v>81.8</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <v>82.5</v>
       </c>
-      <c r="N28" s="6">
+      <c r="O28" s="6">
         <v>81.7</v>
       </c>
-      <c r="O28" s="6">
+      <c r="P28" s="6">
         <v>82</v>
       </c>
-      <c r="P28" s="6">
+      <c r="Q28" s="6">
         <v>81</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="R28" s="6">
         <v>81.4</v>
       </c>
-      <c r="R28" s="6">
+      <c r="S28" s="6">
         <v>81.8</v>
       </c>
-      <c r="S28" s="6">
+      <c r="T28" s="6">
         <v>81</v>
       </c>
-      <c r="T28" s="6">
+      <c r="U28" s="6">
         <v>81.8</v>
       </c>
-      <c r="U28" s="6">
+      <c r="V28" s="6">
         <v>83.1</v>
       </c>
-      <c r="V28" s="6">
+      <c r="W28" s="6">
         <v>82.7</v>
       </c>
-      <c r="W28" s="6">
+      <c r="X28" s="6">
         <v>84.2</v>
       </c>
-      <c r="X28" s="6">
+      <c r="Y28" s="6">
         <v>84.1</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="Z28" s="6">
         <v>84</v>
       </c>
-      <c r="AD28" s="4" t="inlineStr">
+      <c r="AE28" s="4" t="inlineStr">
         <is>
           <t>Z06_B01_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE28" s="4" t="inlineStr">
+      <c r="AF28" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG28" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF28" s="4" t="inlineStr">
+      <c r="AH28" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG28" s="4" t="inlineStr">
+      <c r="AI28" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="AI28" s="4" t="inlineStr">
+      <c r="AK28" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ28" s="4" t="inlineStr">
+      <c r="AL28" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3054,47 +3336,57 @@
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
+          <t>Z06_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
           <t>6.2.a</t>
         </is>
       </c>
-      <c r="B29" s="5" t="b">
+      <c r="C29" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C29" s="5" t="b">
+      <c r="D29" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="W29" s="6">
+      <c r="X29" s="6">
         <v>14.3</v>
       </c>
-      <c r="X29" s="6">
+      <c r="Y29" s="6">
         <v>10.9</v>
       </c>
-      <c r="AD29" s="4" t="inlineStr">
+      <c r="AE29" s="4" t="inlineStr">
         <is>
           <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE29" s="4" t="inlineStr">
+      <c r="AF29" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG29" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF29" s="4" t="inlineStr">
+      <c r="AH29" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG29" s="4" t="inlineStr">
+      <c r="AI29" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AI29" s="4" t="inlineStr">
+      <c r="AK29" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
       </c>
-      <c r="AJ29" s="4" t="inlineStr">
+      <c r="AL29" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
@@ -3103,47 +3395,57 @@
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
+          <t>Z06_B02_P01_Ib01_I02_D002</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
           <t>6.2.b</t>
         </is>
       </c>
-      <c r="B30" s="5" t="b">
+      <c r="C30" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C30" s="5" t="b">
+      <c r="D30" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="W30" s="6">
+      <c r="X30" s="6">
         <v>6.1</v>
       </c>
-      <c r="X30" s="6">
+      <c r="Y30" s="6">
         <v>1.8</v>
       </c>
-      <c r="AD30" s="4" t="inlineStr">
+      <c r="AE30" s="4" t="inlineStr">
         <is>
           <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE30" s="4" t="inlineStr">
+      <c r="AF30" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I02_D002</t>
+        </is>
+      </c>
+      <c r="AG30" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF30" s="4" t="inlineStr">
+      <c r="AH30" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG30" s="4" t="inlineStr">
+      <c r="AI30" s="4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AI30" s="4" t="inlineStr">
+      <c r="AK30" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
       </c>
-      <c r="AJ30" s="4" t="inlineStr">
+      <c r="AL30" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
@@ -3152,86 +3454,96 @@
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
+          <t>Z07_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
           <t>7.1.a</t>
         </is>
       </c>
-      <c r="B31" s="5" t="b">
+      <c r="C31" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C31" s="5" t="b">
+      <c r="D31" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="6">
         <v>100</v>
       </c>
-      <c r="M31" s="6">
+      <c r="N31" s="6">
         <v>99.68</v>
       </c>
-      <c r="N31" s="6">
+      <c r="O31" s="6">
         <v>96.66</v>
-      </c>
-      <c r="O31" s="6">
-        <v>105.29</v>
       </c>
       <c r="P31" s="6">
         <v>105.29</v>
       </c>
       <c r="Q31" s="6">
+        <v>105.29</v>
+      </c>
+      <c r="R31" s="6">
         <v>102.76</v>
       </c>
-      <c r="R31" s="6">
+      <c r="S31" s="6">
         <v>110.82</v>
       </c>
-      <c r="S31" s="6">
+      <c r="T31" s="6">
         <v>109.96</v>
       </c>
-      <c r="T31" s="6">
+      <c r="U31" s="6">
         <v>110.26</v>
       </c>
-      <c r="U31" s="6">
+      <c r="V31" s="6">
         <v>111.54</v>
       </c>
-      <c r="V31" s="6">
+      <c r="W31" s="6">
         <v>116.22</v>
       </c>
-      <c r="W31" s="6">
+      <c r="X31" s="6">
         <v>116.8</v>
       </c>
-      <c r="X31" s="6">
+      <c r="Y31" s="6">
         <v>120.16</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Z31" s="6">
         <v>119.52</v>
       </c>
-      <c r="AD31" s="4" t="inlineStr">
+      <c r="AE31" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE31" s="4" t="inlineStr">
+      <c r="AF31" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG31" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF31" s="4" t="inlineStr">
+      <c r="AH31" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG31" s="4" t="inlineStr">
+      <c r="AI31" s="4" t="inlineStr">
         <is>
           <t>239,4</t>
         </is>
       </c>
-      <c r="AH31" s="7">
+      <c r="AJ31" s="7">
         <v>2050</v>
       </c>
-      <c r="AI31" s="4" t="inlineStr">
+      <c r="AK31" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ31" s="4" t="inlineStr">
+      <c r="AL31" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3240,89 +3552,99 @@
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
+          <t>Z07_B01_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
           <t>7.1.b</t>
         </is>
       </c>
-      <c r="B32" s="5" t="b">
+      <c r="C32" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C32" s="5" t="b">
+      <c r="D32" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <v>100</v>
       </c>
-      <c r="M32" s="6">
+      <c r="N32" s="6">
         <v>94.1</v>
       </c>
-      <c r="N32" s="6">
+      <c r="O32" s="6">
         <v>98.87</v>
       </c>
-      <c r="O32" s="6">
+      <c r="P32" s="6">
         <v>94.57</v>
       </c>
-      <c r="P32" s="6">
+      <c r="Q32" s="6">
         <v>93.51</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="R32" s="6">
         <v>96.12</v>
       </c>
-      <c r="R32" s="6">
+      <c r="S32" s="6">
         <v>91.65</v>
       </c>
-      <c r="S32" s="6">
+      <c r="T32" s="6">
         <v>92.22</v>
       </c>
-      <c r="T32" s="6">
+      <c r="U32" s="6">
         <v>93.82</v>
       </c>
-      <c r="U32" s="6">
+      <c r="V32" s="6">
         <v>94.04</v>
       </c>
-      <c r="V32" s="6">
+      <c r="W32" s="6">
         <v>91.3</v>
       </c>
-      <c r="W32" s="6">
+      <c r="X32" s="6">
         <v>89.05</v>
       </c>
-      <c r="X32" s="6">
+      <c r="Y32" s="6">
         <v>82.72</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Z32" s="6">
         <v>86.509</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="AA32" s="6">
         <v>81.843</v>
       </c>
-      <c r="AD32" s="4" t="inlineStr">
+      <c r="AE32" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE32" s="4" t="inlineStr">
+      <c r="AF32" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG32" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF32" s="4" t="inlineStr">
+      <c r="AH32" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG32" s="4" t="inlineStr">
+      <c r="AI32" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AH32" s="7">
+      <c r="AJ32" s="7">
         <v>2030</v>
       </c>
-      <c r="AI32" s="4" t="inlineStr">
+      <c r="AK32" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AJ32" s="4" t="inlineStr">
+      <c r="AL32" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3331,98 +3653,108 @@
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
+          <t>Z07_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
           <t>7.2.a</t>
         </is>
       </c>
-      <c r="B33" s="5" t="b">
+      <c r="C33" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="b">
+      <c r="D33" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I33" s="6">
+      <c r="J33" s="6">
         <v>7.1</v>
       </c>
-      <c r="J33" s="6">
+      <c r="K33" s="6">
         <v>8.4</v>
       </c>
-      <c r="K33" s="6">
+      <c r="L33" s="6">
         <v>10.2</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <v>10.1</v>
       </c>
-      <c r="M33" s="6">
+      <c r="N33" s="6">
         <v>10.6</v>
       </c>
-      <c r="N33" s="6">
+      <c r="O33" s="6">
         <v>11.4</v>
       </c>
-      <c r="O33" s="6">
+      <c r="P33" s="6">
         <v>12.5</v>
       </c>
-      <c r="P33" s="6">
+      <c r="Q33" s="6">
         <v>13.6</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="R33" s="6">
         <v>13.7</v>
       </c>
-      <c r="R33" s="6">
+      <c r="S33" s="6">
         <v>14.3</v>
       </c>
-      <c r="S33" s="6">
+      <c r="T33" s="6">
         <v>15.1</v>
       </c>
-      <c r="T33" s="6">
+      <c r="U33" s="6">
         <v>14.9</v>
       </c>
-      <c r="U33" s="6">
+      <c r="V33" s="6">
         <v>16</v>
       </c>
-      <c r="V33" s="6">
+      <c r="W33" s="6">
         <v>16.8</v>
       </c>
-      <c r="W33" s="6">
+      <c r="X33" s="6">
         <v>17.7</v>
       </c>
-      <c r="X33" s="6">
+      <c r="Y33" s="6">
         <v>19.4</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="Z33" s="6">
         <v>18.8</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="AA33" s="6">
         <v>20.3</v>
       </c>
-      <c r="AD33" s="4" t="inlineStr">
+      <c r="AE33" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE33" s="4" t="inlineStr">
+      <c r="AF33" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG33" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF33" s="4" t="inlineStr">
+      <c r="AH33" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG33" s="4" t="inlineStr">
+      <c r="AI33" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH33" s="7">
+      <c r="AJ33" s="7">
         <v>2030</v>
       </c>
-      <c r="AI33" s="4" t="inlineStr">
+      <c r="AK33" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ33" s="4" t="inlineStr">
+      <c r="AL33" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3431,98 +3763,108 @@
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
+          <t>Z07_B02_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
           <t>7.2.b</t>
         </is>
       </c>
-      <c r="B34" s="5" t="b">
+      <c r="C34" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C34" s="5" t="b">
+      <c r="D34" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J34" s="6">
         <v>10.3</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="6">
         <v>11.7</v>
       </c>
-      <c r="K34" s="6">
+      <c r="L34" s="6">
         <v>14.3</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <v>15.2</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N34" s="6">
         <v>16.5</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O34" s="6">
         <v>17.1</v>
       </c>
-      <c r="O34" s="6">
+      <c r="P34" s="6">
         <v>20.4</v>
       </c>
-      <c r="P34" s="6">
+      <c r="Q34" s="6">
         <v>23.6</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="R34" s="6">
         <v>25.1</v>
       </c>
-      <c r="R34" s="6">
+      <c r="S34" s="6">
         <v>27.3</v>
       </c>
-      <c r="S34" s="6">
+      <c r="T34" s="6">
         <v>31.4</v>
       </c>
-      <c r="T34" s="6">
+      <c r="U34" s="6">
         <v>31.6</v>
       </c>
-      <c r="U34" s="6">
+      <c r="V34" s="6">
         <v>36</v>
       </c>
-      <c r="V34" s="6">
+      <c r="W34" s="6">
         <v>37.7</v>
       </c>
-      <c r="W34" s="6">
+      <c r="X34" s="6">
         <v>42</v>
       </c>
-      <c r="X34" s="6">
+      <c r="Y34" s="6">
         <v>45.2</v>
       </c>
-      <c r="Y34" s="6">
+      <c r="Z34" s="6">
         <v>41.2</v>
       </c>
-      <c r="Z34" s="6">
+      <c r="AA34" s="6">
         <v>46.2</v>
       </c>
-      <c r="AD34" s="4" t="inlineStr">
+      <c r="AE34" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE34" s="4" t="inlineStr">
+      <c r="AF34" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG34" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF34" s="4" t="inlineStr">
+      <c r="AH34" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG34" s="4" t="inlineStr">
+      <c r="AI34" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="AH34" s="7">
+      <c r="AJ34" s="7">
         <v>2030</v>
       </c>
-      <c r="AI34" s="4" t="inlineStr">
+      <c r="AK34" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ34" s="4" t="inlineStr">
+      <c r="AL34" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3531,53 +3873,55 @@
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
+          <t>Z08_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="B35" s="5" t="b">
+      <c r="C35" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="b">
+      <c r="D35" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D35" s="6">
+      <c r="E35" s="6">
         <v>100</v>
       </c>
-      <c r="E35" s="6">
+      <c r="F35" s="6">
         <v>104</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="6">
         <v>110</v>
-      </c>
-      <c r="G35" s="6">
-        <v>108</v>
       </c>
       <c r="H35" s="6">
         <v>108</v>
       </c>
       <c r="I35" s="6">
+        <v>108</v>
+      </c>
+      <c r="J35" s="6">
         <v>109</v>
       </c>
-      <c r="J35" s="6">
+      <c r="K35" s="6">
         <v>108</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="6">
         <v>111</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="6">
         <v>115</v>
       </c>
-      <c r="M35" s="6">
+      <c r="N35" s="6">
         <v>122</v>
       </c>
-      <c r="N35" s="6">
+      <c r="O35" s="6">
         <v>117</v>
       </c>
-      <c r="O35" s="6">
+      <c r="P35" s="6">
         <v>115</v>
-      </c>
-      <c r="P35" s="6">
-        <v>119</v>
       </c>
       <c r="Q35" s="6">
         <v>119</v>
@@ -3586,46 +3930,54 @@
         <v>119</v>
       </c>
       <c r="S35" s="6">
+        <v>119</v>
+      </c>
+      <c r="T35" s="6">
         <v>123</v>
       </c>
-      <c r="T35" s="6">
+      <c r="U35" s="6">
         <v>122</v>
       </c>
-      <c r="U35" s="6">
+      <c r="V35" s="6">
         <v>127</v>
       </c>
-      <c r="V35" s="6">
+      <c r="W35" s="6">
         <v>126</v>
       </c>
-      <c r="AD35" s="4" t="inlineStr">
+      <c r="AE35" s="4" t="inlineStr">
         <is>
           <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE35" s="4" t="inlineStr">
+      <c r="AF35" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG35" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF35" s="4" t="inlineStr">
+      <c r="AH35" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG35" s="4" t="inlineStr">
+      <c r="AI35" s="4" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="AH35" s="7">
+      <c r="AJ35" s="7">
         <v>2030</v>
       </c>
-      <c r="AI35" s="4" t="inlineStr">
+      <c r="AK35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ35" s="4" t="inlineStr">
+      <c r="AL35" s="4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -3634,110 +3986,120 @@
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
+          <t>Z08_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
           <t>8.2.a</t>
         </is>
       </c>
-      <c r="B36" s="5" t="b">
+      <c r="C36" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C36" s="5" t="b">
+      <c r="D36" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D36" s="6">
+      <c r="E36" s="6">
         <v>-1.585</v>
       </c>
-      <c r="E36" s="6">
+      <c r="F36" s="6">
         <v>-3.025</v>
       </c>
-      <c r="F36" s="6">
+      <c r="G36" s="6">
         <v>-3.875</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <v>-3.704</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <v>-3.334</v>
       </c>
-      <c r="I36" s="6">
+      <c r="J36" s="6">
         <v>-3.319</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="6">
         <v>-1.653</v>
       </c>
-      <c r="K36" s="6">
+      <c r="L36" s="6">
         <v>0.261</v>
       </c>
-      <c r="L36" s="6">
+      <c r="M36" s="6">
         <v>-0.116</v>
       </c>
-      <c r="M36" s="6">
+      <c r="N36" s="6">
         <v>-3.151</v>
       </c>
-      <c r="N36" s="6">
+      <c r="O36" s="6">
         <v>-4.379</v>
       </c>
-      <c r="O36" s="6">
+      <c r="P36" s="6">
         <v>-0.881</v>
       </c>
-      <c r="P36" s="6">
+      <c r="Q36" s="6">
         <v>0.009</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="R36" s="6">
         <v>0.04</v>
       </c>
-      <c r="R36" s="6">
+      <c r="S36" s="6">
         <v>0.58</v>
       </c>
-      <c r="S36" s="6">
+      <c r="T36" s="6">
         <v>0.961</v>
       </c>
-      <c r="T36" s="6">
+      <c r="U36" s="6">
         <v>1.16</v>
       </c>
-      <c r="U36" s="6">
+      <c r="V36" s="6">
         <v>1.336</v>
       </c>
-      <c r="V36" s="6">
+      <c r="W36" s="6">
         <v>1.95</v>
       </c>
-      <c r="W36" s="6">
+      <c r="X36" s="6">
         <v>1.531</v>
       </c>
-      <c r="X36" s="6">
+      <c r="Y36" s="6">
         <v>-4.333</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="Z36" s="6">
         <v>-3.727</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="AA36" s="6">
         <v>-2.74</v>
       </c>
-      <c r="AD36" s="4" t="inlineStr">
+      <c r="AE36" s="4" t="inlineStr">
         <is>
           <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE36" s="4" t="inlineStr">
+      <c r="AF36" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG36" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF36" s="4" t="inlineStr">
+      <c r="AH36" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG36" s="4" t="inlineStr">
+      <c r="AI36" s="4" t="inlineStr">
         <is>
           <t>-3</t>
         </is>
       </c>
-      <c r="AI36" s="4" t="inlineStr">
+      <c r="AK36" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AJ36" s="4" t="inlineStr">
+      <c r="AL36" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3746,95 +4108,105 @@
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
+          <t>Z08_B02_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
           <t>8.2.b</t>
         </is>
       </c>
-      <c r="B37" s="5" t="b">
+      <c r="C37" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C37" s="5" t="b">
+      <c r="D37" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <v>-2.2</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <v>-1.8</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <v>-0.7</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <v>-0.6</v>
       </c>
-      <c r="M37" s="6">
+      <c r="N37" s="6">
         <v>-0.5</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <v>-2.1</v>
       </c>
-      <c r="O37" s="6">
+      <c r="P37" s="6">
         <v>-1.2</v>
       </c>
-      <c r="P37" s="6">
+      <c r="Q37" s="6">
         <v>0.1</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="R37" s="6">
         <v>0.6</v>
       </c>
-      <c r="R37" s="6">
+      <c r="S37" s="6">
         <v>0.9</v>
       </c>
-      <c r="S37" s="6">
+      <c r="T37" s="6">
         <v>1.1</v>
       </c>
-      <c r="T37" s="6">
+      <c r="U37" s="6">
         <v>1</v>
       </c>
-      <c r="U37" s="6">
+      <c r="V37" s="6">
         <v>0.7</v>
       </c>
-      <c r="V37" s="6">
+      <c r="W37" s="6">
         <v>1.3</v>
       </c>
-      <c r="W37" s="6">
+      <c r="X37" s="6">
         <v>0.8</v>
       </c>
-      <c r="X37" s="6">
+      <c r="Y37" s="6">
         <v>-2.7</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="Z37" s="6">
         <v>-2.9</v>
       </c>
-      <c r="Z37" s="6">
+      <c r="AA37" s="6">
         <v>-1.8</v>
       </c>
-      <c r="AD37" s="4" t="inlineStr">
+      <c r="AE37" s="4" t="inlineStr">
         <is>
           <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE37" s="4" t="inlineStr">
+      <c r="AF37" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG37" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF37" s="4" t="inlineStr">
+      <c r="AH37" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG37" s="4" t="inlineStr">
+      <c r="AI37" s="4" t="inlineStr">
         <is>
           <t>-0,5</t>
         </is>
       </c>
-      <c r="AI37" s="4" t="inlineStr">
+      <c r="AK37" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AJ37" s="4" t="inlineStr">
+      <c r="AL37" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3843,110 +4215,120 @@
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
+          <t>Z08_B02_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
           <t>8.2.c</t>
         </is>
       </c>
-      <c r="B38" s="5" t="b">
+      <c r="C38" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C38" s="5" t="b">
+      <c r="D38" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D38" s="6">
+      <c r="E38" s="6">
         <v>59.3</v>
       </c>
-      <c r="E38" s="6">
+      <c r="F38" s="6">
         <v>58.2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G38" s="6">
         <v>59.9</v>
       </c>
-      <c r="G38" s="6">
+      <c r="H38" s="6">
         <v>63.5</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="6">
         <v>65.2</v>
       </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <v>67.5</v>
       </c>
-      <c r="J38" s="6">
+      <c r="K38" s="6">
         <v>66.9</v>
       </c>
-      <c r="K38" s="6">
+      <c r="L38" s="6">
         <v>64.2</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <v>65.7</v>
       </c>
-      <c r="M38" s="6">
+      <c r="N38" s="6">
         <v>73.2</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="6">
         <v>82</v>
       </c>
-      <c r="O38" s="6">
+      <c r="P38" s="6">
         <v>79.4</v>
       </c>
-      <c r="P38" s="6">
+      <c r="Q38" s="6">
         <v>80.7</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="R38" s="6">
         <v>78.3</v>
       </c>
-      <c r="R38" s="6">
+      <c r="S38" s="6">
         <v>75.3</v>
       </c>
-      <c r="S38" s="6">
+      <c r="T38" s="6">
         <v>71.9</v>
       </c>
-      <c r="T38" s="6">
+      <c r="U38" s="6">
         <v>69</v>
       </c>
-      <c r="U38" s="6">
+      <c r="V38" s="6">
         <v>65.2</v>
       </c>
-      <c r="V38" s="6">
+      <c r="W38" s="6">
         <v>61.9</v>
       </c>
-      <c r="W38" s="6">
+      <c r="X38" s="6">
         <v>59.6</v>
       </c>
-      <c r="X38" s="6">
+      <c r="Y38" s="6">
         <v>68.7</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="Z38" s="6">
         <v>69.3</v>
       </c>
-      <c r="Z38" s="6">
+      <c r="AA38" s="6">
         <v>66.3</v>
       </c>
-      <c r="AD38" s="4" t="inlineStr">
+      <c r="AE38" s="4" t="inlineStr">
         <is>
           <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE38" s="4" t="inlineStr">
+      <c r="AF38" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG38" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF38" s="4" t="inlineStr">
+      <c r="AH38" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG38" s="4" t="inlineStr">
+      <c r="AI38" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="AI38" s="4" t="inlineStr">
+      <c r="AK38" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ38" s="4" t="inlineStr">
+      <c r="AL38" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -3955,110 +4337,120 @@
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
+          <t>Z08_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
           <t>8.3</t>
         </is>
       </c>
-      <c r="B39" s="5" t="b">
+      <c r="C39" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C39" s="5" t="b">
+      <c r="D39" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D39" s="6">
+      <c r="E39" s="6">
         <v>23.114</v>
       </c>
-      <c r="E39" s="6">
+      <c r="F39" s="6">
         <v>21.778</v>
       </c>
-      <c r="F39" s="6">
+      <c r="G39" s="6">
         <v>20.122</v>
       </c>
-      <c r="G39" s="6">
+      <c r="H39" s="6">
         <v>19.523</v>
       </c>
-      <c r="H39" s="6">
+      <c r="I39" s="6">
         <v>19.091</v>
       </c>
-      <c r="I39" s="6">
+      <c r="J39" s="6">
         <v>19.077</v>
       </c>
-      <c r="J39" s="6">
+      <c r="K39" s="6">
         <v>19.803</v>
       </c>
-      <c r="K39" s="6">
+      <c r="L39" s="6">
         <v>20.057</v>
       </c>
-      <c r="L39" s="6">
+      <c r="M39" s="6">
         <v>20.303</v>
       </c>
-      <c r="M39" s="6">
+      <c r="N39" s="6">
         <v>19.268</v>
       </c>
-      <c r="N39" s="6">
+      <c r="O39" s="6">
         <v>19.543</v>
       </c>
-      <c r="O39" s="6">
+      <c r="P39" s="6">
         <v>20.371</v>
       </c>
-      <c r="P39" s="6">
+      <c r="Q39" s="6">
         <v>20.321</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="R39" s="6">
         <v>19.901</v>
       </c>
-      <c r="R39" s="6">
+      <c r="S39" s="6">
         <v>20.04</v>
       </c>
-      <c r="S39" s="6">
+      <c r="T39" s="6">
         <v>20.02</v>
       </c>
-      <c r="T39" s="6">
+      <c r="U39" s="6">
         <v>20.298</v>
       </c>
-      <c r="U39" s="6">
+      <c r="V39" s="6">
         <v>20.411</v>
       </c>
-      <c r="V39" s="6">
+      <c r="W39" s="6">
         <v>21.065</v>
       </c>
-      <c r="W39" s="6">
+      <c r="X39" s="6">
         <v>21.374</v>
       </c>
-      <c r="X39" s="6">
+      <c r="Y39" s="6">
         <v>21.617</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="Z39" s="6">
         <v>21.762</v>
       </c>
-      <c r="Z39" s="6">
+      <c r="AA39" s="6">
         <v>22.544</v>
       </c>
-      <c r="AD39" s="4" t="inlineStr">
+      <c r="AE39" s="4" t="inlineStr">
         <is>
           <t>Z08_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE39" s="4" t="inlineStr">
+      <c r="AF39" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG39" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF39" s="4" t="inlineStr">
+      <c r="AH39" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG39" s="4" t="inlineStr">
+      <c r="AI39" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI39" s="4" t="inlineStr">
+      <c r="AK39" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ39" s="4" t="inlineStr">
+      <c r="AL39" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4067,110 +4459,120 @@
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
+          <t>Z08_B04_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
           <t>8.4</t>
         </is>
       </c>
-      <c r="B40" s="5" t="b">
+      <c r="C40" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C40" s="5" t="b">
+      <c r="D40" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D40" s="6">
+      <c r="E40" s="6">
         <v>31.373</v>
       </c>
-      <c r="E40" s="6">
+      <c r="F40" s="6">
         <v>31.877</v>
       </c>
-      <c r="F40" s="6">
+      <c r="G40" s="6">
         <v>31.79</v>
       </c>
-      <c r="G40" s="6">
+      <c r="H40" s="6">
         <v>31.579</v>
       </c>
-      <c r="H40" s="6">
+      <c r="I40" s="6">
         <v>31.987</v>
       </c>
-      <c r="I40" s="6">
+      <c r="J40" s="6">
         <v>32.268</v>
       </c>
-      <c r="J40" s="6">
+      <c r="K40" s="6">
         <v>33.567</v>
       </c>
-      <c r="K40" s="6">
+      <c r="L40" s="6">
         <v>34.643</v>
       </c>
-      <c r="L40" s="6">
+      <c r="M40" s="6">
         <v>35.075</v>
       </c>
-      <c r="M40" s="6">
+      <c r="N40" s="6">
         <v>33.193</v>
       </c>
-      <c r="N40" s="6">
+      <c r="O40" s="6">
         <v>34.666</v>
       </c>
-      <c r="O40" s="6">
+      <c r="P40" s="6">
         <v>36.031</v>
       </c>
-      <c r="P40" s="6">
+      <c r="Q40" s="6">
         <v>36.114</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="R40" s="6">
         <v>36.173</v>
       </c>
-      <c r="R40" s="6">
+      <c r="S40" s="6">
         <v>36.818</v>
       </c>
-      <c r="S40" s="6">
+      <c r="T40" s="6">
         <v>37.046</v>
       </c>
-      <c r="T40" s="6">
+      <c r="U40" s="6">
         <v>37.567</v>
       </c>
-      <c r="U40" s="6">
+      <c r="V40" s="6">
         <v>38.43</v>
       </c>
-      <c r="V40" s="6">
+      <c r="W40" s="6">
         <v>38.691</v>
       </c>
-      <c r="W40" s="6">
+      <c r="X40" s="6">
         <v>39.012</v>
       </c>
-      <c r="X40" s="6">
+      <c r="Y40" s="6">
         <v>37.539</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="Z40" s="6">
         <v>38.509</v>
       </c>
-      <c r="Z40" s="6">
+      <c r="AA40" s="6">
         <v>38.926</v>
       </c>
-      <c r="AD40" s="4" t="inlineStr">
+      <c r="AE40" s="4" t="inlineStr">
         <is>
           <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE40" s="4" t="inlineStr">
+      <c r="AF40" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B04_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG40" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF40" s="4" t="inlineStr">
+      <c r="AH40" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG40" s="4" t="inlineStr">
+      <c r="AI40" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI40" s="4" t="inlineStr">
+      <c r="AK40" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ40" s="4" t="inlineStr">
+      <c r="AL40" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4179,113 +4581,123 @@
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
+          <t>Z08_B05_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
           <t>8.5.a</t>
         </is>
       </c>
-      <c r="B41" s="5" t="b">
+      <c r="C41" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C41" s="5" t="b">
+      <c r="D41" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D41" s="6">
+      <c r="E41" s="6">
         <v>68.7</v>
       </c>
-      <c r="E41" s="6">
+      <c r="F41" s="6">
         <v>69.1</v>
       </c>
-      <c r="F41" s="6">
+      <c r="G41" s="6">
         <v>68.8</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H41" s="6">
         <v>68.4</v>
       </c>
-      <c r="H41" s="6">
+      <c r="I41" s="6">
         <v>67.9</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="6">
         <v>69.4</v>
       </c>
-      <c r="J41" s="6">
+      <c r="K41" s="6">
         <v>71.1</v>
       </c>
-      <c r="K41" s="6">
+      <c r="L41" s="6">
         <v>72.9</v>
       </c>
-      <c r="L41" s="6">
+      <c r="M41" s="6">
         <v>74</v>
       </c>
-      <c r="M41" s="6">
+      <c r="N41" s="6">
         <v>74.2</v>
       </c>
-      <c r="N41" s="6">
+      <c r="O41" s="6">
         <v>75</v>
       </c>
-      <c r="O41" s="6">
+      <c r="P41" s="6">
         <v>76.5</v>
       </c>
-      <c r="P41" s="6">
+      <c r="Q41" s="6">
         <v>76.9</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="R41" s="6">
         <v>77.3</v>
       </c>
-      <c r="R41" s="6">
+      <c r="S41" s="6">
         <v>77.7</v>
       </c>
-      <c r="S41" s="6">
+      <c r="T41" s="6">
         <v>78</v>
       </c>
-      <c r="T41" s="6">
+      <c r="U41" s="6">
         <v>78.6</v>
       </c>
-      <c r="U41" s="6">
+      <c r="V41" s="6">
         <v>79.2</v>
       </c>
-      <c r="V41" s="6">
+      <c r="W41" s="6">
         <v>79.9</v>
       </c>
-      <c r="W41" s="6">
+      <c r="X41" s="6">
         <v>80.6</v>
       </c>
-      <c r="X41" s="6">
+      <c r="Y41" s="6">
         <v>79.2</v>
       </c>
-      <c r="Y41" s="6">
+      <c r="Z41" s="6">
         <v>79.4</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="AA41" s="6">
         <v>80.7</v>
       </c>
-      <c r="AD41" s="4" t="inlineStr">
+      <c r="AE41" s="4" t="inlineStr">
         <is>
           <t>Z08_B05_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE41" s="4" t="inlineStr">
+      <c r="AF41" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B05_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG41" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF41" s="4" t="inlineStr">
+      <c r="AH41" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG41" s="4" t="inlineStr">
+      <c r="AI41" s="4" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AH41" s="7">
+      <c r="AJ41" s="7">
         <v>2030</v>
       </c>
-      <c r="AI41" s="4" t="inlineStr">
+      <c r="AK41" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ41" s="4" t="inlineStr">
+      <c r="AL41" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4294,113 +4706,123 @@
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
+          <t>Z08_B05_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
           <t>8.5.b</t>
         </is>
       </c>
-      <c r="B42" s="5" t="b">
+      <c r="C42" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C42" s="5" t="b">
+      <c r="D42" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="6">
         <v>19.6</v>
       </c>
-      <c r="E42" s="6">
+      <c r="F42" s="6">
         <v>20.8</v>
       </c>
-      <c r="F42" s="6">
+      <c r="G42" s="6">
         <v>22.2</v>
       </c>
-      <c r="G42" s="6">
+      <c r="H42" s="6">
         <v>23.5</v>
       </c>
-      <c r="H42" s="6">
+      <c r="I42" s="6">
         <v>25.3</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <v>28.2</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <v>29.7</v>
       </c>
-      <c r="K42" s="6">
+      <c r="L42" s="6">
         <v>32.9</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M42" s="6">
         <v>35.1</v>
       </c>
-      <c r="M42" s="6">
+      <c r="N42" s="6">
         <v>38.6</v>
       </c>
-      <c r="N42" s="6">
+      <c r="O42" s="6">
         <v>41.1</v>
       </c>
-      <c r="O42" s="6">
+      <c r="P42" s="6">
         <v>44.3</v>
       </c>
-      <c r="P42" s="6">
+      <c r="Q42" s="6">
         <v>46.6</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="R42" s="6">
         <v>50</v>
       </c>
-      <c r="R42" s="6">
+      <c r="S42" s="6">
         <v>52.6</v>
       </c>
-      <c r="S42" s="6">
+      <c r="T42" s="6">
         <v>53.3</v>
       </c>
-      <c r="T42" s="6">
+      <c r="U42" s="6">
         <v>56</v>
       </c>
-      <c r="U42" s="6">
+      <c r="V42" s="6">
         <v>58.4</v>
       </c>
-      <c r="V42" s="6">
+      <c r="W42" s="6">
         <v>60.3</v>
       </c>
-      <c r="W42" s="6">
+      <c r="X42" s="6">
         <v>61.8</v>
       </c>
-      <c r="X42" s="6">
+      <c r="Y42" s="6">
         <v>60.6</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="Z42" s="6">
         <v>61.1</v>
       </c>
-      <c r="Z42" s="6">
+      <c r="AA42" s="6">
         <v>63.2</v>
       </c>
-      <c r="AD42" s="4" t="inlineStr">
+      <c r="AE42" s="4" t="inlineStr">
         <is>
           <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE42" s="4" t="inlineStr">
+      <c r="AF42" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B05_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG42" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF42" s="4" t="inlineStr">
+      <c r="AH42" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG42" s="4" t="inlineStr">
+      <c r="AI42" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="AH42" s="7">
+      <c r="AJ42" s="7">
         <v>2030</v>
       </c>
-      <c r="AI42" s="4" t="inlineStr">
+      <c r="AK42" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ42" s="4" t="inlineStr">
+      <c r="AL42" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4409,68 +4831,78 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
+          <t>Z08_B06_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="B43" s="5" t="b">
+      <c r="C43" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C43" s="5" t="b">
+      <c r="D43" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="R43" s="6">
+      <c r="S43" s="6">
         <v>59</v>
       </c>
-      <c r="S43" s="6">
+      <c r="T43" s="6">
         <v>172</v>
       </c>
-      <c r="T43" s="6">
+      <c r="U43" s="6">
         <v>188</v>
       </c>
-      <c r="U43" s="6">
+      <c r="V43" s="6">
         <v>147</v>
       </c>
-      <c r="V43" s="6">
+      <c r="W43" s="6">
         <v>128</v>
       </c>
-      <c r="W43" s="6">
+      <c r="X43" s="6">
         <v>124</v>
       </c>
-      <c r="X43" s="6">
+      <c r="Y43" s="6">
         <v>136</v>
       </c>
-      <c r="Y43" s="6">
+      <c r="Z43" s="6">
         <v>123</v>
       </c>
-      <c r="Z43" s="6">
+      <c r="AA43" s="6">
         <v>128</v>
       </c>
-      <c r="AD43" s="4" t="inlineStr">
+      <c r="AE43" s="4" t="inlineStr">
         <is>
           <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE43" s="4" t="inlineStr">
+      <c r="AF43" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B06_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG43" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF43" s="4" t="inlineStr">
+      <c r="AH43" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG43" s="4" t="inlineStr">
+      <c r="AI43" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI43" s="4" t="inlineStr">
+      <c r="AK43" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AJ43" s="4" t="inlineStr">
+      <c r="AL43" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4479,110 +4911,120 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
+          <t>Z09_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
           <t>9.1.a</t>
         </is>
       </c>
-      <c r="B44" s="5" t="b">
+      <c r="C44" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C44" s="5" t="b">
+      <c r="D44" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D44" s="6">
+      <c r="E44" s="6">
         <v>2.41</v>
       </c>
-      <c r="E44" s="6">
+      <c r="F44" s="6">
         <v>2.4</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
         <v>2.44</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <v>2.47</v>
-      </c>
-      <c r="H44" s="6">
-        <v>2.44</v>
       </c>
       <c r="I44" s="6">
         <v>2.44</v>
       </c>
       <c r="J44" s="6">
+        <v>2.44</v>
+      </c>
+      <c r="K44" s="6">
         <v>2.47</v>
       </c>
-      <c r="K44" s="6">
+      <c r="L44" s="6">
         <v>2.46</v>
       </c>
-      <c r="L44" s="6">
+      <c r="M44" s="6">
         <v>2.62</v>
       </c>
-      <c r="M44" s="6">
+      <c r="N44" s="6">
         <v>2.74</v>
       </c>
-      <c r="N44" s="6">
+      <c r="O44" s="6">
         <v>2.73</v>
       </c>
-      <c r="O44" s="6">
+      <c r="P44" s="6">
         <v>2.81</v>
       </c>
-      <c r="P44" s="6">
+      <c r="Q44" s="6">
         <v>2.88</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="R44" s="6">
         <v>2.84</v>
       </c>
-      <c r="R44" s="6">
+      <c r="S44" s="6">
         <v>2.88</v>
       </c>
-      <c r="S44" s="6">
+      <c r="T44" s="6">
         <v>2.93</v>
       </c>
-      <c r="T44" s="6">
+      <c r="U44" s="6">
         <v>2.94</v>
       </c>
-      <c r="U44" s="6">
+      <c r="V44" s="6">
         <v>3.05</v>
       </c>
-      <c r="V44" s="6">
+      <c r="W44" s="6">
         <v>3.11</v>
       </c>
-      <c r="W44" s="6">
+      <c r="X44" s="6">
         <v>3.17</v>
-      </c>
-      <c r="X44" s="6">
-        <v>3.13</v>
       </c>
       <c r="Y44" s="6">
         <v>3.13</v>
       </c>
-      <c r="AD44" s="4" t="inlineStr">
+      <c r="Z44" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="AE44" s="4" t="inlineStr">
         <is>
           <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE44" s="4" t="inlineStr">
+      <c r="AF44" s="4" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG44" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF44" s="4" t="inlineStr">
+      <c r="AH44" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG44" s="4" t="inlineStr">
+      <c r="AI44" s="4" t="inlineStr">
         <is>
           <t>3,5</t>
         </is>
       </c>
-      <c r="AH44" s="7">
+      <c r="AJ44" s="7">
         <v>2025</v>
       </c>
-      <c r="AI44" s="4" t="inlineStr">
+      <c r="AK44" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ44" s="4" t="inlineStr">
+      <c r="AL44" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4591,44 +5033,54 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
+          <t>Z09_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
           <t>9.1.b</t>
         </is>
       </c>
-      <c r="B45" s="5" t="b">
+      <c r="C45" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C45" s="5" t="b">
+      <c r="D45" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="AD45" s="4" t="inlineStr">
+      <c r="AE45" s="4" t="inlineStr">
         <is>
           <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE45" s="4" t="inlineStr">
+      <c r="AF45" s="4" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG45" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF45" s="4" t="inlineStr">
+      <c r="AH45" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG45" s="4" t="inlineStr">
+      <c r="AI45" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="AH45" s="7">
+      <c r="AJ45" s="7">
         <v>2025</v>
       </c>
-      <c r="AI45" s="4" t="inlineStr">
+      <c r="AK45" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
       </c>
-      <c r="AJ45" s="4" t="inlineStr">
+      <c r="AL45" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
@@ -4637,107 +5089,117 @@
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
+          <t>Z10_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
           <t>10.1</t>
         </is>
-      </c>
-      <c r="B46" s="5" t="b">
-        <v>0</v>
       </c>
       <c r="C46" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D46" s="6">
-        <v>91.7</v>
+      <c r="D46" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="E46" s="6">
-        <v>91.3</v>
+        <v>80.1</v>
       </c>
       <c r="F46" s="6">
-        <v>91.8</v>
+        <v>79.8</v>
       </c>
       <c r="G46" s="6">
-        <v>92.1</v>
+        <v>80.6</v>
       </c>
       <c r="H46" s="6">
-        <v>92.6</v>
+        <v>80.9</v>
       </c>
       <c r="I46" s="6">
-        <v>92.8</v>
+        <v>81.9</v>
       </c>
       <c r="J46" s="6">
-        <v>93.1</v>
+        <v>82.6</v>
       </c>
       <c r="K46" s="6">
-        <v>93.6</v>
+        <v>83.2</v>
       </c>
       <c r="L46" s="6">
-        <v>93.8</v>
+        <v>84</v>
       </c>
       <c r="M46" s="6">
-        <v>94.2</v>
+        <v>85</v>
       </c>
       <c r="N46" s="6">
-        <v>94.6</v>
+        <v>86.2</v>
       </c>
       <c r="O46" s="6">
-        <v>95</v>
+        <v>87.2</v>
       </c>
       <c r="P46" s="6">
-        <v>95.1</v>
+        <v>88.2</v>
       </c>
       <c r="Q46" s="6">
-        <v>95.4</v>
+        <v>88.6</v>
       </c>
       <c r="R46" s="6">
-        <v>95.1</v>
+        <v>89.3</v>
       </c>
       <c r="S46" s="6">
-        <v>95</v>
+        <v>88.5</v>
       </c>
       <c r="T46" s="6">
-        <v>95.1</v>
+        <v>88.2</v>
       </c>
       <c r="U46" s="6">
-        <v>94.8</v>
+        <v>85.8</v>
       </c>
       <c r="V46" s="6">
-        <v>94.6</v>
+        <v>81.8</v>
       </c>
       <c r="W46" s="6">
-        <v>94.5</v>
+        <v>81.8</v>
       </c>
       <c r="X46" s="6">
-        <v>94.9</v>
+        <v>82.4</v>
       </c>
       <c r="Y46" s="6">
-        <v>94.9</v>
-      </c>
-      <c r="AD46" s="4" t="inlineStr">
+        <v>85.3</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>84.3</v>
+      </c>
+      <c r="AE46" s="4" t="inlineStr">
         <is>
           <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE46" s="4" t="inlineStr">
+      <c r="AF46" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG46" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AF46" s="4" t="inlineStr">
+      <c r="AH46" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AG46" s="4" t="inlineStr">
+      <c r="AI46" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI46" s="4" t="inlineStr">
+      <c r="AK46" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AJ46" s="4" t="inlineStr">
+      <c r="AL46" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4746,107 +5208,117 @@
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
+          <t>Z10_B01_P01_Ib01_I01_D004</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
           <t>10.1</t>
         </is>
-      </c>
-      <c r="B47" s="5" t="b">
-        <v>1</v>
       </c>
       <c r="C47" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="6">
-        <v>80.1</v>
+      <c r="D47" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="E47" s="6">
-        <v>79.8</v>
+        <v>91.7</v>
       </c>
       <c r="F47" s="6">
-        <v>80.6</v>
+        <v>91.3</v>
       </c>
       <c r="G47" s="6">
-        <v>80.9</v>
+        <v>91.8</v>
       </c>
       <c r="H47" s="6">
-        <v>81.9</v>
+        <v>92.1</v>
       </c>
       <c r="I47" s="6">
-        <v>82.6</v>
+        <v>92.6</v>
       </c>
       <c r="J47" s="6">
-        <v>83.2</v>
+        <v>92.8</v>
       </c>
       <c r="K47" s="6">
-        <v>84</v>
+        <v>93.1</v>
       </c>
       <c r="L47" s="6">
-        <v>85</v>
+        <v>93.6</v>
       </c>
       <c r="M47" s="6">
-        <v>86.2</v>
+        <v>93.8</v>
       </c>
       <c r="N47" s="6">
-        <v>87.2</v>
+        <v>94.2</v>
       </c>
       <c r="O47" s="6">
-        <v>88.2</v>
+        <v>94.6</v>
       </c>
       <c r="P47" s="6">
-        <v>88.6</v>
+        <v>95</v>
       </c>
       <c r="Q47" s="6">
-        <v>89.3</v>
+        <v>95.1</v>
       </c>
       <c r="R47" s="6">
-        <v>88.5</v>
+        <v>95.4</v>
       </c>
       <c r="S47" s="6">
-        <v>88.2</v>
+        <v>95.1</v>
       </c>
       <c r="T47" s="6">
-        <v>85.8</v>
+        <v>95</v>
       </c>
       <c r="U47" s="6">
-        <v>81.8</v>
+        <v>95.1</v>
       </c>
       <c r="V47" s="6">
-        <v>81.8</v>
+        <v>94.8</v>
       </c>
       <c r="W47" s="6">
-        <v>82.4</v>
+        <v>94.6</v>
       </c>
       <c r="X47" s="6">
-        <v>85.3</v>
+        <v>94.5</v>
       </c>
       <c r="Y47" s="6">
-        <v>84.3</v>
-      </c>
-      <c r="AD47" s="4" t="inlineStr">
+        <v>94.9</v>
+      </c>
+      <c r="Z47" s="6">
+        <v>94.9</v>
+      </c>
+      <c r="AE47" s="4" t="inlineStr">
         <is>
           <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE47" s="4" t="inlineStr">
+      <c r="AF47" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01_I01_D004</t>
+        </is>
+      </c>
+      <c r="AG47" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AF47" s="4" t="inlineStr">
+      <c r="AH47" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AG47" s="4" t="inlineStr">
+      <c r="AI47" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI47" s="4" t="inlineStr">
+      <c r="AK47" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AJ47" s="4" t="inlineStr">
+      <c r="AL47" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4855,110 +5327,120 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
+          <t>Z11_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
           <t>11.1.a</t>
         </is>
       </c>
-      <c r="B48" s="5" t="b">
+      <c r="C48" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C48" s="5" t="b">
+      <c r="D48" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D48" s="6">
+      <c r="E48" s="6">
         <v>129.157</v>
       </c>
-      <c r="E48" s="6">
+      <c r="F48" s="6">
         <v>128.368</v>
       </c>
-      <c r="F48" s="6">
+      <c r="G48" s="6">
         <v>123.041</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <v>115.103</v>
       </c>
-      <c r="H48" s="6">
+      <c r="I48" s="6">
         <v>115.116</v>
       </c>
-      <c r="I48" s="6">
+      <c r="J48" s="6">
         <v>114.225</v>
       </c>
-      <c r="J48" s="6">
+      <c r="K48" s="6">
         <v>113.335</v>
       </c>
-      <c r="K48" s="6">
+      <c r="L48" s="6">
         <v>112.787</v>
       </c>
-      <c r="L48" s="6">
+      <c r="M48" s="6">
         <v>103.77</v>
       </c>
-      <c r="M48" s="6">
+      <c r="N48" s="6">
         <v>93.907</v>
       </c>
-      <c r="N48" s="6">
+      <c r="O48" s="6">
         <v>86.647</v>
       </c>
-      <c r="O48" s="6">
+      <c r="P48" s="6">
         <v>80.875</v>
       </c>
-      <c r="P48" s="6">
+      <c r="Q48" s="6">
         <v>74.442</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="R48" s="6">
         <v>72.569</v>
       </c>
-      <c r="R48" s="6">
+      <c r="S48" s="6">
         <v>69.209</v>
       </c>
-      <c r="S48" s="6">
+      <c r="T48" s="6">
         <v>66.056</v>
       </c>
-      <c r="T48" s="6">
+      <c r="U48" s="6">
         <v>61.539</v>
       </c>
-      <c r="U48" s="6">
+      <c r="V48" s="6">
         <v>57.692</v>
       </c>
-      <c r="V48" s="6">
+      <c r="W48" s="6">
         <v>56.373</v>
       </c>
-      <c r="W48" s="6">
+      <c r="X48" s="6">
         <v>52.37</v>
       </c>
-      <c r="X48" s="6">
+      <c r="Y48" s="6">
         <v>54.051</v>
       </c>
-      <c r="Y48" s="6">
+      <c r="Z48" s="6">
         <v>54.749</v>
       </c>
-      <c r="AD48" s="4" t="inlineStr">
+      <c r="AE48" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE48" s="4" t="inlineStr">
+      <c r="AF48" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG48" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF48" s="4" t="inlineStr">
+      <c r="AH48" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG48" s="4" t="inlineStr">
+      <c r="AI48" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH48" s="7">
+      <c r="AJ48" s="7">
         <v>2030</v>
       </c>
-      <c r="AI48" s="4" t="inlineStr">
+      <c r="AK48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ48" s="4" t="inlineStr">
+      <c r="AL48" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4967,95 +5449,105 @@
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
+          <t>Z11_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
           <t>11.1.b</t>
         </is>
       </c>
-      <c r="B49" s="5" t="b">
+      <c r="C49" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C49" s="5" t="b">
+      <c r="D49" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <v>-5.096</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <v>-4.971</v>
       </c>
-      <c r="J49" s="6">
+      <c r="K49" s="6">
         <v>-4.848</v>
       </c>
-      <c r="K49" s="6">
+      <c r="L49" s="6">
         <v>-4.728</v>
       </c>
-      <c r="L49" s="6">
+      <c r="M49" s="6">
         <v>-4.609</v>
       </c>
-      <c r="M49" s="6">
+      <c r="N49" s="6">
         <v>-4.33</v>
       </c>
-      <c r="N49" s="6">
+      <c r="O49" s="6">
         <v>-4.035</v>
       </c>
-      <c r="O49" s="6">
+      <c r="P49" s="6">
         <v>-4.223</v>
       </c>
-      <c r="P49" s="6">
+      <c r="Q49" s="6">
         <v>-3.798</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="R49" s="6">
         <v>-3.636</v>
       </c>
-      <c r="R49" s="6">
+      <c r="S49" s="6">
         <v>-3.693</v>
       </c>
-      <c r="S49" s="6">
+      <c r="T49" s="6">
         <v>-2.876</v>
       </c>
-      <c r="T49" s="6">
+      <c r="U49" s="6">
         <v>-2.715</v>
       </c>
-      <c r="U49" s="6">
+      <c r="V49" s="6">
         <v>-2.764</v>
       </c>
-      <c r="V49" s="6">
+      <c r="W49" s="6">
         <v>-2.795</v>
       </c>
-      <c r="W49" s="6">
+      <c r="X49" s="6">
         <v>-2.766</v>
       </c>
-      <c r="X49" s="6">
+      <c r="Y49" s="6">
         <v>-2.836</v>
       </c>
-      <c r="Y49" s="6">
+      <c r="Z49" s="6">
         <v>-2.711</v>
       </c>
-      <c r="AD49" s="4" t="inlineStr">
+      <c r="AE49" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE49" s="4" t="inlineStr">
+      <c r="AF49" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG49" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF49" s="4" t="inlineStr">
+      <c r="AH49" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG49" s="4" t="inlineStr">
+      <c r="AI49" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI49" s="4" t="inlineStr">
+      <c r="AK49" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AJ49" s="4" t="inlineStr">
+      <c r="AL49" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5064,107 +5556,117 @@
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
+          <t>Z11_B01_P01_Ib03_I01_D001</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
           <t>11.1.c</t>
         </is>
       </c>
-      <c r="B50" s="5" t="b">
+      <c r="C50" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C50" s="5" t="b">
+      <c r="D50" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D50" s="6">
+      <c r="E50" s="6">
         <v>100</v>
       </c>
-      <c r="E50" s="6">
+      <c r="F50" s="6">
         <v>99.27</v>
       </c>
-      <c r="F50" s="6">
+      <c r="G50" s="6">
         <v>98.453</v>
       </c>
-      <c r="G50" s="6">
+      <c r="H50" s="6">
         <v>97.531</v>
       </c>
-      <c r="H50" s="6">
+      <c r="I50" s="6">
         <v>96.596</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <v>95.727</v>
       </c>
-      <c r="J50" s="6">
+      <c r="K50" s="6">
         <v>94.803</v>
       </c>
-      <c r="K50" s="6">
+      <c r="L50" s="6">
         <v>93.924</v>
       </c>
-      <c r="L50" s="6">
+      <c r="M50" s="6">
         <v>92.924</v>
       </c>
-      <c r="M50" s="6">
+      <c r="N50" s="6">
         <v>92.141</v>
       </c>
-      <c r="N50" s="6">
+      <c r="O50" s="6">
         <v>91.543</v>
       </c>
-      <c r="O50" s="6">
+      <c r="P50" s="6">
         <v>90.807</v>
       </c>
-      <c r="P50" s="6">
+      <c r="Q50" s="6">
         <v>90.585</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="R50" s="6">
         <v>90.431</v>
       </c>
-      <c r="R50" s="6">
+      <c r="S50" s="6">
         <v>90.361</v>
       </c>
-      <c r="S50" s="6">
+      <c r="T50" s="6">
         <v>91.129</v>
       </c>
-      <c r="T50" s="6">
+      <c r="U50" s="6">
         <v>91.121</v>
       </c>
-      <c r="U50" s="6">
+      <c r="V50" s="6">
         <v>90.957</v>
       </c>
-      <c r="V50" s="6">
+      <c r="W50" s="6">
         <v>90.631</v>
       </c>
-      <c r="W50" s="6">
+      <c r="X50" s="6">
         <v>90.494</v>
       </c>
-      <c r="X50" s="6">
+      <c r="Y50" s="6">
         <v>90.112</v>
       </c>
-      <c r="Y50" s="6">
+      <c r="Z50" s="6">
         <v>89.837</v>
       </c>
-      <c r="AD50" s="4" t="inlineStr">
+      <c r="AE50" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
-      <c r="AE50" s="4" t="inlineStr">
+      <c r="AF50" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib03_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG50" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF50" s="4" t="inlineStr">
+      <c r="AH50" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG50" s="4" t="inlineStr">
+      <c r="AI50" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI50" s="4" t="inlineStr">
+      <c r="AK50" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AJ50" s="4" t="inlineStr">
+      <c r="AL50" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5173,95 +5675,105 @@
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
+          <t>Z11_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
           <t>11.2.a</t>
         </is>
       </c>
-      <c r="B51" s="5" t="b">
+      <c r="C51" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C51" s="5" t="b">
+      <c r="D51" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <v>100</v>
       </c>
-      <c r="J51" s="6">
+      <c r="K51" s="6">
         <v>104.935</v>
       </c>
-      <c r="K51" s="6">
+      <c r="L51" s="6">
         <v>107.875</v>
       </c>
-      <c r="L51" s="6">
+      <c r="M51" s="6">
         <v>105.894</v>
       </c>
-      <c r="M51" s="6">
+      <c r="N51" s="6">
         <v>95.759</v>
       </c>
-      <c r="N51" s="6">
+      <c r="O51" s="6">
         <v>99.336</v>
       </c>
-      <c r="O51" s="6">
+      <c r="P51" s="6">
         <v>100.956</v>
       </c>
-      <c r="P51" s="6">
+      <c r="Q51" s="6">
         <v>98.965</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="R51" s="6">
         <v>99.973</v>
       </c>
-      <c r="R51" s="6">
+      <c r="S51" s="6">
         <v>101.539</v>
       </c>
-      <c r="S51" s="6">
+      <c r="T51" s="6">
         <v>103.068</v>
       </c>
-      <c r="T51" s="6">
+      <c r="U51" s="6">
         <v>104.894</v>
       </c>
-      <c r="U51" s="6">
+      <c r="V51" s="6">
         <v>107.47</v>
       </c>
-      <c r="V51" s="6">
+      <c r="W51" s="6">
         <v>109.201</v>
       </c>
-      <c r="W51" s="6">
+      <c r="X51" s="6">
         <v>108.099</v>
       </c>
-      <c r="X51" s="6">
+      <c r="Y51" s="6">
         <v>104.988</v>
       </c>
-      <c r="Y51" s="6">
+      <c r="Z51" s="6">
         <v>106.974</v>
       </c>
-      <c r="AD51" s="4" t="inlineStr">
+      <c r="AE51" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE51" s="4" t="inlineStr">
+      <c r="AF51" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG51" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF51" s="4" t="inlineStr">
+      <c r="AH51" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG51" s="4" t="inlineStr">
+      <c r="AI51" s="4" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="AH51" s="7">
+      <c r="AJ51" s="7">
         <v>2030</v>
       </c>
-      <c r="AI51" s="4" t="inlineStr">
+      <c r="AK51" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ51" s="4" t="inlineStr">
+      <c r="AL51" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5270,95 +5782,105 @@
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
+          <t>Z11_B02_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
           <t>11.2.b</t>
         </is>
       </c>
-      <c r="B52" s="5" t="b">
+      <c r="C52" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C52" s="5" t="b">
+      <c r="D52" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I52" s="6">
+      <c r="J52" s="6">
         <v>100</v>
       </c>
-      <c r="J52" s="6">
+      <c r="K52" s="6">
         <v>99.247</v>
       </c>
-      <c r="K52" s="6">
+      <c r="L52" s="6">
         <v>99.354</v>
       </c>
-      <c r="L52" s="6">
+      <c r="M52" s="6">
         <v>98.265</v>
       </c>
-      <c r="M52" s="6">
+      <c r="N52" s="6">
         <v>99.416</v>
       </c>
-      <c r="N52" s="6">
+      <c r="O52" s="6">
         <v>99.331</v>
       </c>
-      <c r="O52" s="6">
+      <c r="P52" s="6">
         <v>100.065</v>
       </c>
-      <c r="P52" s="6">
+      <c r="Q52" s="6">
         <v>99.386</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="R52" s="6">
         <v>99.324</v>
       </c>
-      <c r="R52" s="6">
+      <c r="S52" s="6">
         <v>100.354</v>
       </c>
-      <c r="S52" s="6">
+      <c r="T52" s="6">
         <v>99.685</v>
       </c>
-      <c r="T52" s="6">
+      <c r="U52" s="6">
         <v>100.673</v>
       </c>
-      <c r="U52" s="6">
+      <c r="V52" s="6">
         <v>101.189</v>
       </c>
-      <c r="V52" s="6">
+      <c r="W52" s="6">
         <v>101.054</v>
       </c>
-      <c r="W52" s="6">
+      <c r="X52" s="6">
         <v>101.647</v>
       </c>
-      <c r="X52" s="6">
+      <c r="Y52" s="6">
         <v>85.468</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="Z52" s="6">
         <v>84.448</v>
       </c>
-      <c r="AD52" s="4" t="inlineStr">
+      <c r="AE52" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE52" s="4" t="inlineStr">
+      <c r="AF52" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG52" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF52" s="4" t="inlineStr">
+      <c r="AH52" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG52" s="4" t="inlineStr">
+      <c r="AI52" s="4" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="AH52" s="7">
+      <c r="AJ52" s="7">
         <v>2030</v>
       </c>
-      <c r="AI52" s="4" t="inlineStr">
+      <c r="AK52" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ52" s="4" t="inlineStr">
+      <c r="AL52" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5367,53 +5889,63 @@
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
+          <t>Z11_B02_P01_Ib03_I01_D001</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
           <t>11.2.c</t>
         </is>
       </c>
-      <c r="B53" s="5" t="b">
+      <c r="C53" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C53" s="5" t="b">
+      <c r="D53" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P53" s="6">
+      <c r="Q53" s="6">
         <v>23.49</v>
       </c>
-      <c r="T53" s="6">
+      <c r="U53" s="6">
         <v>22.41</v>
       </c>
-      <c r="V53" s="6">
+      <c r="W53" s="6">
         <v>21.86</v>
       </c>
-      <c r="X53" s="6">
+      <c r="Y53" s="6">
         <v>20.59</v>
       </c>
-      <c r="AD53" s="4" t="inlineStr">
+      <c r="AE53" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
-      <c r="AE53" s="4" t="inlineStr">
+      <c r="AF53" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib03_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG53" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF53" s="4" t="inlineStr">
+      <c r="AH53" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG53" s="4" t="inlineStr">
+      <c r="AI53" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI53" s="4" t="inlineStr">
+      <c r="AK53" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
       </c>
-      <c r="AJ53" s="4" t="inlineStr">
+      <c r="AL53" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
@@ -5422,77 +5954,87 @@
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
+          <t>Z11_B04_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
           <t>11.4</t>
         </is>
       </c>
-      <c r="B54" s="5" t="b">
+      <c r="C54" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C54" s="5" t="b">
+      <c r="D54" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P54" s="6">
+      <c r="Q54" s="6">
         <v>5.6</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="R54" s="6">
         <v>6.9</v>
       </c>
-      <c r="R54" s="6">
+      <c r="S54" s="6">
         <v>11.2</v>
       </c>
-      <c r="S54" s="6">
+      <c r="T54" s="6">
         <v>18.2</v>
       </c>
-      <c r="T54" s="6">
+      <c r="U54" s="6">
         <v>20.4</v>
       </c>
-      <c r="U54" s="6">
+      <c r="V54" s="6">
         <v>23.7</v>
       </c>
-      <c r="V54" s="6">
+      <c r="W54" s="6">
         <v>24.2</v>
       </c>
-      <c r="W54" s="6">
+      <c r="X54" s="6">
         <v>32.1</v>
       </c>
-      <c r="X54" s="6">
+      <c r="Y54" s="6">
         <v>35.6</v>
       </c>
-      <c r="Y54" s="6">
+      <c r="Z54" s="6">
         <v>40.2</v>
       </c>
-      <c r="Z54" s="6">
+      <c r="AA54" s="6">
         <v>44.9</v>
       </c>
-      <c r="AD54" s="4" t="inlineStr">
+      <c r="AE54" s="4" t="inlineStr">
         <is>
           <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE54" s="4" t="inlineStr">
+      <c r="AF54" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B04_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG54" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF54" s="4" t="inlineStr">
+      <c r="AH54" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG54" s="4" t="inlineStr">
+      <c r="AI54" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AH54" s="7">
+      <c r="AJ54" s="7">
         <v>2030</v>
       </c>
-      <c r="AI54" s="4" t="inlineStr">
+      <c r="AK54" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ54" s="4" t="inlineStr">
+      <c r="AL54" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -5501,71 +6043,81 @@
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
+          <t>Z12_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
           <t>12.1.a</t>
         </is>
       </c>
-      <c r="B55" s="5" t="b">
+      <c r="C55" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C55" s="5" t="b">
+      <c r="D55" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P55" s="6">
+      <c r="Q55" s="6">
         <v>3.6</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="R55" s="6">
         <v>4.4</v>
       </c>
-      <c r="R55" s="6">
+      <c r="S55" s="6">
         <v>5.9</v>
       </c>
-      <c r="S55" s="6">
+      <c r="T55" s="6">
         <v>7.6</v>
       </c>
-      <c r="T55" s="6">
+      <c r="U55" s="6">
         <v>8.7</v>
       </c>
-      <c r="U55" s="6">
+      <c r="V55" s="6">
         <v>8.4</v>
       </c>
-      <c r="V55" s="6">
+      <c r="W55" s="6">
         <v>7.4</v>
       </c>
-      <c r="W55" s="6">
+      <c r="X55" s="6">
         <v>7.9</v>
       </c>
-      <c r="X55" s="6">
+      <c r="Y55" s="6">
         <v>13.4</v>
       </c>
-      <c r="AD55" s="4" t="inlineStr">
+      <c r="AE55" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE55" s="4" t="inlineStr">
+      <c r="AF55" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG55" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF55" s="4" t="inlineStr">
+      <c r="AH55" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG55" s="4" t="inlineStr">
+      <c r="AI55" s="4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AH55" s="7">
+      <c r="AJ55" s="7">
         <v>2030</v>
       </c>
-      <c r="AI55" s="4" t="inlineStr">
+      <c r="AK55" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ55" s="4" t="inlineStr">
+      <c r="AL55" s="4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -5574,68 +6126,78 @@
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
+          <t>Z12_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
           <t>12.1.ba</t>
         </is>
       </c>
-      <c r="B56" s="5" t="b">
+      <c r="C56" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C56" s="5" t="b">
+      <c r="D56" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N56" s="6">
+      <c r="O56" s="6">
         <v>100</v>
       </c>
-      <c r="O56" s="6">
+      <c r="P56" s="6">
         <v>101.382</v>
       </c>
-      <c r="P56" s="6">
+      <c r="Q56" s="6">
         <v>99.693</v>
       </c>
-      <c r="Q56" s="6">
+      <c r="R56" s="6">
         <v>98.464</v>
       </c>
-      <c r="R56" s="6">
+      <c r="S56" s="6">
         <v>99.386</v>
       </c>
-      <c r="S56" s="6">
+      <c r="T56" s="6">
         <v>97.696</v>
       </c>
-      <c r="T56" s="6">
+      <c r="U56" s="6">
         <v>101.229</v>
-      </c>
-      <c r="U56" s="6">
-        <v>100</v>
       </c>
       <c r="V56" s="6">
         <v>100</v>
       </c>
-      <c r="AD56" s="4" t="inlineStr">
+      <c r="W56" s="6">
+        <v>100</v>
+      </c>
+      <c r="AE56" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE56" s="4" t="inlineStr">
+      <c r="AF56" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG56" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF56" s="4" t="inlineStr">
+      <c r="AH56" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG56" s="4" t="inlineStr">
+      <c r="AI56" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI56" s="4" t="inlineStr">
+      <c r="AK56" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AJ56" s="4" t="inlineStr">
+      <c r="AL56" s="4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -5644,65 +6206,75 @@
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
+          <t>Z12_B01_P01_Ib02_I02_D001</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
           <t>12.1.bb</t>
         </is>
       </c>
-      <c r="B57" s="5" t="b">
+      <c r="C57" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C57" s="5" t="b">
+      <c r="D57" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N57" s="6">
+      <c r="O57" s="6">
         <v>100</v>
       </c>
-      <c r="O57" s="6">
+      <c r="P57" s="6">
         <v>95.751</v>
       </c>
-      <c r="P57" s="6">
+      <c r="Q57" s="6">
         <v>95.038</v>
       </c>
-      <c r="Q57" s="6">
+      <c r="R57" s="6">
         <v>96.49</v>
       </c>
-      <c r="R57" s="6">
+      <c r="S57" s="6">
         <v>90.044</v>
       </c>
-      <c r="S57" s="6">
+      <c r="T57" s="6">
         <v>92.347</v>
       </c>
-      <c r="T57" s="6">
+      <c r="U57" s="6">
         <v>95.038</v>
       </c>
-      <c r="U57" s="6">
+      <c r="V57" s="6">
         <v>94.057</v>
       </c>
-      <c r="AD57" s="4" t="inlineStr">
+      <c r="AE57" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
-      <c r="AE57" s="4" t="inlineStr">
+      <c r="AF57" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG57" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF57" s="4" t="inlineStr">
+      <c r="AH57" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG57" s="4" t="inlineStr">
+      <c r="AI57" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI57" s="4" t="inlineStr">
+      <c r="AK57" s="4" t="inlineStr">
         <is>
           <t>Sp</t>
         </is>
       </c>
-      <c r="AJ57" s="4" t="inlineStr">
+      <c r="AL57" s="4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -5711,65 +6283,75 @@
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
+          <t>Z12_B01_P01_Ib02_I03_D001</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
           <t>12.1.bc</t>
         </is>
       </c>
-      <c r="B58" s="5" t="b">
+      <c r="C58" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C58" s="5" t="b">
+      <c r="D58" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N58" s="6">
+      <c r="O58" s="6">
         <v>100</v>
       </c>
-      <c r="O58" s="6">
+      <c r="P58" s="6">
         <v>97.395</v>
       </c>
-      <c r="P58" s="6">
+      <c r="Q58" s="6">
         <v>97.977</v>
       </c>
-      <c r="Q58" s="6">
+      <c r="R58" s="6">
         <v>98.721</v>
       </c>
-      <c r="R58" s="6">
+      <c r="S58" s="6">
         <v>91.772</v>
       </c>
-      <c r="S58" s="6">
+      <c r="T58" s="6">
         <v>93.658</v>
       </c>
-      <c r="T58" s="6">
+      <c r="U58" s="6">
         <v>93.839</v>
       </c>
-      <c r="U58" s="6">
+      <c r="V58" s="6">
         <v>92.089</v>
       </c>
-      <c r="AD58" s="4" t="inlineStr">
+      <c r="AE58" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
-      <c r="AE58" s="4" t="inlineStr">
+      <c r="AF58" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I03_D001</t>
+        </is>
+      </c>
+      <c r="AG58" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF58" s="4" t="inlineStr">
+      <c r="AH58" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG58" s="4" t="inlineStr">
+      <c r="AI58" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI58" s="4" t="inlineStr">
+      <c r="AK58" s="4" t="inlineStr">
         <is>
           <t>Sp</t>
         </is>
       </c>
-      <c r="AJ58" s="4" t="inlineStr">
+      <c r="AL58" s="4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -5778,98 +6360,108 @@
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
+          <t>Z12_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
           <t>12.2</t>
         </is>
       </c>
-      <c r="B59" s="5" t="b">
+      <c r="C59" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C59" s="5" t="b">
+      <c r="D59" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I59" s="6">
+      <c r="J59" s="6">
         <v>1958</v>
       </c>
-      <c r="J59" s="6">
+      <c r="K59" s="6">
         <v>1985</v>
       </c>
-      <c r="K59" s="6">
+      <c r="L59" s="6">
         <v>1956</v>
       </c>
-      <c r="L59" s="6">
+      <c r="M59" s="6">
         <v>1917</v>
       </c>
-      <c r="M59" s="6">
+      <c r="N59" s="6">
         <v>1906</v>
       </c>
-      <c r="N59" s="6">
+      <c r="O59" s="6">
         <v>1913</v>
       </c>
-      <c r="O59" s="6">
+      <c r="P59" s="6">
         <v>1909</v>
       </c>
-      <c r="P59" s="6">
+      <c r="Q59" s="6">
         <v>1828</v>
       </c>
-      <c r="Q59" s="6">
+      <c r="R59" s="6">
         <v>1862</v>
       </c>
-      <c r="R59" s="6">
+      <c r="S59" s="6">
         <v>1906</v>
       </c>
-      <c r="S59" s="6">
+      <c r="T59" s="6">
         <v>2004</v>
       </c>
-      <c r="T59" s="6">
+      <c r="U59" s="6">
         <v>2073</v>
       </c>
-      <c r="U59" s="6">
+      <c r="V59" s="6">
         <v>2182</v>
       </c>
-      <c r="V59" s="6">
+      <c r="W59" s="6">
         <v>2167</v>
       </c>
-      <c r="W59" s="6">
+      <c r="X59" s="6">
         <v>2176</v>
       </c>
-      <c r="X59" s="6">
+      <c r="Y59" s="6">
         <v>2184</v>
       </c>
-      <c r="Y59" s="6">
+      <c r="Z59" s="6">
         <v>2290</v>
       </c>
-      <c r="Z59" s="6">
+      <c r="AA59" s="6">
         <v>2361</v>
       </c>
-      <c r="AD59" s="4" t="inlineStr">
+      <c r="AE59" s="4" t="inlineStr">
         <is>
           <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE59" s="4" t="inlineStr">
+      <c r="AF59" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG59" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF59" s="4" t="inlineStr">
+      <c r="AH59" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG59" s="4" t="inlineStr">
+      <c r="AI59" s="4" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="AH59" s="7">
+      <c r="AJ59" s="7">
         <v>2030</v>
       </c>
-      <c r="AI59" s="4" t="inlineStr">
+      <c r="AK59" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ59" s="4" t="inlineStr">
+      <c r="AL59" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -5878,62 +6470,72 @@
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
+          <t>Z12_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
           <t>12.3.a</t>
         </is>
       </c>
-      <c r="B60" s="5" t="b">
+      <c r="C60" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C60" s="5" t="b">
+      <c r="D60" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S60" s="6">
+      <c r="T60" s="6">
         <v>100</v>
       </c>
-      <c r="T60" s="6">
+      <c r="U60" s="6">
         <v>136.802</v>
       </c>
-      <c r="U60" s="6">
+      <c r="V60" s="6">
         <v>147.738</v>
       </c>
-      <c r="V60" s="6">
+      <c r="W60" s="6">
         <v>197.464</v>
       </c>
-      <c r="W60" s="6">
+      <c r="X60" s="6">
         <v>204.067</v>
       </c>
-      <c r="X60" s="6">
+      <c r="Y60" s="6">
         <v>212.886</v>
       </c>
-      <c r="AD60" s="4" t="inlineStr">
+      <c r="AE60" s="4" t="inlineStr">
         <is>
           <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE60" s="4" t="inlineStr">
+      <c r="AF60" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG60" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF60" s="4" t="inlineStr">
+      <c r="AH60" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG60" s="4" t="inlineStr">
+      <c r="AI60" s="4" t="inlineStr">
         <is>
           <t>210,8</t>
         </is>
       </c>
-      <c r="AH60" s="7">
+      <c r="AJ60" s="7">
         <v>2020</v>
       </c>
-      <c r="AI60" s="4" t="inlineStr">
+      <c r="AK60" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ60" s="4" t="inlineStr">
+      <c r="AL60" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5942,59 +6544,69 @@
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
+          <t>Z12_B03_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
           <t>12.3.b</t>
         </is>
       </c>
-      <c r="B61" s="5" t="b">
+      <c r="C61" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C61" s="5" t="b">
+      <c r="D61" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="S61" s="6">
+      <c r="T61" s="6">
         <v>100</v>
       </c>
-      <c r="T61" s="6">
+      <c r="U61" s="6">
         <v>99.978</v>
       </c>
-      <c r="U61" s="6">
+      <c r="V61" s="6">
         <v>100.046</v>
       </c>
-      <c r="V61" s="6">
+      <c r="W61" s="6">
         <v>99.985</v>
       </c>
-      <c r="W61" s="6">
+      <c r="X61" s="6">
         <v>100.63</v>
       </c>
-      <c r="X61" s="6">
+      <c r="Y61" s="6">
         <v>101.773</v>
       </c>
-      <c r="AD61" s="4" t="inlineStr">
+      <c r="AE61" s="4" t="inlineStr">
         <is>
           <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE61" s="4" t="inlineStr">
+      <c r="AF61" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B03_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG61" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF61" s="4" t="inlineStr">
+      <c r="AH61" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG61" s="4" t="inlineStr">
+      <c r="AI61" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI61" s="4" t="inlineStr">
+      <c r="AK61" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AJ61" s="4" t="inlineStr">
+      <c r="AL61" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6003,113 +6615,123 @@
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
+          <t>Z13_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
           <t>13.1.a</t>
         </is>
       </c>
-      <c r="B62" s="5" t="b">
+      <c r="C62" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C62" s="5" t="b">
+      <c r="D62" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D62" s="6">
+      <c r="E62" s="6">
         <v>83.134</v>
       </c>
-      <c r="E62" s="6">
+      <c r="F62" s="6">
         <v>84.307</v>
       </c>
-      <c r="F62" s="6">
+      <c r="G62" s="6">
         <v>82.562</v>
       </c>
-      <c r="G62" s="6">
+      <c r="H62" s="6">
         <v>82.271</v>
       </c>
-      <c r="H62" s="6">
+      <c r="I62" s="6">
         <v>80.744</v>
       </c>
-      <c r="I62" s="6">
+      <c r="J62" s="6">
         <v>78.722</v>
       </c>
-      <c r="J62" s="6">
+      <c r="K62" s="6">
         <v>79.274</v>
       </c>
-      <c r="K62" s="6">
+      <c r="L62" s="6">
         <v>77.114</v>
       </c>
-      <c r="L62" s="6">
+      <c r="M62" s="6">
         <v>77.122</v>
       </c>
-      <c r="M62" s="6">
+      <c r="N62" s="6">
         <v>71.797</v>
       </c>
-      <c r="N62" s="6">
+      <c r="O62" s="6">
         <v>74.517</v>
       </c>
-      <c r="O62" s="6">
+      <c r="P62" s="6">
         <v>72.529</v>
       </c>
-      <c r="P62" s="6">
+      <c r="Q62" s="6">
         <v>72.996</v>
       </c>
-      <c r="Q62" s="6">
+      <c r="R62" s="6">
         <v>74.607</v>
       </c>
-      <c r="R62" s="6">
+      <c r="S62" s="6">
         <v>71.402</v>
       </c>
-      <c r="S62" s="6">
+      <c r="T62" s="6">
         <v>71.662</v>
       </c>
-      <c r="T62" s="6">
+      <c r="U62" s="6">
         <v>71.814</v>
       </c>
-      <c r="U62" s="6">
+      <c r="V62" s="6">
         <v>70.458</v>
       </c>
-      <c r="V62" s="6">
+      <c r="W62" s="6">
         <v>67.627</v>
       </c>
-      <c r="W62" s="6">
+      <c r="X62" s="6">
         <v>63.508</v>
       </c>
-      <c r="X62" s="6">
+      <c r="Y62" s="6">
         <v>58.417</v>
       </c>
-      <c r="Y62" s="6">
+      <c r="Z62" s="6">
         <v>60.769</v>
       </c>
-      <c r="Z62" s="6">
+      <c r="AA62" s="6">
         <v>59.591</v>
       </c>
-      <c r="AD62" s="4" t="inlineStr">
+      <c r="AE62" s="4" t="inlineStr">
         <is>
           <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE62" s="4" t="inlineStr">
+      <c r="AF62" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG62" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF62" s="4" t="inlineStr">
+      <c r="AH62" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG62" s="4" t="inlineStr">
+      <c r="AI62" s="4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AH62" s="7">
+      <c r="AJ62" s="7">
         <v>2030</v>
       </c>
-      <c r="AI62" s="4" t="inlineStr">
+      <c r="AK62" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ62" s="4" t="inlineStr">
+      <c r="AL62" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -6118,77 +6740,87 @@
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
+          <t>Z13_B01_P02_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
           <t>13.1.b</t>
         </is>
       </c>
-      <c r="B63" s="5" t="b">
+      <c r="C63" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C63" s="5" t="b">
+      <c r="D63" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O63" s="6">
+      <c r="P63" s="6">
         <v>1.56</v>
       </c>
-      <c r="P63" s="6">
+      <c r="Q63" s="6">
         <v>1.66</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="R63" s="6">
         <v>1.95</v>
       </c>
-      <c r="R63" s="6">
+      <c r="S63" s="6">
         <v>2.34</v>
       </c>
-      <c r="S63" s="6">
+      <c r="T63" s="6">
         <v>2.684</v>
       </c>
-      <c r="T63" s="6">
+      <c r="U63" s="6">
         <v>3.362</v>
       </c>
-      <c r="U63" s="6">
+      <c r="V63" s="6">
         <v>3.65</v>
       </c>
-      <c r="V63" s="6">
+      <c r="W63" s="6">
         <v>3.37</v>
       </c>
-      <c r="W63" s="6">
+      <c r="X63" s="6">
         <v>4.34</v>
       </c>
-      <c r="X63" s="6">
+      <c r="Y63" s="6">
         <v>5.09</v>
       </c>
-      <c r="Y63" s="6">
+      <c r="Z63" s="6">
         <v>5.34</v>
       </c>
-      <c r="AD63" s="4" t="inlineStr">
+      <c r="AE63" s="4" t="inlineStr">
         <is>
           <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE63" s="4" t="inlineStr">
+      <c r="AF63" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P02_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG63" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF63" s="4" t="inlineStr">
+      <c r="AH63" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG63" s="4" t="inlineStr">
+      <c r="AI63" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AH63" s="7">
+      <c r="AJ63" s="7">
         <v>2025</v>
       </c>
-      <c r="AI63" s="4" t="inlineStr">
+      <c r="AK63" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ63" s="4" t="inlineStr">
+      <c r="AL63" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -6197,107 +6829,117 @@
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
+          <t>Z14_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
           <t>14.1.aa</t>
         </is>
       </c>
-      <c r="B64" s="5" t="b">
+      <c r="C64" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C64" s="5" t="b">
+      <c r="D64" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D64" s="6">
+      <c r="E64" s="6">
         <v>3.832</v>
       </c>
-      <c r="E64" s="6">
+      <c r="F64" s="6">
         <v>3.958</v>
       </c>
-      <c r="F64" s="6">
+      <c r="G64" s="6">
         <v>4.182</v>
       </c>
-      <c r="G64" s="6">
+      <c r="H64" s="6">
         <v>3.741</v>
       </c>
-      <c r="H64" s="6">
+      <c r="I64" s="6">
         <v>3.582</v>
       </c>
-      <c r="I64" s="6">
+      <c r="J64" s="6">
         <v>3.577</v>
       </c>
-      <c r="J64" s="6">
+      <c r="K64" s="6">
         <v>3.515</v>
       </c>
-      <c r="K64" s="6">
+      <c r="L64" s="6">
         <v>3.524</v>
       </c>
-      <c r="L64" s="6">
+      <c r="M64" s="6">
         <v>3.686</v>
       </c>
-      <c r="M64" s="6">
+      <c r="N64" s="6">
         <v>3.602</v>
       </c>
-      <c r="N64" s="6">
+      <c r="O64" s="6">
         <v>3.754</v>
       </c>
-      <c r="O64" s="6">
+      <c r="P64" s="6">
         <v>3.785</v>
       </c>
-      <c r="P64" s="6">
+      <c r="Q64" s="6">
         <v>3.447</v>
       </c>
-      <c r="Q64" s="6">
+      <c r="R64" s="6">
         <v>3.41</v>
       </c>
-      <c r="R64" s="6">
+      <c r="S64" s="6">
         <v>3.352</v>
       </c>
-      <c r="S64" s="6">
+      <c r="T64" s="6">
         <v>3.146</v>
       </c>
-      <c r="T64" s="6">
+      <c r="U64" s="6">
         <v>2.954</v>
       </c>
-      <c r="U64" s="6">
+      <c r="V64" s="6">
         <v>3.191</v>
       </c>
-      <c r="V64" s="6">
+      <c r="W64" s="6">
         <v>3.145</v>
       </c>
-      <c r="W64" s="6">
+      <c r="X64" s="6">
         <v>3.17</v>
       </c>
-      <c r="X64" s="6">
+      <c r="Y64" s="6">
         <v>3.071</v>
       </c>
-      <c r="Y64" s="6">
+      <c r="Z64" s="6">
         <v>3.196</v>
       </c>
-      <c r="AD64" s="4" t="inlineStr">
+      <c r="AE64" s="4" t="inlineStr">
         <is>
           <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE64" s="4" t="inlineStr">
+      <c r="AF64" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG64" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF64" s="4" t="inlineStr">
+      <c r="AH64" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG64" s="4" t="inlineStr">
+      <c r="AI64" s="4" t="inlineStr">
         <is>
           <t>2,6</t>
         </is>
       </c>
-      <c r="AI64" s="4" t="inlineStr">
+      <c r="AK64" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ64" s="4" t="inlineStr">
+      <c r="AL64" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6306,107 +6948,117 @@
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
+          <t>Z14_B01_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
           <t>14.1.ab</t>
         </is>
       </c>
-      <c r="B65" s="5" t="b">
+      <c r="C65" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C65" s="5" t="b">
+      <c r="D65" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D65" s="6">
+      <c r="E65" s="6">
         <v>4.022</v>
       </c>
-      <c r="E65" s="6">
+      <c r="F65" s="6">
         <v>3.833</v>
       </c>
-      <c r="F65" s="6">
+      <c r="G65" s="6">
         <v>3.76</v>
       </c>
-      <c r="G65" s="6">
+      <c r="H65" s="6">
         <v>3.617</v>
       </c>
-      <c r="H65" s="6">
+      <c r="I65" s="6">
         <v>3.583</v>
       </c>
-      <c r="I65" s="6">
+      <c r="J65" s="6">
         <v>3.552</v>
       </c>
-      <c r="J65" s="6">
+      <c r="K65" s="6">
         <v>3.558</v>
       </c>
-      <c r="K65" s="6">
+      <c r="L65" s="6">
         <v>3.481</v>
       </c>
-      <c r="L65" s="6">
+      <c r="M65" s="6">
         <v>3.446</v>
       </c>
-      <c r="M65" s="6">
+      <c r="N65" s="6">
         <v>3.381</v>
       </c>
-      <c r="N65" s="6">
+      <c r="O65" s="6">
         <v>3.385</v>
       </c>
-      <c r="O65" s="6">
+      <c r="P65" s="6">
         <v>3.296</v>
       </c>
-      <c r="P65" s="6">
+      <c r="Q65" s="6">
         <v>3.169</v>
       </c>
-      <c r="Q65" s="6">
+      <c r="R65" s="6">
         <v>3.157</v>
       </c>
-      <c r="R65" s="6">
+      <c r="S65" s="6">
         <v>3.086</v>
       </c>
-      <c r="S65" s="6">
+      <c r="T65" s="6">
         <v>2.978</v>
       </c>
-      <c r="T65" s="6">
+      <c r="U65" s="6">
         <v>2.921</v>
       </c>
-      <c r="U65" s="6">
+      <c r="V65" s="6">
         <v>2.975</v>
       </c>
-      <c r="V65" s="6">
+      <c r="W65" s="6">
         <v>2.838</v>
       </c>
-      <c r="W65" s="6">
+      <c r="X65" s="6">
         <v>2.815</v>
       </c>
-      <c r="X65" s="6">
+      <c r="Y65" s="6">
         <v>2.756</v>
       </c>
-      <c r="Y65" s="6">
+      <c r="Z65" s="6">
         <v>2.75</v>
       </c>
-      <c r="AD65" s="4" t="inlineStr">
+      <c r="AE65" s="4" t="inlineStr">
         <is>
           <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE65" s="4" t="inlineStr">
+      <c r="AF65" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG65" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF65" s="4" t="inlineStr">
+      <c r="AH65" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG65" s="4" t="inlineStr">
+      <c r="AI65" s="4" t="inlineStr">
         <is>
           <t>2,8</t>
         </is>
       </c>
-      <c r="AI65" s="4" t="inlineStr">
+      <c r="AK65" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ65" s="4" t="inlineStr">
+      <c r="AL65" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6415,101 +7067,111 @@
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
+          <t>Z14_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
           <t>14.1.b</t>
         </is>
       </c>
-      <c r="B66" s="5" t="b">
+      <c r="C66" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C66" s="5" t="b">
+      <c r="D66" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G66" s="6">
+      <c r="H66" s="6">
         <v>32.258</v>
       </c>
-      <c r="H66" s="6">
+      <c r="I66" s="6">
         <v>22.581</v>
       </c>
-      <c r="I66" s="6">
+      <c r="J66" s="6">
         <v>19.355</v>
       </c>
-      <c r="J66" s="6">
+      <c r="K66" s="6">
         <v>16.129</v>
       </c>
-      <c r="K66" s="6">
+      <c r="L66" s="6">
         <v>22.581</v>
-      </c>
-      <c r="L66" s="6">
-        <v>32.258</v>
       </c>
       <c r="M66" s="6">
         <v>32.258</v>
       </c>
       <c r="N66" s="6">
-        <v>38.71</v>
+        <v>32.258</v>
       </c>
       <c r="O66" s="6">
         <v>38.71</v>
       </c>
       <c r="P66" s="6">
-        <v>41.935</v>
+        <v>38.71</v>
       </c>
       <c r="Q66" s="6">
         <v>41.935</v>
       </c>
       <c r="R66" s="6">
+        <v>41.935</v>
+      </c>
+      <c r="S66" s="6">
         <v>35.484</v>
       </c>
-      <c r="S66" s="6">
+      <c r="T66" s="6">
         <v>41.935</v>
       </c>
-      <c r="T66" s="6">
+      <c r="U66" s="6">
         <v>45.161</v>
       </c>
-      <c r="U66" s="6">
+      <c r="V66" s="6">
         <v>46.875</v>
       </c>
-      <c r="V66" s="6">
+      <c r="W66" s="6">
         <v>50</v>
       </c>
-      <c r="W66" s="6">
+      <c r="X66" s="6">
         <v>43.75</v>
       </c>
-      <c r="X66" s="6">
+      <c r="Y66" s="6">
         <v>53.125</v>
       </c>
-      <c r="Y66" s="6">
+      <c r="Z66" s="6">
         <v>65.625</v>
       </c>
-      <c r="AD66" s="4" t="inlineStr">
+      <c r="AE66" s="4" t="inlineStr">
         <is>
           <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="AE66" s="4" t="inlineStr">
+      <c r="AF66" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib02_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG66" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF66" s="4" t="inlineStr">
+      <c r="AH66" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG66" s="4" t="inlineStr">
+      <c r="AI66" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="AH66" s="7">
+      <c r="AJ66" s="7">
         <v>2020</v>
       </c>
-      <c r="AI66" s="4" t="inlineStr">
+      <c r="AK66" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ66" s="4" t="inlineStr">
+      <c r="AL66" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6518,95 +7180,105 @@
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
+          <t>Z15_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
           <t>15.1</t>
         </is>
       </c>
-      <c r="B67" s="5" t="b">
+      <c r="C67" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C67" s="5" t="b">
+      <c r="D67" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D67" s="6">
+      <c r="E67" s="6">
         <v>71.864</v>
       </c>
-      <c r="E67" s="6">
+      <c r="F67" s="6">
         <v>71.115</v>
       </c>
-      <c r="F67" s="6">
+      <c r="G67" s="6">
         <v>69.744</v>
       </c>
-      <c r="G67" s="6">
+      <c r="H67" s="6">
         <v>69.809</v>
       </c>
-      <c r="H67" s="6">
+      <c r="I67" s="6">
         <v>72.457</v>
       </c>
-      <c r="I67" s="6">
+      <c r="J67" s="6">
         <v>70.991</v>
       </c>
-      <c r="J67" s="6">
+      <c r="K67" s="6">
         <v>70.212</v>
       </c>
-      <c r="K67" s="6">
+      <c r="L67" s="6">
         <v>70.06</v>
       </c>
-      <c r="L67" s="6">
+      <c r="M67" s="6">
         <v>70.34</v>
       </c>
-      <c r="M67" s="6">
+      <c r="N67" s="6">
         <v>67.219</v>
       </c>
-      <c r="N67" s="6">
+      <c r="O67" s="6">
         <v>67.973</v>
       </c>
-      <c r="O67" s="6">
+      <c r="P67" s="6">
         <v>66.195</v>
       </c>
-      <c r="P67" s="6">
+      <c r="Q67" s="6">
         <v>70.411</v>
       </c>
-      <c r="Q67" s="6">
+      <c r="R67" s="6">
         <v>67.814</v>
       </c>
-      <c r="R67" s="6">
+      <c r="S67" s="6">
         <v>67.006</v>
       </c>
-      <c r="S67" s="6">
+      <c r="T67" s="6">
         <v>69.773</v>
       </c>
-      <c r="T67" s="6">
+      <c r="U67" s="6">
         <v>70.502</v>
       </c>
-      <c r="AD67" s="4" t="inlineStr">
+      <c r="AE67" s="4" t="inlineStr">
         <is>
           <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE67" s="4" t="inlineStr">
+      <c r="AF67" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG67" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF67" s="4" t="inlineStr">
+      <c r="AH67" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG67" s="4" t="inlineStr">
+      <c r="AI67" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="AH67" s="7">
+      <c r="AJ67" s="7">
         <v>2030</v>
       </c>
-      <c r="AI67" s="4" t="inlineStr">
+      <c r="AK67" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
       </c>
-      <c r="AJ67" s="4" t="inlineStr">
+      <c r="AL67" s="4" t="inlineStr">
         <is>
           <t>Ganz alt</t>
         </is>
@@ -6615,68 +7287,78 @@
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
+          <t>Z15_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
           <t>15.2</t>
         </is>
       </c>
-      <c r="B68" s="5" t="b">
+      <c r="C68" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C68" s="5" t="b">
+      <c r="D68" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D68" s="6">
+      <c r="E68" s="6">
         <v>84.377</v>
       </c>
-      <c r="I68" s="6">
+      <c r="J68" s="6">
         <v>79.447</v>
       </c>
-      <c r="N68" s="6">
+      <c r="O68" s="6">
         <v>75.752</v>
       </c>
-      <c r="S68" s="6">
+      <c r="T68" s="6">
         <v>68.677</v>
       </c>
-      <c r="T68" s="6">
+      <c r="U68" s="6">
         <v>71.592</v>
       </c>
-      <c r="U68" s="6">
+      <c r="V68" s="6">
         <v>71.334</v>
       </c>
-      <c r="V68" s="6">
+      <c r="W68" s="6">
         <v>68.811</v>
       </c>
-      <c r="W68" s="6">
+      <c r="X68" s="6">
         <v>68.513</v>
       </c>
-      <c r="AD68" s="4" t="inlineStr">
+      <c r="AE68" s="4" t="inlineStr">
         <is>
           <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE68" s="4" t="inlineStr">
+      <c r="AF68" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG68" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF68" s="4" t="inlineStr">
+      <c r="AH68" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG68" s="4" t="inlineStr">
+      <c r="AI68" s="4" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AH68" s="7">
+      <c r="AJ68" s="7">
         <v>2030</v>
       </c>
-      <c r="AI68" s="4" t="inlineStr">
+      <c r="AK68" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ68" s="4" t="inlineStr">
+      <c r="AL68" s="4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -6685,77 +7367,87 @@
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
+          <t>Z15_B02_P02_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
           <t>15.3.a</t>
         </is>
       </c>
-      <c r="B69" s="5" t="b">
+      <c r="C69" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C69" s="5" t="b">
+      <c r="D69" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M69" s="6">
+      <c r="N69" s="6">
         <v>3</v>
       </c>
-      <c r="N69" s="6">
+      <c r="O69" s="6">
         <v>20</v>
       </c>
-      <c r="O69" s="6">
+      <c r="P69" s="6">
         <v>12</v>
       </c>
-      <c r="P69" s="6">
+      <c r="Q69" s="6">
         <v>24.9</v>
       </c>
-      <c r="Q69" s="6">
+      <c r="R69" s="6">
         <v>36.3</v>
       </c>
-      <c r="R69" s="6">
+      <c r="S69" s="6">
         <v>31</v>
       </c>
-      <c r="S69" s="6">
+      <c r="T69" s="6">
         <v>15.7</v>
       </c>
-      <c r="T69" s="6">
+      <c r="U69" s="6">
         <v>59.8</v>
       </c>
-      <c r="U69" s="6">
+      <c r="V69" s="6">
         <v>68</v>
       </c>
-      <c r="V69" s="6">
+      <c r="W69" s="6">
         <v>63</v>
       </c>
-      <c r="W69" s="6">
+      <c r="X69" s="6">
         <v>63.5</v>
       </c>
-      <c r="X69" s="6">
+      <c r="Y69" s="6">
         <v>24.2</v>
       </c>
-      <c r="AD69" s="4" t="inlineStr">
+      <c r="AE69" s="4" t="inlineStr">
         <is>
           <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE69" s="4" t="inlineStr">
+      <c r="AF69" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P02_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG69" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF69" s="4" t="inlineStr">
+      <c r="AH69" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG69" s="4" t="inlineStr">
+      <c r="AI69" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI69" s="4" t="inlineStr">
+      <c r="AK69" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AJ69" s="4" t="inlineStr">
+      <c r="AL69" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6764,77 +7456,87 @@
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
+          <t>Z15_B02_P02_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
           <t>15.3.b</t>
         </is>
       </c>
-      <c r="B70" s="5" t="b">
+      <c r="C70" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C70" s="5" t="b">
+      <c r="D70" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M70" s="6">
+      <c r="N70" s="6">
         <v>40</v>
       </c>
-      <c r="N70" s="6">
+      <c r="O70" s="6">
         <v>152.5</v>
       </c>
-      <c r="O70" s="6">
+      <c r="P70" s="6">
         <v>198.6</v>
       </c>
-      <c r="P70" s="6">
+      <c r="Q70" s="6">
         <v>245.3</v>
       </c>
-      <c r="Q70" s="6">
+      <c r="R70" s="6">
         <v>248.7</v>
       </c>
-      <c r="R70" s="6">
+      <c r="S70" s="6">
         <v>239.7</v>
       </c>
-      <c r="S70" s="6">
+      <c r="T70" s="6">
         <v>271.9</v>
       </c>
-      <c r="T70" s="6">
+      <c r="U70" s="6">
         <v>347.4</v>
       </c>
-      <c r="U70" s="6">
+      <c r="V70" s="6">
         <v>483.4</v>
       </c>
-      <c r="V70" s="6">
+      <c r="W70" s="6">
         <v>571.8</v>
       </c>
-      <c r="W70" s="6">
+      <c r="X70" s="6">
         <v>745.6</v>
       </c>
-      <c r="X70" s="6">
+      <c r="Y70" s="6">
         <v>703.5</v>
       </c>
-      <c r="AD70" s="4" t="inlineStr">
+      <c r="AE70" s="4" t="inlineStr">
         <is>
           <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE70" s="4" t="inlineStr">
+      <c r="AF70" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P02_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG70" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF70" s="4" t="inlineStr">
+      <c r="AH70" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG70" s="4" t="inlineStr">
+      <c r="AI70" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI70" s="4" t="inlineStr">
+      <c r="AK70" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AJ70" s="4" t="inlineStr">
+      <c r="AL70" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6843,113 +7545,123 @@
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
+          <t>Z16_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
           <t>16.1</t>
         </is>
       </c>
-      <c r="B71" s="5" t="b">
+      <c r="C71" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C71" s="5" t="b">
+      <c r="D71" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D71" s="6">
+      <c r="E71" s="6">
         <v>7691.754</v>
       </c>
-      <c r="E71" s="6">
+      <c r="F71" s="6">
         <v>7811.684</v>
       </c>
-      <c r="F71" s="6">
+      <c r="G71" s="6">
         <v>7977.821</v>
       </c>
-      <c r="G71" s="6">
+      <c r="H71" s="6">
         <v>8055.254</v>
       </c>
-      <c r="H71" s="6">
+      <c r="I71" s="6">
         <v>8137.919</v>
       </c>
-      <c r="I71" s="6">
+      <c r="J71" s="6">
         <v>7851.874</v>
       </c>
-      <c r="J71" s="6">
+      <c r="K71" s="6">
         <v>7757.168</v>
       </c>
-      <c r="K71" s="6">
+      <c r="L71" s="6">
         <v>7751.507</v>
       </c>
-      <c r="L71" s="6">
+      <c r="M71" s="6">
         <v>7556.892</v>
       </c>
-      <c r="M71" s="6">
+      <c r="N71" s="6">
         <v>7509.802</v>
       </c>
-      <c r="N71" s="6">
+      <c r="O71" s="6">
         <v>7384.652</v>
       </c>
-      <c r="O71" s="6">
+      <c r="P71" s="6">
         <v>7467.62</v>
       </c>
-      <c r="P71" s="6">
+      <c r="Q71" s="6">
         <v>7465.7</v>
       </c>
-      <c r="Q71" s="6">
+      <c r="R71" s="6">
         <v>7403.6</v>
       </c>
-      <c r="R71" s="6">
+      <c r="S71" s="6">
         <v>7530.3</v>
       </c>
-      <c r="S71" s="6">
+      <c r="T71" s="6">
         <v>7796.6</v>
       </c>
-      <c r="T71" s="6">
+      <c r="U71" s="6">
         <v>7754.759</v>
       </c>
-      <c r="U71" s="6">
+      <c r="V71" s="6">
         <v>6982.4</v>
       </c>
-      <c r="V71" s="6">
+      <c r="W71" s="6">
         <v>6710.185</v>
       </c>
-      <c r="W71" s="6">
+      <c r="X71" s="6">
         <v>6548.365</v>
       </c>
-      <c r="X71" s="6">
+      <c r="Y71" s="6">
         <v>6385.513</v>
       </c>
-      <c r="Y71" s="6">
+      <c r="Z71" s="6">
         <v>6070.42</v>
       </c>
-      <c r="Z71" s="6">
+      <c r="AA71" s="6">
         <v>6762.108</v>
       </c>
-      <c r="AD71" s="4" t="inlineStr">
+      <c r="AE71" s="4" t="inlineStr">
         <is>
           <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE71" s="4" t="inlineStr">
+      <c r="AF71" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B01_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG71" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF71" s="4" t="inlineStr">
+      <c r="AH71" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="AG71" s="4" t="inlineStr">
+      <c r="AI71" s="4" t="inlineStr">
         <is>
           <t>6500</t>
         </is>
       </c>
-      <c r="AH71" s="7">
+      <c r="AJ71" s="7">
         <v>2030</v>
       </c>
-      <c r="AI71" s="4" t="inlineStr">
+      <c r="AK71" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ71" s="4" t="inlineStr">
+      <c r="AL71" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -6958,89 +7670,99 @@
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
+          <t>Z16_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
           <t>16.2</t>
         </is>
       </c>
-      <c r="B72" s="5" t="b">
+      <c r="C72" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C72" s="5" t="b">
+      <c r="D72" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J72" s="6">
+      <c r="K72" s="6">
         <v>8</v>
       </c>
-      <c r="K72" s="6">
+      <c r="L72" s="6">
         <v>6</v>
       </c>
-      <c r="L72" s="6">
+      <c r="M72" s="6">
         <v>8</v>
       </c>
-      <c r="M72" s="6">
+      <c r="N72" s="6">
         <v>2</v>
       </c>
-      <c r="N72" s="6">
+      <c r="O72" s="6">
         <v>3</v>
       </c>
-      <c r="O72" s="6">
+      <c r="P72" s="6">
         <v>11</v>
       </c>
-      <c r="P72" s="6">
+      <c r="Q72" s="6">
         <v>15</v>
       </c>
-      <c r="Q72" s="6">
+      <c r="R72" s="6">
         <v>14</v>
       </c>
-      <c r="R72" s="6">
+      <c r="S72" s="6">
         <v>15</v>
-      </c>
-      <c r="S72" s="6">
-        <v>26</v>
       </c>
       <c r="T72" s="6">
         <v>26</v>
       </c>
       <c r="U72" s="6">
+        <v>26</v>
+      </c>
+      <c r="V72" s="6">
         <v>19</v>
       </c>
-      <c r="V72" s="6">
+      <c r="W72" s="6">
         <v>36</v>
       </c>
-      <c r="W72" s="6">
+      <c r="X72" s="6">
         <v>31</v>
-      </c>
-      <c r="X72" s="6">
-        <v>38</v>
       </c>
       <c r="Y72" s="6">
         <v>38</v>
       </c>
-      <c r="AD72" s="4" t="inlineStr">
+      <c r="Z72" s="6">
+        <v>38</v>
+      </c>
+      <c r="AE72" s="4" t="inlineStr">
         <is>
           <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE72" s="4" t="inlineStr">
+      <c r="AF72" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG72" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF72" s="4" t="inlineStr">
+      <c r="AH72" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG72" s="4" t="inlineStr">
+      <c r="AI72" s="4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI72" s="4" t="inlineStr">
+      <c r="AK72" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ72" s="4" t="inlineStr">
+      <c r="AL72" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -7049,26 +7771,28 @@
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
+          <t>Z16_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
           <t>16.3.a</t>
         </is>
       </c>
-      <c r="B73" s="5" t="b">
+      <c r="C73" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C73" s="5" t="b">
+      <c r="D73" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P73" s="6">
+      <c r="Q73" s="6">
         <v>79</v>
       </c>
-      <c r="Q73" s="6">
+      <c r="R73" s="6">
         <v>78</v>
       </c>
-      <c r="R73" s="6">
+      <c r="S73" s="6">
         <v>79</v>
-      </c>
-      <c r="S73" s="6">
-        <v>81</v>
       </c>
       <c r="T73" s="6">
         <v>81</v>
@@ -7077,7 +7801,7 @@
         <v>81</v>
       </c>
       <c r="V73" s="6">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W73" s="6">
         <v>80</v>
@@ -7089,34 +7813,42 @@
         <v>80</v>
       </c>
       <c r="Z73" s="6">
+        <v>80</v>
+      </c>
+      <c r="AA73" s="6">
         <v>79</v>
       </c>
-      <c r="AD73" s="4" t="inlineStr">
+      <c r="AE73" s="4" t="inlineStr">
         <is>
           <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE73" s="4" t="inlineStr">
+      <c r="AF73" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG73" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF73" s="4" t="inlineStr">
+      <c r="AH73" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG73" s="4" t="inlineStr">
+      <c r="AI73" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI73" s="4" t="inlineStr">
+      <c r="AK73" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AJ73" s="4" t="inlineStr">
+      <c r="AL73" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -7125,71 +7857,81 @@
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
+          <t>Z16_B03_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
           <t>16.3.b</t>
         </is>
       </c>
-      <c r="B74" s="5" t="b">
+      <c r="C74" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C74" s="5" t="b">
+      <c r="D74" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q74" s="6">
+      <c r="R74" s="6">
         <v>16</v>
-      </c>
-      <c r="R74" s="6">
-        <v>30</v>
       </c>
       <c r="S74" s="6">
         <v>30</v>
       </c>
       <c r="T74" s="6">
+        <v>30</v>
+      </c>
+      <c r="U74" s="6">
         <v>32</v>
       </c>
-      <c r="U74" s="6">
+      <c r="V74" s="6">
         <v>33</v>
       </c>
-      <c r="V74" s="6">
+      <c r="W74" s="6">
         <v>32</v>
       </c>
-      <c r="W74" s="6">
+      <c r="X74" s="6">
         <v>35</v>
-      </c>
-      <c r="X74" s="6">
-        <v>37</v>
       </c>
       <c r="Y74" s="6">
         <v>37</v>
       </c>
       <c r="Z74" s="6">
+        <v>37</v>
+      </c>
+      <c r="AA74" s="6">
         <v>31</v>
       </c>
-      <c r="AD74" s="4" t="inlineStr">
+      <c r="AE74" s="4" t="inlineStr">
         <is>
           <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="AE74" s="4" t="inlineStr">
+      <c r="AF74" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I02_D001</t>
+        </is>
+      </c>
+      <c r="AG74" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AF74" s="4" t="inlineStr">
+      <c r="AH74" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG74" s="4" t="inlineStr">
+      <c r="AI74" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI74" s="4" t="inlineStr">
+      <c r="AK74" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ74" s="4" t="inlineStr">
+      <c r="AL74" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -7198,59 +7940,69 @@
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
+          <t>Z17_B01_P01_Ib01_I01_D002</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
           <t>17.1</t>
         </is>
       </c>
-      <c r="B75" s="5" t="b">
+      <c r="C75" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C75" s="5" t="b">
+      <c r="D75" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="V75" s="6">
+      <c r="W75" s="6">
         <v>0.61</v>
       </c>
-      <c r="W75" s="6">
+      <c r="X75" s="6">
         <v>0.612</v>
       </c>
-      <c r="X75" s="6">
+      <c r="Y75" s="6">
         <v>0.734</v>
       </c>
-      <c r="Y75" s="6">
+      <c r="Z75" s="6">
         <v>0.765</v>
       </c>
-      <c r="Z75" s="6">
+      <c r="AA75" s="6">
         <v>0.833</v>
       </c>
-      <c r="AD75" s="4" t="inlineStr">
+      <c r="AE75" s="4" t="inlineStr">
         <is>
           <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE75" s="4" t="inlineStr">
+      <c r="AF75" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B01_P01_Ib01_I01_D002</t>
+        </is>
+      </c>
+      <c r="AG75" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF75" s="4" t="inlineStr">
+      <c r="AH75" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG75" s="4" t="inlineStr">
+      <c r="AI75" s="4" t="inlineStr">
         <is>
           <t>0,7</t>
         </is>
       </c>
-      <c r="AH75" s="7">
+      <c r="AJ75" s="7">
         <v>2030</v>
       </c>
-      <c r="AI75" s="4" t="inlineStr">
+      <c r="AK75" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ75" s="4" t="inlineStr">
+      <c r="AL75" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -7259,92 +8011,102 @@
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
+          <t>Z17_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
           <t>17.2</t>
         </is>
       </c>
-      <c r="B76" s="5" t="b">
+      <c r="C76" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C76" s="5" t="b">
+      <c r="D76" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I76" s="6">
+      <c r="J76" s="6">
         <v>140519</v>
       </c>
-      <c r="J76" s="6">
+      <c r="K76" s="6">
         <v>141289</v>
       </c>
-      <c r="K76" s="6">
+      <c r="L76" s="6">
         <v>136087</v>
       </c>
-      <c r="L76" s="6">
+      <c r="M76" s="6">
         <v>140832</v>
       </c>
-      <c r="M76" s="6">
+      <c r="N76" s="6">
         <v>147152</v>
       </c>
-      <c r="N76" s="6">
+      <c r="O76" s="6">
         <v>153690</v>
       </c>
-      <c r="O76" s="6">
+      <c r="P76" s="6">
         <v>158557</v>
       </c>
-      <c r="P76" s="6">
+      <c r="Q76" s="6">
         <v>170618</v>
       </c>
-      <c r="Q76" s="6">
+      <c r="R76" s="6">
         <v>185787</v>
       </c>
-      <c r="R76" s="6">
+      <c r="S76" s="6">
         <v>200349</v>
       </c>
-      <c r="S76" s="6">
+      <c r="T76" s="6">
         <v>215258</v>
       </c>
-      <c r="T76" s="6">
+      <c r="U76" s="6">
         <v>230689</v>
       </c>
-      <c r="U76" s="6">
+      <c r="V76" s="6">
         <v>247436</v>
       </c>
-      <c r="V76" s="6">
+      <c r="W76" s="6">
         <v>267250</v>
       </c>
-      <c r="W76" s="6">
+      <c r="X76" s="6">
         <v>285450</v>
       </c>
-      <c r="X76" s="6">
+      <c r="Y76" s="6">
         <v>298149</v>
       </c>
-      <c r="Y76" s="6">
+      <c r="Z76" s="6">
         <v>316001</v>
       </c>
-      <c r="AD76" s="4" t="inlineStr">
+      <c r="AE76" s="4" t="inlineStr">
         <is>
           <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE76" s="4" t="inlineStr">
+      <c r="AF76" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG76" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="AF76" s="4" t="inlineStr">
+      <c r="AH76" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG76" s="4" t="inlineStr">
+      <c r="AI76" s="4" t="inlineStr">
         <is>
           <t>237000</t>
         </is>
       </c>
-      <c r="AI76" s="4" t="inlineStr">
+      <c r="AK76" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AJ76" s="4" t="inlineStr">
+      <c r="AL76" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -7353,62 +8115,64 @@
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
+          <t>Z17_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
           <t>17.3</t>
         </is>
       </c>
-      <c r="B77" s="5" t="b">
+      <c r="C77" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C77" s="5" t="b">
+      <c r="D77" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F77" s="6">
+      <c r="G77" s="6">
         <v>0.44</v>
-      </c>
-      <c r="G77" s="6">
-        <v>0.52</v>
       </c>
       <c r="H77" s="6">
         <v>0.52</v>
       </c>
       <c r="I77" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="J77" s="6">
         <v>0.44</v>
       </c>
-      <c r="J77" s="6">
+      <c r="K77" s="6">
         <v>0.49</v>
       </c>
-      <c r="K77" s="6">
+      <c r="L77" s="6">
         <v>0.52</v>
       </c>
-      <c r="L77" s="6">
+      <c r="M77" s="6">
         <v>0.46</v>
       </c>
-      <c r="M77" s="6">
+      <c r="N77" s="6">
         <v>0.58</v>
       </c>
-      <c r="N77" s="6">
+      <c r="O77" s="6">
         <v>0.53</v>
       </c>
-      <c r="O77" s="6">
+      <c r="P77" s="6">
         <v>0.67</v>
       </c>
-      <c r="P77" s="6">
+      <c r="Q77" s="6">
         <v>0.62</v>
-      </c>
-      <c r="Q77" s="6">
-        <v>0.71</v>
       </c>
       <c r="R77" s="6">
         <v>0.71</v>
       </c>
       <c r="S77" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="T77" s="6">
         <v>0.81</v>
       </c>
-      <c r="T77" s="6">
+      <c r="U77" s="6">
         <v>0.88</v>
-      </c>
-      <c r="U77" s="6">
-        <v>0.94</v>
       </c>
       <c r="V77" s="6">
         <v>0.94</v>
@@ -7417,43 +8181,51 @@
         <v>0.94</v>
       </c>
       <c r="X77" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="Y77" s="6">
         <v>0.98</v>
       </c>
-      <c r="Y77" s="6">
+      <c r="Z77" s="6">
         <v>1.03</v>
       </c>
-      <c r="Z77" s="6">
+      <c r="AA77" s="6">
         <v>1.15</v>
       </c>
-      <c r="AD77" s="4" t="inlineStr">
+      <c r="AE77" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="AE77" s="4" t="inlineStr">
+      <c r="AF77" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="AG77" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AF77" s="4" t="inlineStr">
+      <c r="AH77" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="AG77" s="4" t="inlineStr">
+      <c r="AI77" s="4" t="inlineStr">
         <is>
           <t>1,43</t>
         </is>
       </c>
-      <c r="AH77" s="7">
+      <c r="AJ77" s="7">
         <v>2030</v>
       </c>
-      <c r="AI77" s="4" t="inlineStr">
+      <c r="AK77" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AJ77" s="4" t="inlineStr">
+      <c r="AL77" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
